--- a/6_notes.xlsx
+++ b/6_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmir\PycharmProjects\poor-almanac-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89892F77-49E4-46EF-A42B-4F8B1190AAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ACA870-55A8-483E-9734-9EC7A741B458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19656" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="291">
   <si>
     <t>symbol</t>
   </si>
@@ -887,6 +887,12 @@
   </si>
   <si>
     <t>2002-05-17</t>
+  </si>
+  <si>
+    <t>SLGG</t>
+  </si>
+  <si>
+    <t>BLDE</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2701,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3" spans="1:241" x14ac:dyDescent="0.3">
@@ -3426,17 +3432,23 @@
         <v>1</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:241" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="5" spans="1:241" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/6_notes.xlsx
+++ b/6_notes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IG5"/>
+  <dimension ref="A1:IF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,535 +1101,530 @@
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>recent_year_check</t>
+          <t>mean_revenue</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>mean_revenue</t>
+          <t>mean_costOfRevenue</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>mean_costOfRevenue</t>
+          <t>mean_PPEnet</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>mean_PPEnet</t>
+          <t>name</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>changesPercentage</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>changesPercentage</t>
+          <t>change</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>dayLow</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>dayLow</t>
+          <t>dayHigh</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>dayHigh</t>
+          <t>priceAvg50</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>priceAvg50</t>
+          <t>priceAvg200</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>priceAvg200</t>
+          <t>volume</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>avgVolume</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>avgVolume</t>
+          <t>exchange</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>exchange</t>
+          <t>open</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>previousClose</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>previousClose</t>
+          <t>pe</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>pe</t>
+          <t>sharesOutstanding</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>sharesOutstanding</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>revenue_minus_one_y</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>revenue_minus_one_y</t>
+          <t>operatingExpenses_minus_one_y</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>operatingExpenses_minus_one_y</t>
+          <t>totalCurrentAssets_minus_one_y</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>totalCurrentAssets_minus_one_y</t>
+          <t>deferredRevenue_minus_one_y</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>deferredRevenue_minus_one_y</t>
+          <t>totalCurrentLiabilities_minus_one_y</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>totalCurrentLiabilities_minus_one_y</t>
+          <t>totalStockholdersEquity_minus_one_y</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>totalStockholdersEquity_minus_one_y</t>
+          <t>netDebt_minus_one_y</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>netDebt_minus_one_y</t>
+          <t>ncfo_minus_one_y</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>ncfo_minus_one_y</t>
+          <t>revenue_minus_two_y</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>revenue_minus_two_y</t>
+          <t>operatingExpenses_minus_two_y</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>operatingExpenses_minus_two_y</t>
+          <t>totalCurrentAssets_minus_two_y</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>totalCurrentAssets_minus_two_y</t>
+          <t>deferredRevenue_minus_two_y</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>deferredRevenue_minus_two_y</t>
+          <t>totalCurrentLiabilities_minus_two_y</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>totalCurrentLiabilities_minus_two_y</t>
+          <t>totalStockholdersEquity_minus_two_y</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>totalStockholdersEquity_minus_two_y</t>
+          <t>revenue_last_q</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>revenue_last_q</t>
+          <t>operatingExpenses_last_q</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>operatingExpenses_last_q</t>
+          <t>totalCurrentAssets_last_q</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>totalCurrentAssets_last_q</t>
+          <t>deferredRevenue_last_q</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>deferredRevenue_last_q</t>
+          <t>totalCurrentLiabilities_last_q</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>totalCurrentLiabilities_last_q</t>
+          <t>totalStockholdersEquity_last_q</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>totalStockholdersEquity_last_q</t>
+          <t>netDebt_last_q</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>netDebt_last_q</t>
+          <t>netCashProvidedByOperatingActivites_last_q</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>netCashProvidedByOperatingActivites_last_q</t>
+          <t>revenue_minus_one_q</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>revenue_minus_one_q</t>
+          <t>operatingExpenses_minus_one_q</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>operatingExpenses_minus_one_q</t>
+          <t>totalCurrentAssets_minus_one_q</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>totalCurrentAssets_minus_one_q</t>
+          <t>deferredRevenue_minus_one_q</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>deferredRevenue_minus_one_q</t>
+          <t>totalCurrentLiabilities_minus_one_q</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>totalCurrentLiabilities_minus_one_q</t>
+          <t>totalStockholdersEquity_minus_one_q</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>totalStockholdersEquity_minus_one_q</t>
+          <t>netDebt_minus_one_q</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>netDebt_minus_one_q</t>
+          <t>ncfo_minus_one_q</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>ncfo_minus_one_q</t>
+          <t>revenue_minus_two_q</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>revenue_minus_two_q</t>
+          <t>operatingExpenses_minus_two_q</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>operatingExpenses_minus_two_q</t>
+          <t>totalCurrentAssets_minus_two_q</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>totalCurrentAssets_minus_two_q</t>
+          <t>deferredRevenue_minus_two_q</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>deferredRevenue_minus_two_q</t>
+          <t>totalCurrentLiabilities_minus_two_q</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>totalCurrentLiabilities_minus_two_q</t>
+          <t>totalStockholdersEquity_minus_two_q</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>totalStockholdersEquity_minus_two_q</t>
+          <t>netDebt_minus_two_q</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>netDebt_minus_two_q</t>
+          <t>ncfo_minus_two_q</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>ncfo_minus_two_q</t>
+          <t>revenue_TTM</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>revenue_TTM</t>
+          <t>ncfo_TTM</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>ncfo_TTM</t>
+          <t>capex_TTM</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>capex_TTM</t>
+          <t>price</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>volAvg</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>volAvg</t>
+          <t>mktCap</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>mktCap</t>
+          <t>lastDiv</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>lastDiv</t>
+          <t>range</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>changes</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>changes</t>
+          <t>currency</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>currency</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>isin</t>
+          <t>cusip</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>cusip</t>
+          <t>exchangeShortName</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>exchangeShortName</t>
+          <t>website</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>description</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>ceo</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>ceo</t>
+          <t>sector</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>sector</t>
+          <t>fullTimeEmployees</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>fullTimeEmployees</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>address</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>city</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>state</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>zip</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>zip</t>
+          <t>dcfDiff</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>dcfDiff</t>
+          <t>dcf</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>dcf</t>
+          <t>image</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>ipoDate</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>ipoDate</t>
+          <t>defaultImage</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>defaultImage</t>
+          <t>isEtf</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>isEtf</t>
+          <t>isActivelyTrading</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>isActivelyTrading</t>
+          <t>isAdr</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>isAdr</t>
+          <t>booking_y</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>booking_y</t>
+          <t>booking_minus_one_y</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>booking_minus_one_y</t>
+          <t>rev_plus_booking_y</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>rev_plus_booking_y</t>
+          <t>rev_plus_booking_minus_one_y</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>rev_plus_booking_minus_one_y</t>
+          <t>booking_q</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>booking_q</t>
+          <t>booking_minus_one_q</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>booking_minus_one_q</t>
+          <t>rev_plus_booking_q</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>rev_plus_booking_q</t>
+          <t>rev_plus_booking_minus_one_q</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>rev_plus_booking_minus_one_q</t>
+          <t>Sales_absolute_increase</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>Sales_absolute_increase</t>
+          <t>maint_capex_ratio</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>maint_capex_ratio</t>
+          <t>growth_capex</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>growth_capex</t>
+          <t>capex_more_correct</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>capex_more_correct</t>
+          <t>NAV/S</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>NAV/S</t>
+          <t>OwnEa</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>OwnEa</t>
+          <t>OwnEa/S</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>OwnEa/S</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>WC/S</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
-        <is>
-          <t>WC/S</t>
-        </is>
-      </c>
-      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>WC/S/p</t>
         </is>
@@ -1725,7 +1720,7 @@
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>7344</v>
+        <v>8511</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -2063,27 +2058,27 @@
         <v>265000</v>
       </c>
       <c r="EE2" t="n">
-        <v>1</v>
+        <v>12407000</v>
       </c>
       <c r="EF2" t="n">
-        <v>12407000</v>
+        <v>8099200</v>
       </c>
       <c r="EG2" t="n">
-        <v>8099200</v>
-      </c>
-      <c r="EH2" t="n">
         <v>751600</v>
       </c>
-      <c r="EI2" t="inlineStr">
+      <c r="EH2" t="inlineStr">
         <is>
           <t>Giga-tronics Incorporated</t>
         </is>
       </c>
+      <c r="EI2" t="n">
+        <v>0</v>
+      </c>
       <c r="EJ2" t="n">
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EL2" t="n">
         <v>3</v>
@@ -2095,262 +2090,264 @@
         <v>3</v>
       </c>
       <c r="EO2" t="n">
+        <v>25</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>3142</v>
+      </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>MUTUAL_FUND</t>
+        </is>
+      </c>
+      <c r="ER2" t="n">
         <v>3</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>25</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>3091</v>
-      </c>
-      <c r="ER2" t="inlineStr">
-        <is>
-          <t>MUTUAL_FUND</t>
-        </is>
       </c>
       <c r="ES2" t="n">
         <v>3</v>
       </c>
       <c r="ET2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>2725010</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1643102039</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>11768000</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>5021000</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>7059000</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>159000</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>3372000</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>4300000</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>-657000</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>-2359000</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>11148000</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>5011000</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>5534000</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>2132000</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>3913000</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1815000</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>3567000</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1283000</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>7751000</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>3309000</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>5343000</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1223000</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>-930000</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>6832000</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>103000</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>4113000</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>3527000</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>291000</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-699000</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>2728000</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1646000</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>6358000</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>7000</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>2904000</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>4247000</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1082000</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>-974000</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>12429000</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>-1094000</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-63000</v>
+      </c>
+      <c r="GL2" t="n">
         <v>3</v>
       </c>
-      <c r="EU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>2725010</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1643057231</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>11768000</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>5021000</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>7059000</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>159000</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>3372000</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>4300000</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>-657000</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>-2359000</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>11148000</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>5011000</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>5534000</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>2132000</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>3913000</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1815000</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>3567000</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1283000</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>7751000</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>3309000</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>5343000</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1223000</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>-930000</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>2050000</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>6832000</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>103000</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>4113000</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>3527000</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>291000</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>-699000</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>2728000</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1646000</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>6358000</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>7000</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>2904000</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>4247000</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1082000</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-974000</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>12429000</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>-1094000</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>-63000</v>
-      </c>
       <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>3038</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>7521027</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ2" t="inlineStr">
+        <is>
+          <t>2.75-5.5</t>
+        </is>
+      </c>
+      <c r="GR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="GT2" t="inlineStr">
+        <is>
+          <t>US3751751062</t>
+        </is>
+      </c>
+      <c r="GU2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="GV2" t="inlineStr">
+        <is>
+          <t>MUTUAL_FUND</t>
+        </is>
+      </c>
+      <c r="GW2" t="inlineStr">
+        <is>
+          <t>https://gigatronics.com</t>
+        </is>
+      </c>
+      <c r="GX2" t="inlineStr">
+        <is>
+          <t>Giga-tronics Incorporated, together with its subsidiaries, develops and manufactures electronics equipment for military test and airborne operational applications in the United States and internationally. It operates through two segments, Microsource and the Giga-tronics Division. The company also develops microwave integrated components, as well as MIC components; Band Reject Filters for RADAR/EW (electronic warfare) for solving interference problems in RADAR/EW applications; self-protection systems for military aircrafts; and RADAR filters for military fighter jet aircraft. In addition, it designs, manufactures, and markets functional test products for testing RADAR/EW equipment of the defense electronics market. The company serves prime defense contractors, the armed services, and research institutes. Giga-tronics Incorporated was incorporated in 1980 and is headquartered in Dublin, California.</t>
+        </is>
+      </c>
+      <c r="GY2" t="inlineStr">
+        <is>
+          <t>Mr. John R. Regazzi</t>
+        </is>
+      </c>
+      <c r="GZ2" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="HA2" t="n">
+        <v>42</v>
+      </c>
+      <c r="HB2" t="inlineStr">
+        <is>
+          <t>925 328 4650</t>
+        </is>
+      </c>
+      <c r="HC2" t="inlineStr">
+        <is>
+          <t>5990 Gleason Drive</t>
+        </is>
+      </c>
+      <c r="HD2" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="HE2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="HF2" t="inlineStr">
+        <is>
+          <t>94568</t>
+        </is>
+      </c>
+      <c r="HG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH2" t="n">
         <v>3</v>
       </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>3090</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>7521027</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR2" t="inlineStr">
-        <is>
-          <t>2.75-5.5</t>
-        </is>
-      </c>
-      <c r="GS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT2" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="GU2" t="inlineStr">
-        <is>
-          <t>US3751751062</t>
-        </is>
-      </c>
-      <c r="GV2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="GW2" t="inlineStr">
-        <is>
-          <t>MUTUAL_FUND</t>
-        </is>
-      </c>
-      <c r="GX2" t="inlineStr">
-        <is>
-          <t>https://gigatronics.com</t>
-        </is>
-      </c>
-      <c r="GY2" t="inlineStr">
-        <is>
-          <t>Giga-tronics Incorporated, together with its subsidiaries, develops and manufactures electronics equipment for military test and airborne operational applications in the United States and internationally. It operates through two segments, Microsource and the Giga-tronics Division. The company also develops microwave integrated components, as well as MIC components; Band Reject Filters for RADAR/EW (electronic warfare) for solving interference problems in RADAR/EW applications; self-protection systems for military aircrafts; and RADAR filters for military fighter jet aircraft. In addition, it designs, manufactures, and markets functional test products for testing RADAR/EW equipment of the defense electronics market. The company serves prime defense contractors, the armed services, and research institutes. Giga-tronics Incorporated was incorporated in 1980 and is headquartered in Dublin, California.</t>
-        </is>
-      </c>
-      <c r="GZ2" t="inlineStr">
-        <is>
-          <t>Mr. John R. Regazzi</t>
-        </is>
-      </c>
-      <c r="HA2" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="HB2" t="n">
-        <v>42</v>
-      </c>
-      <c r="HC2" t="inlineStr">
-        <is>
-          <t>925 328 4650</t>
-        </is>
-      </c>
-      <c r="HD2" t="inlineStr">
-        <is>
-          <t>5990 Gleason Drive</t>
-        </is>
-      </c>
-      <c r="HE2" t="inlineStr">
-        <is>
-          <t>Dublin</t>
-        </is>
-      </c>
-      <c r="HF2" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="HG2" t="inlineStr">
-        <is>
-          <t>94568</t>
-        </is>
-      </c>
-      <c r="HH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>3</v>
+      <c r="HI2" t="inlineStr">
+        <is>
+          <t>https://fmpcloud.io/image-stock/GIGA.png</t>
+        </is>
       </c>
       <c r="HJ2" t="inlineStr">
         <is>
-          <t>https://fmpcloud.io/image-stock/GIGA.png</t>
+          <t>1983-06-20</t>
         </is>
       </c>
       <c r="HK2" t="inlineStr">
         <is>
-          <t>1983-06-20</t>
+          <t>False</t>
         </is>
       </c>
       <c r="HL2" t="inlineStr">
@@ -2360,71 +2357,66 @@
       </c>
       <c r="HM2" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="HN2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="HO2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
+      <c r="HO2" t="n">
+        <v>-152000</v>
       </c>
       <c r="HP2" t="n">
-        <v>-152000</v>
+        <v>-1973000</v>
       </c>
       <c r="HQ2" t="n">
-        <v>-1973000</v>
+        <v>12900000</v>
       </c>
       <c r="HR2" t="n">
-        <v>12900000</v>
+        <v>9795000</v>
       </c>
       <c r="HS2" t="n">
-        <v>9795000</v>
+        <v>-102000</v>
       </c>
       <c r="HT2" t="n">
-        <v>-102000</v>
+        <v>96000</v>
       </c>
       <c r="HU2" t="n">
-        <v>96000</v>
+        <v>3465000</v>
       </c>
       <c r="HV2" t="n">
-        <v>3465000</v>
+        <v>2146000</v>
       </c>
       <c r="HW2" t="n">
-        <v>2146000</v>
+        <v>-623000</v>
       </c>
       <c r="HX2" t="n">
-        <v>-623000</v>
+        <v>0</v>
       </c>
       <c r="HY2" t="n">
-        <v>0</v>
+        <v>-37741</v>
       </c>
       <c r="HZ2" t="n">
-        <v>-37741</v>
+        <v>-25259</v>
       </c>
       <c r="IA2" t="n">
-        <v>-25259</v>
+        <v>2</v>
       </c>
       <c r="IB2" t="n">
+        <v>-1119259</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>4442000</v>
+      </c>
+      <c r="IE2" t="n">
         <v>2</v>
       </c>
-      <c r="IC2" t="n">
-        <v>-1119259</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>-0</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>4442000</v>
-      </c>
       <c r="IF2" t="n">
-        <v>2</v>
-      </c>
-      <c r="IG2" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -2453,10 +2445,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
         <v>1.57</v>
@@ -2498,7 +2490,7 @@
         <v>-12.78</v>
       </c>
       <c r="U3" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V3" t="n">
         <v>-1</v>
@@ -2510,7 +2502,7 @@
         <v>788611</v>
       </c>
       <c r="Y3" t="n">
-        <v>18207018</v>
+        <v>18477888</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
@@ -2518,7 +2510,7 @@
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>2312</v>
+        <v>2679</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -2856,27 +2848,27 @@
         <v>-5108727</v>
       </c>
       <c r="EE3" t="n">
+        <v>641196</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>387528</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>304374</v>
+      </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>Sigma Labs, Inc.</t>
+        </is>
+      </c>
+      <c r="EI3" t="n">
         <v>1</v>
       </c>
-      <c r="EF3" t="n">
-        <v>641196</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>387528</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>304374</v>
-      </c>
-      <c r="EI3" t="inlineStr">
-        <is>
-          <t>Sigma Labs, Inc.</t>
-        </is>
-      </c>
       <c r="EJ3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="n">
         <v>2</v>
@@ -2885,340 +2877,337 @@
         <v>2</v>
       </c>
       <c r="EN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>130711</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>127649</v>
+      </c>
+      <c r="EQ3" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="ER3" t="n">
         <v>2</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>129912</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>127030</v>
-      </c>
-      <c r="ER3" t="inlineStr">
-        <is>
-          <t>NASDAQ</t>
-        </is>
       </c>
       <c r="ES3" t="n">
         <v>2</v>
       </c>
       <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>10498800</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>1643102299</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>402446</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>6159953</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>940904</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>139447</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>1039219</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>652249</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>-36919</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>-5514805</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>388574</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>5687271</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>1747836</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>51498</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>695819</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>1735439</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>700237</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>3026888</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>14718356</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>85480</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>741252</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>14915868</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>-13064394</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>-1519970</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>144148</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>2168651</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>16135890</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>63569</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>563436</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>16392156</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>-14731115</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>-2026034</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>458140</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>1781404</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>18114484</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>76417</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>5480185</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>13419732</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>-16843201</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>-1240586</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>1472069</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>-5919863</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>-303679</v>
+      </c>
+      <c r="GL3" t="n">
         <v>2</v>
       </c>
-      <c r="EU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>10498799</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>1643057741</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>402446</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>6159953</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>940904</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>139447</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>1039219</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>652249</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>-36919</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>-5514805</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>388574</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>5687271</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>1747836</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>51498</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>695819</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>1735439</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>700237</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3026888</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>14718356</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>85480</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>741252</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>14915868</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>-13064394</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>-1519970</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>144148</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>2168651</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>16135890</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>63569</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>563436</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>16392156</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>-14731115</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>-2026034</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>458140</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>1781404</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>18114484</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>76417</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>5480185</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>13419732</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>-16843201</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>-1240586</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>1472069</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>-5919863</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>-303679</v>
-      </c>
       <c r="GM3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GN3" t="n">
+        <v>126416</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>19422780</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ3" t="inlineStr">
+        <is>
+          <t>1.57-9.75</t>
+        </is>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="GT3" t="inlineStr">
+        <is>
+          <t>US8265985007</t>
+        </is>
+      </c>
+      <c r="GU3" t="inlineStr">
+        <is>
+          <t>826598500</t>
+        </is>
+      </c>
+      <c r="GV3" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="GW3" t="inlineStr">
+        <is>
+          <t>https://www.sigmalabsinc.com</t>
+        </is>
+      </c>
+      <c r="GX3" t="inlineStr">
+        <is>
+          <t>Sigma Labs, Inc., a software company, provides in-process quality assurance software to the additive manufacturing industry under the PrintRite3D brand. It also offers PrintRite3D Lite, which has a smaller footprint and is geared towards single-laser machines for research and development, or small production lots; PrintRite3D Pro, for single, dual and quad laser machines and for environments with less than 10 machines; PrintRite3D Enterprise for plant-wide networks; and PrintRite3D for Direct Energy Deposition is based on a laser process in which a laser beam generates a melt pool on a substrate. The company also provides PrintRite3D-enabled engineering consulting services. It serves aerospace, defense, oil and gas, bio-medical, and power generation industries. The company was formerly known as Framewaves Inc. and changed its name to Sigma Labs, Inc. in September 2010. Sigma Labs, Inc. was incorporated in 1985 and is headquartered in Santa Fe, New Mexico.</t>
+        </is>
+      </c>
+      <c r="GY3" t="inlineStr">
+        <is>
+          <t>Mr. John Rice</t>
+        </is>
+      </c>
+      <c r="GZ3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="HA3" t="n">
+        <v>20</v>
+      </c>
+      <c r="HB3" t="inlineStr">
+        <is>
+          <t>15054382576</t>
+        </is>
+      </c>
+      <c r="HC3" t="inlineStr">
+        <is>
+          <t>3900 Paseo Del Sol</t>
+        </is>
+      </c>
+      <c r="HD3" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="HE3" t="inlineStr">
+        <is>
+          <t>NEW MEXICO</t>
+        </is>
+      </c>
+      <c r="HF3" t="inlineStr">
+        <is>
+          <t>87507</t>
+        </is>
+      </c>
+      <c r="HG3" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI3" t="inlineStr">
+        <is>
+          <t>https://fmpcloud.io/image-stock/SGLB.png</t>
+        </is>
+      </c>
+      <c r="HJ3" t="inlineStr">
+        <is>
+          <t>2002-05-17</t>
+        </is>
+      </c>
+      <c r="HK3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="HL3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="HM3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="HN3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="HO3" t="n">
+        <v>-61490</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>87949</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>745998</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>490395</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>21911</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>-12848</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>722148</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>131300</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>664581</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>315475</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>-619154</v>
+      </c>
+      <c r="IA3" t="n">
         <v>1</v>
       </c>
-      <c r="GO3" t="n">
-        <v>128808</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>19055322</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR3" t="inlineStr">
-        <is>
-          <t>1.69-9.75</t>
-        </is>
-      </c>
-      <c r="GS3" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GT3" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="GU3" t="inlineStr">
-        <is>
-          <t>US8265985007</t>
-        </is>
-      </c>
-      <c r="GV3" t="inlineStr">
-        <is>
-          <t>826598500</t>
-        </is>
-      </c>
-      <c r="GW3" t="inlineStr">
-        <is>
-          <t>NASDAQ</t>
-        </is>
-      </c>
-      <c r="GX3" t="inlineStr">
-        <is>
-          <t>https://www.sigmalabsinc.com</t>
-        </is>
-      </c>
-      <c r="GY3" t="inlineStr">
-        <is>
-          <t>Sigma Labs, Inc., a software company, provides in-process quality assurance software to the additive manufacturing industry under the PrintRite3D brand. It also offers PrintRite3D Lite, which has a smaller footprint and is geared towards single-laser machines for research and development, or small production lots; PrintRite3D Pro, for single, dual and quad laser machines and for environments with less than 10 machines; PrintRite3D Enterprise for plant-wide networks; and PrintRite3D for Direct Energy Deposition is based on a laser process in which a laser beam generates a melt pool on a substrate. The company also provides PrintRite3D-enabled engineering consulting services. It serves aerospace, defense, oil and gas, bio-medical, and power generation industries. The company was formerly known as Framewaves Inc. and changed its name to Sigma Labs, Inc. in September 2010. Sigma Labs, Inc. was incorporated in 1985 and is headquartered in Santa Fe, New Mexico.</t>
-        </is>
-      </c>
-      <c r="GZ3" t="inlineStr">
-        <is>
-          <t>Mr. John Rice</t>
-        </is>
-      </c>
-      <c r="HA3" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="HB3" t="n">
-        <v>20</v>
-      </c>
-      <c r="HC3" t="inlineStr">
-        <is>
-          <t>15054382576</t>
-        </is>
-      </c>
-      <c r="HD3" t="inlineStr">
-        <is>
-          <t>3900 Paseo Del Sol</t>
-        </is>
-      </c>
-      <c r="HE3" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="HF3" t="inlineStr">
-        <is>
-          <t>NEW MEXICO</t>
-        </is>
-      </c>
-      <c r="HG3" t="inlineStr">
-        <is>
-          <t>87507</t>
-        </is>
-      </c>
-      <c r="HH3" t="n">
-        <v>4</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="inlineStr">
-        <is>
-          <t>https://fmpcloud.io/image-stock/SGLB.png</t>
-        </is>
-      </c>
-      <c r="HK3" t="inlineStr">
-        <is>
-          <t>2002-05-17</t>
-        </is>
-      </c>
-      <c r="HL3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="HM3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="HN3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="HO3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="HP3" t="n">
-        <v>-61490</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>87949</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>745998</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>490395</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>21911</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>-12848</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>722148</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>131300</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>664581</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>315475</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>-619154</v>
-      </c>
       <c r="IB3" t="n">
+        <v>-6539017</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>13977104</v>
+      </c>
+      <c r="IE3" t="n">
         <v>1</v>
       </c>
-      <c r="IC3" t="n">
-        <v>-6539017</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>13977104</v>
-      </c>
       <c r="IF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
@@ -3246,10 +3235,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.76</v>
+        <v>5.84</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
         <v>5.4</v>
@@ -3291,7 +3280,7 @@
         <v>-98.03</v>
       </c>
       <c r="U4" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="V4" t="n">
         <v>-52</v>
@@ -3303,7 +3292,7 @@
         <v>1779128</v>
       </c>
       <c r="Y4" t="n">
-        <v>406384160</v>
+        <v>412028352</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
@@ -3311,7 +3300,7 @@
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>10263</v>
+        <v>11971</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -3649,369 +3638,366 @@
         <v>-15912</v>
       </c>
       <c r="EE4" t="n">
-        <v>1</v>
+        <v>16842000</v>
       </c>
       <c r="EF4" t="n">
-        <v>16842000</v>
+        <v>13240333</v>
       </c>
       <c r="EG4" t="n">
-        <v>13240333</v>
-      </c>
-      <c r="EH4" t="n">
         <v>870667</v>
       </c>
-      <c r="EI4" t="inlineStr">
+      <c r="EH4" t="inlineStr">
         <is>
           <t>Blade Air Mobility, Inc.</t>
         </is>
       </c>
+      <c r="EI4" t="n">
+        <v>-5</v>
+      </c>
       <c r="EJ4" t="n">
-        <v>-6</v>
+        <v>-0</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>5</v>
       </c>
       <c r="EL4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="EM4" t="n">
+        <v>8</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>9</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>2609770</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>1096932</v>
+      </c>
+      <c r="EQ4" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="ER4" t="n">
         <v>6</v>
-      </c>
-      <c r="EN4" t="n">
-        <v>8</v>
-      </c>
-      <c r="EO4" t="n">
-        <v>9</v>
-      </c>
-      <c r="EP4" t="n">
-        <v>2254835</v>
-      </c>
-      <c r="EQ4" t="n">
-        <v>1096437</v>
-      </c>
-      <c r="ER4" t="inlineStr">
-        <is>
-          <t>NASDAQ</t>
-        </is>
       </c>
       <c r="ES4" t="n">
         <v>6</v>
       </c>
       <c r="ET4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>70552800</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>1643105071</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>896068</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>390791</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>267823616</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>-846068</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>-794467</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>1430608</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>371306</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>267695898</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>37575000</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>63571887</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>314447000</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>4654000</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>9531000</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>291229000</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>-5868000</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>354697</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>12951000</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>10812000</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>342729000</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>5266000</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>10557000</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>296698000</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>-29575000</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>-9464</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>235113</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>608720</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>1538555</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>229975972</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>-485220</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>-360848</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>50526000</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>-394022</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>-297</v>
+      </c>
+      <c r="GL4" t="n">
         <v>6</v>
       </c>
-      <c r="EU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV4" t="n">
-        <v>70552806</v>
-      </c>
-      <c r="EW4" t="n">
-        <v>1643056938</v>
-      </c>
-      <c r="EX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ4" t="n">
-        <v>896068</v>
-      </c>
-      <c r="FA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB4" t="n">
-        <v>390791</v>
-      </c>
-      <c r="FC4" t="n">
-        <v>267823616</v>
-      </c>
-      <c r="FD4" t="n">
-        <v>-846068</v>
-      </c>
-      <c r="FE4" t="n">
-        <v>-794467</v>
-      </c>
-      <c r="FF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" t="n">
-        <v>1430608</v>
-      </c>
-      <c r="FI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ4" t="n">
-        <v>371306</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>267695898</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>37575000</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>63571887</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>314447000</v>
-      </c>
-      <c r="FO4" t="n">
+      <c r="GM4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>1126143</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>448772896</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ4" t="inlineStr">
+        <is>
+          <t>5.4-19.88</t>
+        </is>
+      </c>
+      <c r="GR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="GT4" t="inlineStr">
+        <is>
+          <t>US0926671043</t>
+        </is>
+      </c>
+      <c r="GU4" t="inlineStr">
+        <is>
+          <t>92667104</t>
+        </is>
+      </c>
+      <c r="GV4" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="GW4" t="inlineStr">
+        <is>
+          <t>https://www.blade.com</t>
+        </is>
+      </c>
+      <c r="GX4" t="inlineStr">
+        <is>
+          <t>Blade Air Mobility, Inc. provides air transportation alternatives to the congested ground routes in the United States. It provides its services through charter and by-the-seat flights using helicopters, jets, turboprops, and amphibious seaplanes. The company was founded in 2014 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
+      <c r="GY4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="GZ4" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="HA4" t="n">
+        <v>73</v>
+      </c>
+      <c r="HB4" t="inlineStr">
+        <is>
+          <t>212 967 1009</t>
+        </is>
+      </c>
+      <c r="HC4" t="inlineStr">
+        <is>
+          <t>499 East 34th Street</t>
+        </is>
+      </c>
+      <c r="HD4" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="HE4" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="HF4" t="inlineStr">
+        <is>
+          <t>10016</t>
+        </is>
+      </c>
+      <c r="HG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI4" t="inlineStr">
+        <is>
+          <t>https://fmpcloud.io/image-stock/BLDE.png</t>
+        </is>
+      </c>
+      <c r="HJ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HK4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="HL4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="HM4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="HN4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="HO4" t="n">
         <v>4654000</v>
       </c>
-      <c r="FP4" t="n">
-        <v>9531000</v>
-      </c>
-      <c r="FQ4" t="n">
-        <v>291229000</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>-5868000</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>354697</v>
-      </c>
-      <c r="FT4" t="n">
-        <v>12951000</v>
-      </c>
-      <c r="FU4" t="n">
-        <v>10812000</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>342729000</v>
-      </c>
-      <c r="FW4" t="n">
+      <c r="HP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>55180000</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>-612000</v>
+      </c>
+      <c r="HT4" t="n">
         <v>5266000</v>
       </c>
-      <c r="FX4" t="n">
-        <v>10557000</v>
-      </c>
-      <c r="FY4" t="n">
-        <v>296698000</v>
-      </c>
-      <c r="FZ4" t="n">
-        <v>-29575000</v>
-      </c>
-      <c r="GA4" t="n">
-        <v>-9464</v>
-      </c>
-      <c r="GB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC4" t="n">
-        <v>235113</v>
-      </c>
-      <c r="GD4" t="n">
-        <v>608720</v>
-      </c>
-      <c r="GE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF4" t="n">
-        <v>1538555</v>
-      </c>
-      <c r="GG4" t="n">
-        <v>229975972</v>
-      </c>
-      <c r="GH4" t="n">
-        <v>-485220</v>
-      </c>
-      <c r="GI4" t="n">
-        <v>-360848</v>
-      </c>
-      <c r="GJ4" t="n">
-        <v>50526000</v>
-      </c>
-      <c r="GK4" t="n">
-        <v>-394022</v>
-      </c>
-      <c r="GL4" t="n">
+      <c r="HU4" t="n">
+        <v>36963000</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>18217000</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ4" t="n">
         <v>-297</v>
       </c>
-      <c r="GM4" t="n">
-        <v>6</v>
-      </c>
-      <c r="GN4" t="n">
+      <c r="IA4" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>-394319</v>
+      </c>
+      <c r="IC4" t="n">
         <v>-0</v>
       </c>
-      <c r="GO4" t="n">
-        <v>1093950</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>440249440</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" t="inlineStr">
-        <is>
-          <t>6.03-19.88</t>
-        </is>
-      </c>
-      <c r="GS4" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GT4" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="GU4" t="inlineStr">
-        <is>
-          <t>US0926671043</t>
-        </is>
-      </c>
-      <c r="GV4" t="inlineStr">
-        <is>
-          <t>92667104</t>
-        </is>
-      </c>
-      <c r="GW4" t="inlineStr">
-        <is>
-          <t>NASDAQ</t>
-        </is>
-      </c>
-      <c r="GX4" t="inlineStr">
-        <is>
-          <t>https://www.blade.com</t>
-        </is>
-      </c>
-      <c r="GY4" t="inlineStr">
-        <is>
-          <t>Blade Air Mobility, Inc. provides air transportation alternatives to the congested ground routes in the United States. It provides its services through charter and by-the-seat flights using helicopters, jets, turboprops, and amphibious seaplanes. The company was founded in 2014 and is headquartered in New York, New York.</t>
-        </is>
-      </c>
-      <c r="GZ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="HA4" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="HB4" t="n">
-        <v>73</v>
-      </c>
-      <c r="HC4" t="inlineStr">
-        <is>
-          <t>212 967 1009</t>
-        </is>
-      </c>
-      <c r="HD4" t="inlineStr">
-        <is>
-          <t>499 East 34th Street</t>
-        </is>
-      </c>
-      <c r="HE4" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="HF4" t="inlineStr">
-        <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="HG4" t="inlineStr">
-        <is>
-          <t>10016</t>
-        </is>
-      </c>
-      <c r="HH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ4" t="inlineStr">
-        <is>
-          <t>https://fmpcloud.io/image-stock/BLDE.png</t>
-        </is>
-      </c>
-      <c r="HK4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="HL4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="HM4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="HN4" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="HO4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="HP4" t="n">
-        <v>4654000</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>55180000</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>-612000</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>5266000</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>36963000</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>18217000</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>-297</v>
-      </c>
-      <c r="IB4" t="n">
+      <c r="ID4" t="n">
+        <v>304916000</v>
+      </c>
+      <c r="IE4" t="n">
         <v>4</v>
       </c>
-      <c r="IC4" t="n">
-        <v>-394319</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>-0</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>304916000</v>
-      </c>
       <c r="IF4" t="n">
-        <v>4</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
@@ -4039,7 +4025,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>26.97</v>
+        <v>26.88</v>
       </c>
       <c r="G5" t="n">
         <v>8</v>
@@ -4096,7 +4082,7 @@
         <v>1679063</v>
       </c>
       <c r="Y5" t="n">
-        <v>94671712</v>
+        <v>94356840</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
@@ -4104,7 +4090,7 @@
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>9086</v>
+        <v>10570</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4213,10 +4199,10 @@
         <v>-4</v>
       </c>
       <c r="BH5" t="n">
-        <v>0</v>
+        <v>3510260</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>3510260</v>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
@@ -4442,27 +4428,27 @@
         <v>-23510889</v>
       </c>
       <c r="EE5" t="n">
-        <v>1</v>
+        <v>33471203</v>
       </c>
       <c r="EF5" t="n">
-        <v>33471203</v>
+        <v>22560072</v>
       </c>
       <c r="EG5" t="n">
-        <v>22560072</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="EH5" t="inlineStr">
         <is>
           <t>Chicken Soup for the Soul Entertainment, Inc.</t>
         </is>
       </c>
+      <c r="EI5" t="n">
+        <v>-0</v>
+      </c>
       <c r="EJ5" t="n">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>27</v>
       </c>
       <c r="EL5" t="n">
         <v>27</v>
@@ -4471,339 +4457,336 @@
         <v>27</v>
       </c>
       <c r="EN5" t="n">
+        <v>28</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>7289</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>3627</v>
+      </c>
+      <c r="EQ5" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="ER5" t="n">
         <v>27</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>28</v>
-      </c>
-      <c r="EP5" t="n">
-        <v>6888</v>
-      </c>
-      <c r="EQ5" t="n">
-        <v>3601</v>
-      </c>
-      <c r="ER5" t="inlineStr">
-        <is>
-          <t>NASDAQ</t>
-        </is>
       </c>
       <c r="ES5" t="n">
         <v>27</v>
       </c>
       <c r="ET5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>3510260</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>1643100763</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>55363906</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>39643248</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>49924176</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>47342740</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>54283039</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>13563073</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>-18698763</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>26859519</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>13409586</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>21737097</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>7617944</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>61010336</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>29096855</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>19445152</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>117326727</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>62886825</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>124020642</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>-11726590</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>-6768079</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>22134934</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>14258567</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>65984463</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>70240984</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>72494683</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>36606934</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>-8633626</v>
+      </c>
+      <c r="GA5" t="n">
+        <v>23196842</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>12473365</v>
+      </c>
+      <c r="GC5" t="n">
+        <v>57426146</v>
+      </c>
+      <c r="GD5" t="n">
+        <v>6195174</v>
+      </c>
+      <c r="GE5" t="n">
+        <v>28413978</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>79998801</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>12821655</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>-8264934</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>94659223</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>-27901089</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>-3737920</v>
+      </c>
+      <c r="GL5" t="n">
         <v>27</v>
       </c>
-      <c r="EU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV5" t="n">
-        <v>3510260</v>
-      </c>
-      <c r="EW5" t="n">
-        <v>1643057048</v>
-      </c>
-      <c r="EX5" t="n">
+      <c r="GM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>3588</v>
+      </c>
+      <c r="GO5" t="n">
+        <v>95970512</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ5" t="inlineStr">
+        <is>
+          <t>24.95-29.2</t>
+        </is>
+      </c>
+      <c r="GR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="GT5" t="inlineStr">
+        <is>
+          <t>US16842Q2093</t>
+        </is>
+      </c>
+      <c r="GU5" t="inlineStr">
+        <is>
+          <t>16842Q209</t>
+        </is>
+      </c>
+      <c r="GV5" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="GW5" t="inlineStr">
+        <is>
+          <t>https://www.cssentertainment.com</t>
+        </is>
+      </c>
+      <c r="GX5" t="inlineStr">
+        <is>
+          <t>Chicken Soup for the Soul Entertainment, Inc. operates as a streaming video-on-demand company in the United States and internationally. It owns and operates various ad-supported and subscription-based video-on-demand (VOD) networks, including Crackle, Popcornflix, Popcornflix Kids, Truli, Pivotshare, Españolflix, and FrightPix. The company distributes and exhibits VOD content directly to consumers through various digital platforms, such as connected TVs, smartphones, tablets, gaming consoles, and the web through its owned and operated advertising-supported online VOD Crackle Plus networks; distributes its own and third-party owned content to consumers across various digital platforms through its subscription-based VOD network, Pivotshare; and operates a series of direct-to consumer advertising supported channels. It also acquires and distributes video content; and produces long and short-form original content. The company was founded in 2014 and is headquartered in Cos Cob, Connecticut. Chicken Soup for the Soul Entertainment, Inc. is a subsidiary of Chicken Soup for the Soul Productions, LLC.</t>
+        </is>
+      </c>
+      <c r="GY5" t="inlineStr">
+        <is>
+          <t>Mr. William J. Rouhana Jr.</t>
+        </is>
+      </c>
+      <c r="GZ5" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="HA5" t="n">
+        <v>99</v>
+      </c>
+      <c r="HB5" t="inlineStr">
+        <is>
+          <t>855 398 0443</t>
+        </is>
+      </c>
+      <c r="HC5" t="inlineStr">
+        <is>
+          <t>132 East Putman Avenue</t>
+        </is>
+      </c>
+      <c r="HD5" t="inlineStr">
+        <is>
+          <t>Cos Cob</t>
+        </is>
+      </c>
+      <c r="HE5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="HF5" t="inlineStr">
+        <is>
+          <t>6807</t>
+        </is>
+      </c>
+      <c r="HG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI5" t="inlineStr">
+        <is>
+          <t>https://fmpcloud.io/image-stock/CSSEP.png</t>
+        </is>
+      </c>
+      <c r="HJ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HK5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="HL5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="HM5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="HN5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="HO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>66356956</v>
+      </c>
+      <c r="HR5" t="n">
         <v>55363906</v>
       </c>
-      <c r="EY5" t="n">
-        <v>39643248</v>
-      </c>
-      <c r="EZ5" t="n">
-        <v>49924176</v>
-      </c>
-      <c r="FA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" t="n">
-        <v>47342740</v>
-      </c>
-      <c r="FC5" t="n">
-        <v>54283039</v>
-      </c>
-      <c r="FD5" t="n">
-        <v>13563073</v>
-      </c>
-      <c r="FE5" t="n">
-        <v>-18698763</v>
-      </c>
-      <c r="FF5" t="n">
-        <v>26859519</v>
-      </c>
-      <c r="FG5" t="n">
-        <v>13409586</v>
-      </c>
-      <c r="FH5" t="n">
-        <v>21737097</v>
-      </c>
-      <c r="FI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ5" t="n">
-        <v>7617944</v>
-      </c>
-      <c r="FK5" t="n">
-        <v>61010336</v>
-      </c>
-      <c r="FL5" t="n">
+      <c r="HS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>-6195174</v>
+      </c>
+      <c r="HU5" t="n">
         <v>29096855</v>
       </c>
-      <c r="FM5" t="n">
-        <v>19445152</v>
-      </c>
-      <c r="FN5" t="n">
-        <v>117326727</v>
-      </c>
-      <c r="FO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" t="n">
-        <v>62886825</v>
-      </c>
-      <c r="FQ5" t="n">
-        <v>124020642</v>
-      </c>
-      <c r="FR5" t="n">
-        <v>-11726590</v>
-      </c>
-      <c r="FS5" t="n">
-        <v>-6768079</v>
-      </c>
-      <c r="FT5" t="n">
-        <v>22134934</v>
-      </c>
-      <c r="FU5" t="n">
-        <v>14258567</v>
-      </c>
-      <c r="FV5" t="n">
-        <v>65984463</v>
-      </c>
-      <c r="FW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX5" t="n">
-        <v>70240984</v>
-      </c>
-      <c r="FY5" t="n">
-        <v>72494683</v>
-      </c>
-      <c r="FZ5" t="n">
-        <v>36606934</v>
-      </c>
-      <c r="GA5" t="n">
-        <v>-8633626</v>
-      </c>
-      <c r="GB5" t="n">
-        <v>23196842</v>
-      </c>
-      <c r="GC5" t="n">
-        <v>12473365</v>
-      </c>
-      <c r="GD5" t="n">
-        <v>57426146</v>
-      </c>
-      <c r="GE5" t="n">
-        <v>6195174</v>
-      </c>
-      <c r="GF5" t="n">
-        <v>28413978</v>
-      </c>
-      <c r="GG5" t="n">
-        <v>79998801</v>
-      </c>
-      <c r="GH5" t="n">
-        <v>12821655</v>
-      </c>
-      <c r="GI5" t="n">
-        <v>-8264934</v>
-      </c>
-      <c r="GJ5" t="n">
-        <v>94659223</v>
-      </c>
-      <c r="GK5" t="n">
-        <v>-27901089</v>
-      </c>
-      <c r="GL5" t="n">
+      <c r="HV5" t="n">
+        <v>15939760</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>28302267</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ5" t="n">
         <v>-3737920</v>
       </c>
-      <c r="GM5" t="n">
-        <v>27</v>
-      </c>
-      <c r="GN5" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO5" t="n">
-        <v>3588</v>
-      </c>
-      <c r="GP5" t="n">
-        <v>95970512</v>
-      </c>
-      <c r="GQ5" t="n">
-        <v>2</v>
-      </c>
-      <c r="GR5" t="inlineStr">
-        <is>
-          <t>24.95-29.2</t>
-        </is>
-      </c>
-      <c r="GS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT5" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="GU5" t="inlineStr">
-        <is>
-          <t>US16842Q2093</t>
-        </is>
-      </c>
-      <c r="GV5" t="inlineStr">
-        <is>
-          <t>16842Q209</t>
-        </is>
-      </c>
-      <c r="GW5" t="inlineStr">
-        <is>
-          <t>NASDAQ</t>
-        </is>
-      </c>
-      <c r="GX5" t="inlineStr">
-        <is>
-          <t>https://www.cssentertainment.com</t>
-        </is>
-      </c>
-      <c r="GY5" t="inlineStr">
-        <is>
-          <t>Chicken Soup for the Soul Entertainment, Inc. operates as a streaming video-on-demand company in the United States and internationally. It owns and operates various ad-supported and subscription-based video-on-demand (VOD) networks, including Crackle, Popcornflix, Popcornflix Kids, Truli, Pivotshare, Españolflix, and FrightPix. The company distributes and exhibits VOD content directly to consumers through various digital platforms, such as connected TVs, smartphones, tablets, gaming consoles, and the web through its owned and operated advertising-supported online VOD Crackle Plus networks; distributes its own and third-party owned content to consumers across various digital platforms through its subscription-based VOD network, Pivotshare; and operates a series of direct-to consumer advertising supported channels. It also acquires and distributes video content; and produces long and short-form original content. The company was founded in 2014 and is headquartered in Cos Cob, Connecticut. Chicken Soup for the Soul Entertainment, Inc. is a subsidiary of Chicken Soup for the Soul Productions, LLC.</t>
-        </is>
-      </c>
-      <c r="GZ5" t="inlineStr">
-        <is>
-          <t>Mr. William J. Rouhana Jr.</t>
-        </is>
-      </c>
-      <c r="HA5" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="HB5" t="n">
-        <v>99</v>
-      </c>
-      <c r="HC5" t="inlineStr">
-        <is>
-          <t>855 398 0443</t>
-        </is>
-      </c>
-      <c r="HD5" t="inlineStr">
-        <is>
-          <t>132 East Putman Avenue</t>
-        </is>
-      </c>
-      <c r="HE5" t="inlineStr">
-        <is>
-          <t>Cos Cob</t>
-        </is>
-      </c>
-      <c r="HF5" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="HG5" t="inlineStr">
-        <is>
-          <t>6807</t>
-        </is>
-      </c>
-      <c r="HH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ5" t="inlineStr">
-        <is>
-          <t>https://fmpcloud.io/image-stock/CSSEP.png</t>
-        </is>
-      </c>
-      <c r="HK5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="HL5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="HM5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="HN5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="HO5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="HP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR5" t="n">
-        <v>66356956</v>
-      </c>
-      <c r="HS5" t="n">
-        <v>55363906</v>
-      </c>
-      <c r="HT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU5" t="n">
-        <v>-6195174</v>
-      </c>
-      <c r="HV5" t="n">
-        <v>29096855</v>
-      </c>
-      <c r="HW5" t="n">
-        <v>15939760</v>
-      </c>
-      <c r="HX5" t="n">
-        <v>28302267</v>
-      </c>
-      <c r="HY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ5" t="n">
-        <v>0</v>
-      </c>
       <c r="IA5" t="n">
-        <v>-3737920</v>
+        <v>35</v>
       </c>
       <c r="IB5" t="n">
-        <v>35</v>
+        <v>-31639009</v>
       </c>
       <c r="IC5" t="n">
-        <v>-31639009</v>
+        <v>-9</v>
       </c>
       <c r="ID5" t="n">
-        <v>-9</v>
+        <v>54439902</v>
       </c>
       <c r="IE5" t="n">
-        <v>54439902</v>
+        <v>16</v>
       </c>
       <c r="IF5" t="n">
-        <v>16</v>
-      </c>
-      <c r="IG5" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/6_notes.xlsx
+++ b/6_notes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IE8"/>
+  <dimension ref="A1:II8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,1097 +536,1117 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>EV/S/p</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>WC/D</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Eq/D</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>cik</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>marketCap</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>isFund</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>reportedCurrency</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>fillingDate</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>acceptedDate</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>calendarYear</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>period</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>revenue</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>costOfRevenue</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>grossProfit</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>grossProfitRatio</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>researchAndDevelopmentExpenses</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>generalAndAdministrativeExpenses</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>sellingAndMarketingExpenses</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>sellingGeneralAndAdministrativeExpenses</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>otherExpenses</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>operatingExpenses</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>costAndExpenses</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>interestIncome</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>interestExpense</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>depreciationAndAmortization</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>ebitda</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>ebitdaratio</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>operatingIncome</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>operatingIncomeRatio</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>totalOtherIncomeExpensesNet</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>incomeBeforeTax</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>incomeBeforeTaxRatio</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>incomeTaxExpense</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>netIncome</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>netIncomeRatio</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>eps</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>epsdiluted</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>weightedAverageShsOut</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>weightedAverageShsOutDil</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>finalLink</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>cashAndCashEquivalents</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>shortTermInvestments</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>cashAndShortTermInvestments</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>netReceivables</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>inventory</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>otherCurrentAssets</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentAssets</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>propertyPlantEquipmentNet</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>goodwill</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>intangibleAssets</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>goodwillAndIntangibleAssets</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>longTermInvestments</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>taxAssets</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>otherNonCurrentAssets</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>totalNonCurrentAssets</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>otherAssets</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>totalAssets</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>accountPayables</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>shortTermDebt</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>taxPayables</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>deferredRevenue</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>otherCurrentLiabilities</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentLiabilities</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>longTermDebt</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>deferredRevenueNonCurrent</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>deferrredTaxLiabilitiesNonCurrent</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>otherNonCurrentLiabilities</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>totalNonCurrentLiabilities</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>otherLiabilities</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>capitalLeaseObligations</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>totalLiabilities</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>preferredStock</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>commonStock</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>retainedEarnings</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>accumulatedOtherComprehensiveIncomeLoss</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>othertotalStockholdersEquity</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>totalStockholdersEquity</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>minorityInterest</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>totalEquity</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>totalLiabilitiesAndStockholdersEquity</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>totalLiabilitiesAndTotalEquity</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>totalInvestments</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>totalDebt</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>netDebt</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>deferredIncomeTax</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>stockBasedCompensation</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>changeInWorkingCapital</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>accountsReceivables</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>accountsPayables</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>otherWorkingCapital</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>otherNonCashItems</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>netCashProvidedByOperatingActivites</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>investmentsInPropertyPlantAndEquipment</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>acquisitionsNet</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>purchasesOfInvestments</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>salesMaturitiesOfInvestments</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>otherInvestingActivites</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>netCashUsedForInvestingActivites</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>debtRepayment</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>commonStockIssued</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>commonStockRepurchased</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>dividendsPaid</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>otherFinancingActivites</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>netCashUsedProvidedByFinancingActivities</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>effectOfForexChangesOnCash</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>netChangeInCash</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>cashAtEndOfPeriod</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>cashAtBeginningOfPeriod</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>operatingCashFlow</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>capitalExpenditure</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>freeCashFlow</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>mean_revenue</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>mean_costOfRevenue</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>mean_PPEnet</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>changesPercentage</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>change</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>dayLow</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>dayHigh</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>priceAvg50</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>priceAvg200</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>avgVolume</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>exchange</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>previousClose</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>pe</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>sharesOutstanding</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>revenue_minus_one_y</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>operatingExpenses_minus_one_y</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentAssets_minus_one_y</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>deferredRevenue_minus_one_y</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentLiabilities_minus_one_y</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>totalStockholdersEquity_minus_one_y</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>netDebt_minus_one_y</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>ncfo_minus_one_y</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>revenue_minus_two_y</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>operatingExpenses_minus_two_y</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentAssets_minus_two_y</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>deferredRevenue_minus_two_y</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentLiabilities_minus_two_y</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>totalStockholdersEquity_minus_two_y</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>revenue_last_q</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>operatingExpenses_last_q</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentAssets_last_q</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>deferredRevenue_last_q</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentLiabilities_last_q</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>totalStockholdersEquity_last_q</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>totalDebt_last_q</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>netDebt_last_q</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>netCashProvidedByOperatingActivites_last_q</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>revenue_minus_one_q</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>operatingExpenses_minus_one_q</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentAssets_minus_one_q</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>deferredRevenue_minus_one_q</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentLiabilities_minus_one_q</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>totalStockholdersEquity_minus_one_q</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>totalDebt_minus_one_q</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>netDebt_minus_one_q</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>ncfo_minus_one_q</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>revenue_minus_two_q</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>operatingExpenses_minus_two_q</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentAssets_minus_two_q</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>deferredRevenue_minus_two_q</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentLiabilities_minus_two_q</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>totalStockholdersEquity_minus_two_q</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>netDebt_minus_two_q</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>ncfo_minus_two_q</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>revenue_TTM</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>ncfo_TTM</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>capex_TTM</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>beta</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>volAvg</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>mktCap</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>lastDiv</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>range</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>changes</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>currency</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>isin</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>cusip</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>exchangeShortName</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>website</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>ceo</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>sector</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>fullTimeEmployees</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>phone</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>state</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>zip</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>dcfDiff</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>dcf</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>image</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>ipoDate</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>defaultImage</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>isEtf</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>isActivelyTrading</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>isAdr</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>booking_y</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>booking_minus_one_y</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>rev_plus_booking_y</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>rev_plus_booking_minus_one_y</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>booking_q</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>booking_minus_one_q</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>rev_plus_booking_q</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>rev_plus_booking_minus_one_q</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Sales_absolute_increase</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>maint_capex_ratio</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>growth_capex</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>capex_more_correct</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>NAV/S</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>OwnEa</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>OwnEa/S</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>WC/S</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>WC/S/p</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>EV_last_q</t>
         </is>
       </c>
     </row>
@@ -1700,124 +1720,124 @@
         <v>0.71</v>
       </c>
       <c r="U2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V2" t="n">
         <v>4</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>719274</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>7521027</v>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>8511</v>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>2021-03-27</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>2021-06-25</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>2021-06-25 16:28:11</t>
         </is>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>2021</v>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>FY</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>13052000</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>8111000</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>4941000</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
       <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>2153000</v>
       </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
       <c r="AM2" t="n">
         <v>0</v>
       </c>
       <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
         <v>3873000</v>
       </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
       <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>6026000</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>14137000</v>
       </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
         <v>97000</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>253000</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>-41000</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>-0</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>-1085000</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>-0</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>-694000</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
         <v>-391000</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>-0</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>2000</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>-393000</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>-0</v>
       </c>
       <c r="BE2" t="n">
         <v>-0</v>
@@ -1826,48 +1846,48 @@
         <v>-0</v>
       </c>
       <c r="BG2" t="n">
-        <v>2636000</v>
+        <v>-0</v>
       </c>
       <c r="BH2" t="n">
         <v>2636000</v>
       </c>
-      <c r="BI2" t="inlineStr">
+      <c r="BI2" t="n">
+        <v>2636000</v>
+      </c>
+      <c r="BJ2" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/719274/000143774921015674/0001437749-21-015674-index.htm</t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr">
+      <c r="BK2" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/719274/000143774921015674/giga20210327_10k.htm</t>
         </is>
       </c>
-      <c r="BK2" t="n">
+      <c r="BL2" t="n">
         <v>736000</v>
       </c>
-      <c r="BL2" t="n">
-        <v>0</v>
-      </c>
       <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
         <v>736000</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>1921000</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>3601000</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>100000</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>6358000</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>1320000</v>
       </c>
-      <c r="BS2" t="n">
-        <v>0</v>
-      </c>
       <c r="BT2" t="n">
         <v>0</v>
       </c>
@@ -1881,128 +1901,128 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
         <v>169000</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BZ2" t="n">
         <v>1489000</v>
       </c>
-      <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
       <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
         <v>7847000</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2" t="n">
         <v>1044000</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2" t="n">
         <v>1128000</v>
       </c>
-      <c r="CD2" t="n">
-        <v>0</v>
-      </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>7000</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CG2" t="n">
         <v>725000</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CH2" t="n">
         <v>2904000</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CI2" t="n">
         <v>690000</v>
       </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
       <c r="CJ2" t="n">
         <v>0</v>
       </c>
       <c r="CK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" t="n">
         <v>6000</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CM2" t="n">
         <v>696000</v>
       </c>
-      <c r="CM2" t="n">
-        <v>0</v>
-      </c>
       <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
         <v>1135000</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CP2" t="n">
         <v>3600000</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CQ2" t="n">
         <v>2922000</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CR2" t="n">
         <v>32306000</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CS2" t="n">
         <v>-30981000</v>
       </c>
-      <c r="CS2" t="n">
-        <v>0</v>
-      </c>
       <c r="CT2" t="n">
         <v>0</v>
       </c>
       <c r="CU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV2" t="n">
         <v>4247000</v>
       </c>
-      <c r="CV2" t="n">
-        <v>0</v>
-      </c>
       <c r="CW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="n">
         <v>4247000</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>7847000</v>
       </c>
       <c r="CY2" t="n">
         <v>7847000</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>7847000</v>
       </c>
       <c r="DA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="n">
         <v>1818000</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DC2" t="n">
         <v>1082000</v>
       </c>
-      <c r="DC2" t="n">
-        <v>0</v>
-      </c>
       <c r="DD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="n">
         <v>354000</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DF2" t="n">
         <v>-233000</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DG2" t="n">
         <v>131000</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DH2" t="n">
         <v>241000</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DI2" t="n">
         <v>3454000</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DJ2" t="n">
         <v>378000</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>359000</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>-94000</v>
       </c>
-      <c r="DL2" t="n">
-        <v>0</v>
-      </c>
       <c r="DM2" t="n">
         <v>0</v>
       </c>
@@ -2013,14 +2033,14 @@
         <v>0</v>
       </c>
       <c r="DP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ2" t="n">
         <v>-94000</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>-3106000</v>
       </c>
-      <c r="DR2" t="n">
-        <v>0</v>
-      </c>
       <c r="DS2" t="n">
         <v>0</v>
       </c>
@@ -2028,54 +2048,54 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV2" t="n">
         <v>2920000</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>-186000</v>
       </c>
-      <c r="DW2" t="n">
-        <v>0</v>
-      </c>
       <c r="DX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="n">
         <v>79000</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>736000</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>657000</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>359000</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>-94000</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>265000</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>12407000</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>8099200</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>751600</v>
       </c>
-      <c r="EG2" t="inlineStr">
+      <c r="EH2" t="inlineStr">
         <is>
           <t>Giga-tronics Incorporated</t>
         </is>
       </c>
-      <c r="EH2" t="n">
-        <v>0</v>
-      </c>
       <c r="EI2" t="n">
         <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EK2" t="n">
         <v>3</v>
@@ -2087,334 +2107,346 @@
         <v>3</v>
       </c>
       <c r="EN2" t="n">
+        <v>3</v>
+      </c>
+      <c r="EO2" t="n">
         <v>50</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>3024</v>
       </c>
-      <c r="EP2" t="inlineStr">
+      <c r="EQ2" t="inlineStr">
         <is>
           <t>MUTUAL_FUND</t>
         </is>
-      </c>
-      <c r="EQ2" t="n">
-        <v>3</v>
       </c>
       <c r="ER2" t="n">
         <v>3</v>
       </c>
       <c r="ES2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ET2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU2" t="n">
         <v>2725010</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>1643525062</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>11768000</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>5021000</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>7059000</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>159000</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>3372000</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>4300000</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FC2" t="n">
         <v>-657000</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FD2" t="n">
         <v>-2359000</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FE2" t="n">
         <v>11148000</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FF2" t="n">
         <v>5011000</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FG2" t="n">
         <v>5534000</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FH2" t="n">
         <v>2132000</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FI2" t="n">
         <v>3913000</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FJ2" t="n">
         <v>1815000</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FK2" t="n">
         <v>3567000</v>
       </c>
-      <c r="FK2" t="n">
+      <c r="FL2" t="n">
         <v>1283000</v>
       </c>
-      <c r="FL2" t="n">
+      <c r="FM2" t="n">
         <v>7751000</v>
       </c>
-      <c r="FM2" t="n">
+      <c r="FN2" t="n">
         <v>1000</v>
       </c>
-      <c r="FN2" t="n">
+      <c r="FO2" t="n">
         <v>3309000</v>
       </c>
-      <c r="FO2" t="n">
+      <c r="FP2" t="n">
         <v>5343000</v>
       </c>
-      <c r="FP2" t="n">
+      <c r="FQ2" t="n">
+        <v>1871000</v>
+      </c>
+      <c r="FR2" t="n">
         <v>1223000</v>
       </c>
-      <c r="FQ2" t="n">
+      <c r="FS2" t="n">
         <v>-930000</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FT2" t="n">
         <v>2050000</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="FU2" t="n">
         <v>1500000</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="FV2" t="n">
         <v>6832000</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="FW2" t="n">
         <v>103000</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="FX2" t="n">
         <v>4113000</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="FY2" t="n">
         <v>3527000</v>
       </c>
-      <c r="FX2" t="n">
+      <c r="FZ2" t="n">
+        <v>1321000</v>
+      </c>
+      <c r="GA2" t="n">
         <v>291000</v>
       </c>
-      <c r="FY2" t="n">
+      <c r="GB2" t="n">
         <v>-699000</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GC2" t="n">
         <v>2728000</v>
       </c>
-      <c r="GA2" t="n">
+      <c r="GD2" t="n">
         <v>1646000</v>
       </c>
-      <c r="GB2" t="n">
+      <c r="GE2" t="n">
         <v>6358000</v>
       </c>
-      <c r="GC2" t="n">
+      <c r="GF2" t="n">
         <v>7000</v>
       </c>
-      <c r="GD2" t="n">
+      <c r="GG2" t="n">
         <v>2904000</v>
       </c>
-      <c r="GE2" t="n">
+      <c r="GH2" t="n">
         <v>4247000</v>
       </c>
-      <c r="GF2" t="n">
+      <c r="GI2" t="n">
         <v>1082000</v>
       </c>
-      <c r="GG2" t="n">
+      <c r="GJ2" t="n">
         <v>-974000</v>
       </c>
-      <c r="GH2" t="n">
+      <c r="GK2" t="n">
         <v>12429000</v>
       </c>
-      <c r="GI2" t="n">
+      <c r="GL2" t="n">
         <v>-1094000</v>
       </c>
-      <c r="GJ2" t="n">
+      <c r="GM2" t="n">
         <v>-63000</v>
       </c>
-      <c r="GK2" t="n">
+      <c r="GN2" t="n">
         <v>3</v>
       </c>
-      <c r="GL2" t="n">
+      <c r="GO2" t="n">
         <v>1</v>
       </c>
-      <c r="GM2" t="n">
+      <c r="GP2" t="n">
         <v>3038</v>
       </c>
-      <c r="GN2" t="n">
+      <c r="GQ2" t="n">
         <v>7521027</v>
       </c>
-      <c r="GO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP2" t="inlineStr">
+      <c r="GR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" t="inlineStr">
         <is>
           <t>2.75-5.5</t>
         </is>
       </c>
-      <c r="GQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR2" t="inlineStr">
+      <c r="GT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GS2" t="inlineStr">
+      <c r="GV2" t="inlineStr">
         <is>
           <t>US3751751062</t>
         </is>
       </c>
-      <c r="GT2" t="inlineStr">
+      <c r="GW2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="GU2" t="inlineStr">
+      <c r="GX2" t="inlineStr">
         <is>
           <t>MUTUAL_FUND</t>
         </is>
       </c>
-      <c r="GV2" t="inlineStr">
+      <c r="GY2" t="inlineStr">
         <is>
           <t>https://gigatronics.com</t>
         </is>
       </c>
-      <c r="GW2" t="inlineStr">
+      <c r="GZ2" t="inlineStr">
         <is>
           <t>Giga-tronics Incorporated, together with its subsidiaries, develops and manufactures electronics equipment for military test and airborne operational applications in the United States and internationally. It operates through two segments, Microsource and the Giga-tronics Division. The company also develops microwave integrated components, as well as MIC components; Band Reject Filters for RADAR/EW (electronic warfare) for solving interference problems in RADAR/EW applications; self-protection systems for military aircrafts; and RADAR filters for military fighter jet aircraft. In addition, it designs, manufactures, and markets functional test products for testing RADAR/EW equipment of the defense electronics market. The company serves prime defense contractors, the armed services, and research institutes. Giga-tronics Incorporated was incorporated in 1980 and is headquartered in Dublin, California.</t>
         </is>
       </c>
-      <c r="GX2" t="inlineStr">
+      <c r="HA2" t="inlineStr">
         <is>
           <t>Mr. John R. Regazzi</t>
         </is>
       </c>
-      <c r="GY2" t="inlineStr">
+      <c r="HB2" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
       </c>
-      <c r="GZ2" t="n">
+      <c r="HC2" t="n">
         <v>42</v>
       </c>
-      <c r="HA2" t="inlineStr">
+      <c r="HD2" t="inlineStr">
         <is>
           <t>925 328 4650</t>
         </is>
       </c>
-      <c r="HB2" t="inlineStr">
+      <c r="HE2" t="inlineStr">
         <is>
           <t>5990 Gleason Drive</t>
         </is>
       </c>
-      <c r="HC2" t="inlineStr">
+      <c r="HF2" t="inlineStr">
         <is>
           <t>Dublin</t>
         </is>
       </c>
-      <c r="HD2" t="inlineStr">
+      <c r="HG2" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="HE2" t="inlineStr">
+      <c r="HH2" t="inlineStr">
         <is>
           <t>94568</t>
         </is>
       </c>
-      <c r="HF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG2" t="n">
+      <c r="HI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ2" t="n">
         <v>3</v>
       </c>
-      <c r="HH2" t="inlineStr">
+      <c r="HK2" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/GIGA.png</t>
         </is>
       </c>
-      <c r="HI2" t="inlineStr">
+      <c r="HL2" t="inlineStr">
         <is>
           <t>1983-06-20</t>
         </is>
       </c>
-      <c r="HJ2" t="inlineStr">
+      <c r="HM2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HK2" t="inlineStr">
+      <c r="HN2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HL2" t="inlineStr">
+      <c r="HO2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HM2" t="inlineStr">
+      <c r="HP2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN2" t="n">
+      <c r="HQ2" t="n">
         <v>-152000</v>
       </c>
-      <c r="HO2" t="n">
+      <c r="HR2" t="n">
         <v>-1973000</v>
       </c>
-      <c r="HP2" t="n">
+      <c r="HS2" t="n">
         <v>12900000</v>
       </c>
-      <c r="HQ2" t="n">
+      <c r="HT2" t="n">
         <v>9795000</v>
       </c>
-      <c r="HR2" t="n">
+      <c r="HU2" t="n">
         <v>-102000</v>
       </c>
-      <c r="HS2" t="n">
+      <c r="HV2" t="n">
         <v>96000</v>
       </c>
-      <c r="HT2" t="n">
+      <c r="HW2" t="n">
         <v>3465000</v>
       </c>
-      <c r="HU2" t="n">
+      <c r="HX2" t="n">
         <v>2146000</v>
       </c>
-      <c r="HV2" t="n">
+      <c r="HY2" t="n">
         <v>-623000</v>
       </c>
-      <c r="HW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX2" t="n">
+      <c r="HZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA2" t="n">
         <v>-37741</v>
       </c>
-      <c r="HY2" t="n">
+      <c r="IB2" t="n">
         <v>-25259</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="IC2" t="n">
         <v>2</v>
       </c>
-      <c r="IA2" t="n">
+      <c r="ID2" t="n">
         <v>-1119259</v>
       </c>
-      <c r="IB2" t="n">
+      <c r="IE2" t="n">
         <v>-0</v>
       </c>
-      <c r="IC2" t="n">
+      <c r="IF2" t="n">
         <v>4442000</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="IG2" t="n">
         <v>2</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IH2" t="n">
         <v>0.59</v>
+      </c>
+      <c r="II2" t="n">
+        <v>5650027</v>
       </c>
     </row>
     <row r="3">
@@ -2487,382 +2519,382 @@
         <v>0.68</v>
       </c>
       <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
         <v>-1</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>8.06</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>788611</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>21942492</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>2679</v>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>2021-03-24</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>2021-03-24</t>
         </is>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>2020</v>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>FY</t>
         </is>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>807488</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>591957</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>215531</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
       <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
         <v>351404</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>5172425</v>
       </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
       <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
         <v>5172425</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>238813</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>5762642</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>6354599</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>1058</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>13908</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>105175</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>-5081056</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="n">
         <v>-6</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AX3" t="n">
         <v>-5547111</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>-6</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3" t="n">
         <v>-346972</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>-5200139</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>-6</v>
       </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
       <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
         <v>-5200139</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3" t="n">
         <v>-6</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>-2</v>
       </c>
       <c r="BF3" t="n">
         <v>-2</v>
       </c>
       <c r="BG3" t="n">
-        <v>3829716</v>
+        <v>-2</v>
       </c>
       <c r="BH3" t="n">
         <v>3829716</v>
       </c>
-      <c r="BI3" t="inlineStr">
+      <c r="BI3" t="n">
+        <v>3829716</v>
+      </c>
+      <c r="BJ3" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/788611/000149315221006709/0001493152-21-006709-index.htm</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
+      <c r="BK3" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/788611/000149315221006709/form10-k.htm</t>
         </is>
       </c>
-      <c r="BK3" t="n">
+      <c r="BL3" t="n">
         <v>3700814</v>
       </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
       <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
         <v>3700814</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>331562</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>659651</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>90735</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>4782762</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BS3" t="n">
         <v>138626</v>
       </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
       <c r="BT3" t="n">
-        <v>753122</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
         <v>753122</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>753122</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
         <v>26000</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BZ3" t="n">
         <v>917748</v>
       </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
       <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
         <v>5700510</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CC3" t="n">
         <v>128937</v>
       </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
       <c r="CD3" t="n">
         <v>0</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>77957</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CG3" t="n">
         <v>243815</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CH3" t="n">
         <v>450709</v>
       </c>
-      <c r="CH3" t="n">
-        <v>0</v>
-      </c>
       <c r="CI3" t="n">
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
         <v>37728</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CL3" t="n">
         <v>48341</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CM3" t="n">
         <v>86069</v>
       </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
         <v>536778</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CQ3" t="n">
         <v>1</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CR3" t="n">
         <v>5995</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CS3" t="n">
         <v>-33105008</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CT3" t="n">
         <v>-1057824</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CU3" t="n">
         <v>39320568</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="CV3" t="n">
         <v>5163732</v>
       </c>
-      <c r="CV3" t="n">
-        <v>0</v>
-      </c>
       <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
         <v>5163732</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>5700510</v>
       </c>
       <c r="CY3" t="n">
         <v>5700510</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0</v>
+        <v>5700510</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
       </c>
       <c r="DB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="n">
         <v>-3700814</v>
       </c>
-      <c r="DC3" t="n">
-        <v>0</v>
-      </c>
       <c r="DD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="n">
         <v>939500</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DF3" t="n">
         <v>-654404</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DG3" t="n">
         <v>-276022</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DH3" t="n">
         <v>-598177</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DI3" t="n">
         <v>24579</v>
       </c>
-      <c r="DI3" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" t="n">
         <v>-4809868</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DL3" t="n">
         <v>-88074</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DM3" t="n">
         <v>500</v>
       </c>
-      <c r="DM3" t="n">
-        <v>0</v>
-      </c>
       <c r="DN3" t="n">
         <v>0</v>
       </c>
       <c r="DO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="n">
         <v>-210785</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>-298359</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>-50000</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>3600000</v>
       </c>
-      <c r="DS3" t="n">
-        <v>0</v>
-      </c>
       <c r="DT3" t="n">
         <v>0</v>
       </c>
       <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
         <v>5172122</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>8722122</v>
       </c>
-      <c r="DW3" t="n">
-        <v>0</v>
-      </c>
       <c r="DX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY3" t="n">
         <v>3613895</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>3700814</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>86919</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>-4809868</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>-298859</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>-5108727</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>641196</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>387528</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>304374</v>
       </c>
-      <c r="EG3" t="inlineStr">
+      <c r="EH3" t="inlineStr">
         <is>
           <t>Sigma Labs, Inc.</t>
         </is>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>3</v>
       </c>
-      <c r="EI3" t="n">
-        <v>0</v>
-      </c>
       <c r="EJ3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EK3" t="n">
         <v>2</v>
@@ -2871,337 +2903,349 @@
         <v>2</v>
       </c>
       <c r="EM3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN3" t="n">
         <v>3</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>108791</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>124941</v>
       </c>
-      <c r="EP3" t="inlineStr">
+      <c r="EQ3" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
-      </c>
-      <c r="EQ3" t="n">
-        <v>2</v>
       </c>
       <c r="ER3" t="n">
         <v>2</v>
       </c>
       <c r="ES3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
         <v>10498800</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>1643525071</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>402446</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>6159953</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>940904</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>139447</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>1039219</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FB3" t="n">
         <v>652249</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FC3" t="n">
         <v>-36919</v>
       </c>
-      <c r="FC3" t="n">
+      <c r="FD3" t="n">
         <v>-5514805</v>
       </c>
-      <c r="FD3" t="n">
+      <c r="FE3" t="n">
         <v>388574</v>
       </c>
-      <c r="FE3" t="n">
+      <c r="FF3" t="n">
         <v>5687271</v>
       </c>
-      <c r="FF3" t="n">
+      <c r="FG3" t="n">
         <v>1747836</v>
       </c>
-      <c r="FG3" t="n">
+      <c r="FH3" t="n">
         <v>51498</v>
       </c>
-      <c r="FH3" t="n">
+      <c r="FI3" t="n">
         <v>695819</v>
       </c>
-      <c r="FI3" t="n">
+      <c r="FJ3" t="n">
         <v>1735439</v>
       </c>
-      <c r="FJ3" t="n">
+      <c r="FK3" t="n">
         <v>700237</v>
       </c>
-      <c r="FK3" t="n">
+      <c r="FL3" t="n">
         <v>3026888</v>
       </c>
-      <c r="FL3" t="n">
+      <c r="FM3" t="n">
         <v>14718356</v>
       </c>
-      <c r="FM3" t="n">
+      <c r="FN3" t="n">
         <v>85480</v>
       </c>
-      <c r="FN3" t="n">
+      <c r="FO3" t="n">
         <v>741252</v>
       </c>
-      <c r="FO3" t="n">
+      <c r="FP3" t="n">
         <v>14915868</v>
       </c>
-      <c r="FP3" t="n">
+      <c r="FQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" t="n">
         <v>-13064394</v>
       </c>
-      <c r="FQ3" t="n">
+      <c r="FS3" t="n">
         <v>-1519970</v>
       </c>
-      <c r="FR3" t="n">
+      <c r="FT3" t="n">
         <v>144148</v>
       </c>
-      <c r="FS3" t="n">
+      <c r="FU3" t="n">
         <v>2168651</v>
       </c>
-      <c r="FT3" t="n">
+      <c r="FV3" t="n">
         <v>16135890</v>
       </c>
-      <c r="FU3" t="n">
+      <c r="FW3" t="n">
         <v>63569</v>
       </c>
-      <c r="FV3" t="n">
+      <c r="FX3" t="n">
         <v>563436</v>
       </c>
-      <c r="FW3" t="n">
+      <c r="FY3" t="n">
         <v>16392156</v>
       </c>
-      <c r="FX3" t="n">
+      <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
         <v>-14731115</v>
       </c>
-      <c r="FY3" t="n">
+      <c r="GB3" t="n">
         <v>-2026034</v>
       </c>
-      <c r="FZ3" t="n">
+      <c r="GC3" t="n">
         <v>458140</v>
       </c>
-      <c r="GA3" t="n">
+      <c r="GD3" t="n">
         <v>1781404</v>
       </c>
-      <c r="GB3" t="n">
+      <c r="GE3" t="n">
         <v>18114484</v>
       </c>
-      <c r="GC3" t="n">
+      <c r="GF3" t="n">
         <v>76417</v>
       </c>
-      <c r="GD3" t="n">
+      <c r="GG3" t="n">
         <v>5480185</v>
       </c>
-      <c r="GE3" t="n">
+      <c r="GH3" t="n">
         <v>13419732</v>
       </c>
-      <c r="GF3" t="n">
+      <c r="GI3" t="n">
         <v>-16843201</v>
       </c>
-      <c r="GG3" t="n">
+      <c r="GJ3" t="n">
         <v>-1240586</v>
       </c>
-      <c r="GH3" t="n">
+      <c r="GK3" t="n">
         <v>1472069</v>
       </c>
-      <c r="GI3" t="n">
+      <c r="GL3" t="n">
         <v>-5919863</v>
       </c>
-      <c r="GJ3" t="n">
+      <c r="GM3" t="n">
         <v>-303679</v>
       </c>
-      <c r="GK3" t="n">
+      <c r="GN3" t="n">
         <v>2</v>
       </c>
-      <c r="GL3" t="n">
+      <c r="GO3" t="n">
         <v>1</v>
       </c>
-      <c r="GM3" t="n">
+      <c r="GP3" t="n">
         <v>126416</v>
       </c>
-      <c r="GN3" t="n">
+      <c r="GQ3" t="n">
         <v>19422780</v>
       </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="inlineStr">
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="inlineStr">
         <is>
           <t>1.57-9.75</t>
         </is>
       </c>
-      <c r="GQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR3" t="inlineStr">
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GS3" t="inlineStr">
+      <c r="GV3" t="inlineStr">
         <is>
           <t>US8265985007</t>
         </is>
       </c>
-      <c r="GT3" t="inlineStr">
+      <c r="GW3" t="inlineStr">
         <is>
           <t>826598500</t>
         </is>
       </c>
-      <c r="GU3" t="inlineStr">
+      <c r="GX3" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="GV3" t="inlineStr">
+      <c r="GY3" t="inlineStr">
         <is>
           <t>https://www.sigmalabsinc.com</t>
         </is>
       </c>
-      <c r="GW3" t="inlineStr">
+      <c r="GZ3" t="inlineStr">
         <is>
           <t>Sigma Labs, Inc., a software company, provides in-process quality assurance software to the additive manufacturing industry under the PrintRite3D brand. It also offers PrintRite3D Lite, which has a smaller footprint and is geared towards single-laser machines for research and development, or small production lots; PrintRite3D Pro, for single, dual and quad laser machines and for environments with less than 10 machines; PrintRite3D Enterprise for plant-wide networks; and PrintRite3D for Direct Energy Deposition is based on a laser process in which a laser beam generates a melt pool on a substrate. The company also provides PrintRite3D-enabled engineering consulting services. It serves aerospace, defense, oil and gas, bio-medical, and power generation industries. The company was formerly known as Framewaves Inc. and changed its name to Sigma Labs, Inc. in September 2010. Sigma Labs, Inc. was incorporated in 1985 and is headquartered in Santa Fe, New Mexico.</t>
         </is>
       </c>
-      <c r="GX3" t="inlineStr">
+      <c r="HA3" t="inlineStr">
         <is>
           <t>Mr. John Rice</t>
         </is>
       </c>
-      <c r="GY3" t="inlineStr">
+      <c r="HB3" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
       </c>
-      <c r="GZ3" t="n">
+      <c r="HC3" t="n">
         <v>20</v>
       </c>
-      <c r="HA3" t="inlineStr">
+      <c r="HD3" t="inlineStr">
         <is>
           <t>15054382576</t>
         </is>
       </c>
-      <c r="HB3" t="inlineStr">
+      <c r="HE3" t="inlineStr">
         <is>
           <t>3900 Paseo Del Sol</t>
         </is>
       </c>
-      <c r="HC3" t="inlineStr">
+      <c r="HF3" t="inlineStr">
         <is>
           <t>Santa Fe</t>
         </is>
       </c>
-      <c r="HD3" t="inlineStr">
+      <c r="HG3" t="inlineStr">
         <is>
           <t>NEW MEXICO</t>
         </is>
       </c>
-      <c r="HE3" t="inlineStr">
+      <c r="HH3" t="inlineStr">
         <is>
           <t>87507</t>
         </is>
       </c>
-      <c r="HF3" t="n">
+      <c r="HI3" t="n">
         <v>4</v>
       </c>
-      <c r="HG3" t="n">
+      <c r="HJ3" t="n">
         <v>3</v>
       </c>
-      <c r="HH3" t="inlineStr">
+      <c r="HK3" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/SGLB.png</t>
         </is>
       </c>
-      <c r="HI3" t="inlineStr">
+      <c r="HL3" t="inlineStr">
         <is>
           <t>2002-05-17</t>
         </is>
       </c>
-      <c r="HJ3" t="inlineStr">
+      <c r="HM3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HK3" t="inlineStr">
+      <c r="HN3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HL3" t="inlineStr">
+      <c r="HO3" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HM3" t="inlineStr">
+      <c r="HP3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN3" t="n">
+      <c r="HQ3" t="n">
         <v>-61490</v>
       </c>
-      <c r="HO3" t="n">
+      <c r="HR3" t="n">
         <v>87949</v>
       </c>
-      <c r="HP3" t="n">
+      <c r="HS3" t="n">
         <v>745998</v>
       </c>
-      <c r="HQ3" t="n">
+      <c r="HT3" t="n">
         <v>490395</v>
       </c>
-      <c r="HR3" t="n">
+      <c r="HU3" t="n">
         <v>21911</v>
       </c>
-      <c r="HS3" t="n">
+      <c r="HV3" t="n">
         <v>-12848</v>
       </c>
-      <c r="HT3" t="n">
+      <c r="HW3" t="n">
         <v>722148</v>
       </c>
-      <c r="HU3" t="n">
+      <c r="HX3" t="n">
         <v>131300</v>
       </c>
-      <c r="HV3" t="n">
+      <c r="HY3" t="n">
         <v>664581</v>
       </c>
-      <c r="HW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX3" t="n">
+      <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
         <v>315475</v>
       </c>
-      <c r="HY3" t="n">
+      <c r="IB3" t="n">
         <v>-619154</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="IC3" t="n">
         <v>1</v>
       </c>
-      <c r="IA3" t="n">
+      <c r="ID3" t="n">
         <v>-6539017</v>
       </c>
-      <c r="IB3" t="n">
+      <c r="IE3" t="n">
         <v>-1</v>
       </c>
-      <c r="IC3" t="n">
+      <c r="IF3" t="n">
         <v>13977104</v>
       </c>
-      <c r="ID3" t="n">
+      <c r="IG3" t="n">
         <v>1</v>
       </c>
-      <c r="IE3" t="n">
+      <c r="IH3" t="n">
         <v>0.64</v>
+      </c>
+      <c r="II3" t="n">
+        <v>21942492</v>
       </c>
     </row>
     <row r="4">
@@ -3274,124 +3318,124 @@
         <v>0.73</v>
       </c>
       <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
         <v>-52</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>1.02</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>1779128</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>400715328</v>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>11971</v>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>2021-09-30</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>2021-12-20</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>2021-12-20 16:44:31</t>
         </is>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>2021</v>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>FY</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>50526000</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>39721000</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>10805000</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
       <c r="AK4" t="n">
         <v>0</v>
       </c>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
         <v>29922000</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>3462000</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>33384000</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>41235000</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>74619000</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>114340000</v>
       </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
       <c r="AS4" t="n">
         <v>0</v>
       </c>
       <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
         <v>596</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>-43694404</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
         <v>-1</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AX4" t="n">
         <v>-24093000</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AY4" t="n">
         <v>-0</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AZ4" t="n">
         <v>19602000</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
         <v>-43695000</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>-1</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>-3643000</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>-40052000</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>-1</v>
       </c>
       <c r="BE4" t="n">
         <v>-1</v>
@@ -3400,595 +3444,607 @@
         <v>-1</v>
       </c>
       <c r="BG4" t="n">
-        <v>51569634</v>
+        <v>-1</v>
       </c>
       <c r="BH4" t="n">
         <v>51569634</v>
       </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BI4" t="n">
+        <v>51569634</v>
+      </c>
+      <c r="BJ4" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/1779128/000177912821000025/0001779128-21-000025-index.htm</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
+      <c r="BK4" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/1779128/000177912821000025/blde-20210930.htm</t>
         </is>
       </c>
-      <c r="BK4" t="n">
+      <c r="BL4" t="n">
         <v>6952000</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BM4" t="n">
         <v>297175000</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>304127000</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4" t="n">
         <v>3765000</v>
       </c>
-      <c r="BO4" t="n">
-        <v>0</v>
-      </c>
       <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
         <v>6555000</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>314447000</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BS4" t="n">
         <v>2612000</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BT4" t="n">
         <v>13271000</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BU4" t="n">
         <v>12644000</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BV4" t="n">
         <v>25915000</v>
       </c>
-      <c r="BV4" t="n">
-        <v>0</v>
-      </c>
       <c r="BW4" t="n">
         <v>0</v>
       </c>
       <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
         <v>420000</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BZ4" t="n">
         <v>28947000</v>
       </c>
-      <c r="BZ4" t="n">
-        <v>0</v>
-      </c>
       <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
         <v>343394000</v>
       </c>
-      <c r="CB4" t="n">
-        <v>0</v>
-      </c>
       <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
         <v>862000</v>
       </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>4654000</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CG4" t="n">
         <v>4015000</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CH4" t="n">
         <v>9531000</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CI4" t="n">
         <v>222000</v>
       </c>
-      <c r="CI4" t="n">
-        <v>0</v>
-      </c>
       <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
         <v>195000</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CL4" t="n">
         <v>42217000</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CM4" t="n">
         <v>42634000</v>
       </c>
-      <c r="CM4" t="n">
-        <v>0</v>
-      </c>
       <c r="CN4" t="n">
         <v>0</v>
       </c>
       <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
         <v>52165000</v>
       </c>
-      <c r="CP4" t="n">
-        <v>0</v>
-      </c>
       <c r="CQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" t="n">
         <v>7000</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CS4" t="n">
         <v>-77190000</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CT4" t="n">
         <v>-297000</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="CU4" t="n">
         <v>368709000</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="CV4" t="n">
         <v>291229000</v>
       </c>
-      <c r="CV4" t="n">
-        <v>0</v>
-      </c>
       <c r="CW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" t="n">
         <v>291229000</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>343394000</v>
       </c>
       <c r="CY4" t="n">
         <v>343394000</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0</v>
+        <v>343394000</v>
       </c>
       <c r="DA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="n">
         <v>1084000</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DC4" t="n">
         <v>-5868000</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DD4" t="n">
         <v>-3643</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DE4" t="n">
         <v>9621</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DF4" t="n">
         <v>304410723</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="DG4" t="n">
         <v>-414</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="DH4" t="n">
         <v>1963</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DI4" t="n">
         <v>304916000</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DJ4" t="n">
         <v>-304392860</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DK4" t="n">
         <v>-15615</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DL4" t="n">
         <v>-297</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DM4" t="n">
         <v>-23065</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DN4" t="n">
         <v>-308772</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DO4" t="n">
         <v>11300</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DP4" t="n">
         <v>-504</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>-321338</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>-52</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>144</v>
       </c>
-      <c r="DS4" t="n">
-        <v>0</v>
-      </c>
       <c r="DT4" t="n">
         <v>0</v>
       </c>
       <c r="DU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="n">
         <v>332167</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>332259</v>
       </c>
-      <c r="DW4" t="n">
-        <v>0</v>
-      </c>
       <c r="DX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY4" t="n">
         <v>-4694</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>7582</v>
       </c>
-      <c r="DZ4" t="n">
-        <v>0</v>
-      </c>
       <c r="EA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB4" t="n">
         <v>-15615</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>-297</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>-15912</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>16842000</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>13240333</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>870667</v>
       </c>
-      <c r="EG4" t="inlineStr">
+      <c r="EH4" t="inlineStr">
         <is>
           <t>Blade Air Mobility, Inc.</t>
         </is>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>1</v>
       </c>
-      <c r="EI4" t="n">
-        <v>0</v>
-      </c>
       <c r="EJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" t="n">
         <v>5</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>6</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>8</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>9</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>707683</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>1144646</v>
       </c>
-      <c r="EP4" t="inlineStr">
+      <c r="EQ4" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
-      </c>
-      <c r="EQ4" t="n">
-        <v>6</v>
       </c>
       <c r="ER4" t="n">
         <v>6</v>
       </c>
       <c r="ES4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="ET4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU4" t="n">
         <v>70672897</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>1643525161</v>
       </c>
-      <c r="EV4" t="n">
-        <v>0</v>
-      </c>
       <c r="EW4" t="n">
         <v>0</v>
       </c>
       <c r="EX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" t="n">
         <v>896068</v>
       </c>
-      <c r="EY4" t="n">
-        <v>0</v>
-      </c>
       <c r="EZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA4" t="n">
         <v>390791</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FB4" t="n">
         <v>267823616</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FC4" t="n">
         <v>-846068</v>
       </c>
-      <c r="FC4" t="n">
+      <c r="FD4" t="n">
         <v>-794467</v>
       </c>
-      <c r="FD4" t="n">
-        <v>0</v>
-      </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" t="n">
         <v>1430608</v>
       </c>
-      <c r="FG4" t="n">
-        <v>0</v>
-      </c>
       <c r="FH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI4" t="n">
         <v>371306</v>
       </c>
-      <c r="FI4" t="n">
+      <c r="FJ4" t="n">
         <v>267695898</v>
       </c>
-      <c r="FJ4" t="n">
+      <c r="FK4" t="n">
         <v>37575000</v>
       </c>
-      <c r="FK4" t="n">
+      <c r="FL4" t="n">
         <v>63571887</v>
       </c>
-      <c r="FL4" t="n">
+      <c r="FM4" t="n">
         <v>314447000</v>
       </c>
-      <c r="FM4" t="n">
+      <c r="FN4" t="n">
         <v>4654000</v>
       </c>
-      <c r="FN4" t="n">
+      <c r="FO4" t="n">
         <v>9531000</v>
       </c>
-      <c r="FO4" t="n">
+      <c r="FP4" t="n">
         <v>291229000</v>
       </c>
-      <c r="FP4" t="n">
+      <c r="FQ4" t="n">
+        <v>1084000</v>
+      </c>
+      <c r="FR4" t="n">
         <v>-5868000</v>
       </c>
-      <c r="FQ4" t="n">
+      <c r="FS4" t="n">
         <v>354697</v>
       </c>
-      <c r="FR4" t="n">
+      <c r="FT4" t="n">
         <v>12951000</v>
       </c>
-      <c r="FS4" t="n">
+      <c r="FU4" t="n">
         <v>10812000</v>
       </c>
-      <c r="FT4" t="n">
+      <c r="FV4" t="n">
         <v>342729000</v>
       </c>
-      <c r="FU4" t="n">
+      <c r="FW4" t="n">
         <v>5266000</v>
       </c>
-      <c r="FV4" t="n">
+      <c r="FX4" t="n">
         <v>10557000</v>
       </c>
-      <c r="FW4" t="n">
+      <c r="FY4" t="n">
         <v>296698000</v>
       </c>
-      <c r="FX4" t="n">
+      <c r="FZ4" t="n">
+        <v>428000</v>
+      </c>
+      <c r="GA4" t="n">
         <v>-29575000</v>
       </c>
-      <c r="FY4" t="n">
+      <c r="GB4" t="n">
         <v>-9464</v>
       </c>
-      <c r="FZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA4" t="n">
+      <c r="GC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD4" t="n">
         <v>235113</v>
       </c>
-      <c r="GB4" t="n">
+      <c r="GE4" t="n">
         <v>608720</v>
       </c>
-      <c r="GC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD4" t="n">
+      <c r="GF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG4" t="n">
         <v>1538555</v>
       </c>
-      <c r="GE4" t="n">
+      <c r="GH4" t="n">
         <v>229975972</v>
       </c>
-      <c r="GF4" t="n">
+      <c r="GI4" t="n">
         <v>-485220</v>
       </c>
-      <c r="GG4" t="n">
+      <c r="GJ4" t="n">
         <v>-360848</v>
       </c>
-      <c r="GH4" t="n">
+      <c r="GK4" t="n">
         <v>50526000</v>
       </c>
-      <c r="GI4" t="n">
+      <c r="GL4" t="n">
         <v>-394022</v>
       </c>
-      <c r="GJ4" t="n">
+      <c r="GM4" t="n">
         <v>-297</v>
       </c>
-      <c r="GK4" t="n">
+      <c r="GN4" t="n">
         <v>6</v>
       </c>
-      <c r="GL4" t="n">
+      <c r="GO4" t="n">
         <v>-0</v>
       </c>
-      <c r="GM4" t="n">
+      <c r="GP4" t="n">
         <v>1126143</v>
       </c>
-      <c r="GN4" t="n">
+      <c r="GQ4" t="n">
         <v>448772896</v>
       </c>
-      <c r="GO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" t="inlineStr">
+      <c r="GR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS4" t="inlineStr">
         <is>
           <t>5.4-19.88</t>
         </is>
       </c>
-      <c r="GQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" t="inlineStr">
+      <c r="GT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU4" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GS4" t="inlineStr">
+      <c r="GV4" t="inlineStr">
         <is>
           <t>US0926671043</t>
         </is>
       </c>
-      <c r="GT4" t="inlineStr">
+      <c r="GW4" t="inlineStr">
         <is>
           <t>92667104</t>
         </is>
       </c>
-      <c r="GU4" t="inlineStr">
+      <c r="GX4" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="GV4" t="inlineStr">
+      <c r="GY4" t="inlineStr">
         <is>
           <t>https://www.blade.com</t>
         </is>
       </c>
-      <c r="GW4" t="inlineStr">
+      <c r="GZ4" t="inlineStr">
         <is>
           <t>Blade Air Mobility, Inc. provides air transportation alternatives to the congested ground routes in the United States. It provides its services through charter and by-the-seat flights using helicopters, jets, turboprops, and amphibious seaplanes. The company was founded in 2014 and is headquartered in New York, New York.</t>
         </is>
       </c>
-      <c r="GX4" t="inlineStr">
+      <c r="HA4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="GY4" t="inlineStr">
+      <c r="HB4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
       </c>
-      <c r="GZ4" t="n">
+      <c r="HC4" t="n">
         <v>73</v>
       </c>
-      <c r="HA4" t="inlineStr">
+      <c r="HD4" t="inlineStr">
         <is>
           <t>212 967 1009</t>
         </is>
       </c>
-      <c r="HB4" t="inlineStr">
+      <c r="HE4" t="inlineStr">
         <is>
           <t>499 East 34th Street</t>
         </is>
       </c>
-      <c r="HC4" t="inlineStr">
+      <c r="HF4" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="HD4" t="inlineStr">
+      <c r="HG4" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="HE4" t="inlineStr">
+      <c r="HH4" t="inlineStr">
         <is>
           <t>10016</t>
         </is>
       </c>
-      <c r="HF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH4" t="inlineStr">
+      <c r="HI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK4" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/BLDE.png</t>
         </is>
       </c>
-      <c r="HI4" t="inlineStr">
+      <c r="HL4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="HJ4" t="inlineStr">
+      <c r="HM4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HK4" t="inlineStr">
+      <c r="HN4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HL4" t="inlineStr">
+      <c r="HO4" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HM4" t="inlineStr">
+      <c r="HP4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN4" t="n">
+      <c r="HQ4" t="n">
         <v>4654000</v>
       </c>
-      <c r="HO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP4" t="n">
+      <c r="HR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS4" t="n">
         <v>55180000</v>
       </c>
-      <c r="HQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR4" t="n">
+      <c r="HT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU4" t="n">
         <v>-612000</v>
       </c>
-      <c r="HS4" t="n">
+      <c r="HV4" t="n">
         <v>5266000</v>
       </c>
-      <c r="HT4" t="n">
+      <c r="HW4" t="n">
         <v>36963000</v>
       </c>
-      <c r="HU4" t="n">
+      <c r="HX4" t="n">
         <v>18217000</v>
       </c>
-      <c r="HV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>0</v>
-      </c>
       <c r="HY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB4" t="n">
         <v>-297</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="IC4" t="n">
         <v>4</v>
       </c>
-      <c r="IA4" t="n">
+      <c r="ID4" t="n">
         <v>-394319</v>
       </c>
-      <c r="IB4" t="n">
+      <c r="IE4" t="n">
         <v>-0</v>
       </c>
-      <c r="IC4" t="n">
+      <c r="IF4" t="n">
         <v>304916000</v>
       </c>
-      <c r="ID4" t="n">
+      <c r="IG4" t="n">
         <v>4</v>
       </c>
-      <c r="IE4" t="n">
+      <c r="IH4" t="n">
         <v>0.76</v>
+      </c>
+      <c r="II4" t="n">
+        <v>399631328</v>
       </c>
     </row>
     <row r="5">
@@ -4061,204 +4117,204 @@
         <v>1.35</v>
       </c>
       <c r="U5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V5" t="n">
         <v>-5</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>1.1</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>1679063</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>92074120</v>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>10570</v>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>2021-03-31</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>2021-03-31</t>
         </is>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>2020</v>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>FY</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>66356956</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>52139819</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>14217137</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
       <c r="AK5" t="n">
         <v>0</v>
       </c>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
         <v>23643881</v>
       </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
       <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>52928873</v>
       </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
       <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>52928873</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
         <v>105068692</v>
       </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
       <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
         <v>2090316</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>16291327</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>-21929334</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
         <v>-0</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AX5" t="n">
         <v>-38711736</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>-1</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ5" t="n">
         <v>1781442</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
         <v>-40493178</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>-1</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BC5" t="n">
         <v>99000</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>-40409977</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BE5" t="n">
         <v>-1</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>-4</v>
       </c>
       <c r="BF5" t="n">
         <v>-4</v>
       </c>
       <c r="BG5" t="n">
-        <v>3510260</v>
+        <v>-4</v>
       </c>
       <c r="BH5" t="n">
         <v>3510260</v>
       </c>
-      <c r="BI5" t="inlineStr">
+      <c r="BI5" t="n">
+        <v>3510260</v>
+      </c>
+      <c r="BJ5" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/1679063/000155837021003814/0001558370-21-003814-index.htm</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
+      <c r="BK5" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/1679063/000155837021003814/csse-20201231x10k.htm</t>
         </is>
       </c>
-      <c r="BK5" t="n">
+      <c r="BL5" t="n">
         <v>14732726</v>
       </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
       <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
         <v>14732726</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BO5" t="n">
         <v>31645599</v>
       </c>
-      <c r="BO5" t="n">
-        <v>0</v>
-      </c>
       <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
         <v>1382502</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BR5" t="n">
         <v>47760827</v>
       </c>
-      <c r="BR5" t="n">
-        <v>0</v>
-      </c>
       <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
         <v>21448106</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BU5" t="n">
         <v>82554751</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BV5" t="n">
         <v>104002857</v>
       </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
       <c r="BW5" t="n">
         <v>0</v>
       </c>
       <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
         <v>4517102</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BZ5" t="n">
         <v>108519959</v>
       </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
       <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
         <v>156280786</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CC5" t="n">
         <v>18445925</v>
       </c>
-      <c r="CC5" t="n">
-        <v>0</v>
-      </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
@@ -4266,516 +4322,528 @@
         <v>0</v>
       </c>
       <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
         <v>15484683</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CH5" t="n">
         <v>33930608</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CI5" t="n">
         <v>33597467</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CJ5" t="n">
         <v>8659136</v>
       </c>
-      <c r="CJ5" t="n">
-        <v>0</v>
-      </c>
       <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
         <v>14991784</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CM5" t="n">
         <v>57248387</v>
       </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
       <c r="CN5" t="n">
         <v>0</v>
       </c>
       <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
         <v>91178995</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="CQ5" t="n">
         <v>210</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="CR5" t="n">
         <v>1282</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="CS5" t="n">
         <v>-77247982</v>
       </c>
-      <c r="CS5" t="n">
-        <v>0</v>
-      </c>
       <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" t="n">
         <v>105792819</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="CV5" t="n">
         <v>28546329</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="CW5" t="n">
         <v>36555462</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="CX5" t="n">
         <v>65101791</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="CY5" t="n">
         <v>119725324</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="CZ5" t="n">
         <v>156280786</v>
       </c>
-      <c r="CZ5" t="n">
-        <v>0</v>
-      </c>
       <c r="DA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="n">
         <v>36097467</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DC5" t="n">
         <v>21364741</v>
       </c>
-      <c r="DC5" t="n">
-        <v>0</v>
-      </c>
       <c r="DD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="n">
         <v>1131515</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DF5" t="n">
         <v>11248783</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DG5" t="n">
         <v>5488150</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="DH5" t="n">
         <v>-5637040</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DI5" t="n">
         <v>13830219</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DJ5" t="n">
         <v>-35273381</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DK5" t="n">
         <v>-18045482</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DL5" t="n">
         <v>-5465407</v>
       </c>
-      <c r="DL5" t="n">
-        <v>0</v>
-      </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" t="n">
         <v>679462</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DP5" t="n">
         <v>1993780</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>-2792165</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DR5" t="n">
         <v>-17700000</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DS5" t="n">
         <v>5899623</v>
       </c>
-      <c r="DS5" t="n">
-        <v>0</v>
-      </c>
       <c r="DT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU5" t="n">
         <v>-4142376</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DV5" t="n">
         <v>45065724</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DW5" t="n">
         <v>29122971</v>
       </c>
-      <c r="DW5" t="n">
-        <v>0</v>
-      </c>
       <c r="DX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="n">
         <v>8285324</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>14732726</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>6447402</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>-18045482</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>-5465407</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>-23510889</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>33471203</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>22560072</v>
       </c>
-      <c r="EF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG5" t="inlineStr">
+      <c r="EG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH5" t="inlineStr">
         <is>
           <t>Chicken Soup for the Soul Entertainment, Inc.</t>
         </is>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>-1</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>-0</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>26</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>27</v>
       </c>
       <c r="EL5" t="n">
         <v>27</v>
       </c>
       <c r="EM5" t="n">
+        <v>27</v>
+      </c>
+      <c r="EN5" t="n">
         <v>28</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>9184</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>3930</v>
       </c>
-      <c r="EP5" t="inlineStr">
+      <c r="EQ5" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>26</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>27</v>
       </c>
-      <c r="ES5" t="n">
-        <v>0</v>
-      </c>
       <c r="ET5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" t="n">
         <v>3510260</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>1643525023</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>55363906</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>39643248</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EY5" t="n">
         <v>49924176</v>
       </c>
-      <c r="EY5" t="n">
-        <v>0</v>
-      </c>
       <c r="EZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" t="n">
         <v>47342740</v>
       </c>
-      <c r="FA5" t="n">
+      <c r="FB5" t="n">
         <v>54283039</v>
       </c>
-      <c r="FB5" t="n">
+      <c r="FC5" t="n">
         <v>13563073</v>
       </c>
-      <c r="FC5" t="n">
+      <c r="FD5" t="n">
         <v>-18698763</v>
       </c>
-      <c r="FD5" t="n">
+      <c r="FE5" t="n">
         <v>26859519</v>
       </c>
-      <c r="FE5" t="n">
+      <c r="FF5" t="n">
         <v>13409586</v>
       </c>
-      <c r="FF5" t="n">
+      <c r="FG5" t="n">
         <v>21737097</v>
       </c>
-      <c r="FG5" t="n">
-        <v>0</v>
-      </c>
       <c r="FH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" t="n">
         <v>7617944</v>
       </c>
-      <c r="FI5" t="n">
+      <c r="FJ5" t="n">
         <v>61010336</v>
       </c>
-      <c r="FJ5" t="n">
+      <c r="FK5" t="n">
         <v>29096855</v>
       </c>
-      <c r="FK5" t="n">
+      <c r="FL5" t="n">
         <v>19445152</v>
       </c>
-      <c r="FL5" t="n">
+      <c r="FM5" t="n">
         <v>117326727</v>
       </c>
-      <c r="FM5" t="n">
-        <v>0</v>
-      </c>
       <c r="FN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" t="n">
         <v>62886825</v>
       </c>
-      <c r="FO5" t="n">
+      <c r="FP5" t="n">
         <v>124020642</v>
       </c>
-      <c r="FP5" t="n">
+      <c r="FQ5" t="n">
+        <v>55221365</v>
+      </c>
+      <c r="FR5" t="n">
         <v>-11726590</v>
       </c>
-      <c r="FQ5" t="n">
+      <c r="FS5" t="n">
         <v>-6768079</v>
       </c>
-      <c r="FR5" t="n">
+      <c r="FT5" t="n">
         <v>22134934</v>
       </c>
-      <c r="FS5" t="n">
+      <c r="FU5" t="n">
         <v>14258567</v>
       </c>
-      <c r="FT5" t="n">
+      <c r="FV5" t="n">
         <v>65984463</v>
       </c>
-      <c r="FU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV5" t="n">
+      <c r="FW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX5" t="n">
         <v>70240984</v>
       </c>
-      <c r="FW5" t="n">
+      <c r="FY5" t="n">
         <v>72494683</v>
       </c>
-      <c r="FX5" t="n">
+      <c r="FZ5" t="n">
+        <v>55011188</v>
+      </c>
+      <c r="GA5" t="n">
         <v>36606934</v>
       </c>
-      <c r="FY5" t="n">
+      <c r="GB5" t="n">
         <v>-8633626</v>
       </c>
-      <c r="FZ5" t="n">
+      <c r="GC5" t="n">
         <v>23196842</v>
       </c>
-      <c r="GA5" t="n">
+      <c r="GD5" t="n">
         <v>12473365</v>
       </c>
-      <c r="GB5" t="n">
+      <c r="GE5" t="n">
         <v>57426146</v>
       </c>
-      <c r="GC5" t="n">
+      <c r="GF5" t="n">
         <v>6195174</v>
       </c>
-      <c r="GD5" t="n">
+      <c r="GG5" t="n">
         <v>28413978</v>
       </c>
-      <c r="GE5" t="n">
+      <c r="GH5" t="n">
         <v>79998801</v>
       </c>
-      <c r="GF5" t="n">
+      <c r="GI5" t="n">
         <v>12821655</v>
       </c>
-      <c r="GG5" t="n">
+      <c r="GJ5" t="n">
         <v>-8264934</v>
       </c>
-      <c r="GH5" t="n">
+      <c r="GK5" t="n">
         <v>94659223</v>
       </c>
-      <c r="GI5" t="n">
+      <c r="GL5" t="n">
         <v>-27901089</v>
       </c>
-      <c r="GJ5" t="n">
+      <c r="GM5" t="n">
         <v>-3737920</v>
       </c>
-      <c r="GK5" t="n">
+      <c r="GN5" t="n">
         <v>27</v>
       </c>
-      <c r="GL5" t="n">
+      <c r="GO5" t="n">
         <v>1</v>
       </c>
-      <c r="GM5" t="n">
+      <c r="GP5" t="n">
         <v>3588</v>
       </c>
-      <c r="GN5" t="n">
+      <c r="GQ5" t="n">
         <v>95970512</v>
       </c>
-      <c r="GO5" t="n">
+      <c r="GR5" t="n">
         <v>2</v>
       </c>
-      <c r="GP5" t="inlineStr">
+      <c r="GS5" t="inlineStr">
         <is>
           <t>24.95-29.2</t>
         </is>
       </c>
-      <c r="GQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" t="inlineStr">
+      <c r="GT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU5" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GS5" t="inlineStr">
+      <c r="GV5" t="inlineStr">
         <is>
           <t>US16842Q2093</t>
         </is>
       </c>
-      <c r="GT5" t="inlineStr">
+      <c r="GW5" t="inlineStr">
         <is>
           <t>16842Q209</t>
         </is>
       </c>
-      <c r="GU5" t="inlineStr">
+      <c r="GX5" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="GV5" t="inlineStr">
+      <c r="GY5" t="inlineStr">
         <is>
           <t>https://www.cssentertainment.com</t>
         </is>
       </c>
-      <c r="GW5" t="inlineStr">
+      <c r="GZ5" t="inlineStr">
         <is>
           <t>Chicken Soup for the Soul Entertainment, Inc. operates as a streaming video-on-demand company in the United States and internationally. It owns and operates various ad-supported and subscription-based video-on-demand (VOD) networks, including Crackle, Popcornflix, Popcornflix Kids, Truli, Pivotshare, Españolflix, and FrightPix. The company distributes and exhibits VOD content directly to consumers through various digital platforms, such as connected TVs, smartphones, tablets, gaming consoles, and the web through its owned and operated advertising-supported online VOD Crackle Plus networks; distributes its own and third-party owned content to consumers across various digital platforms through its subscription-based VOD network, Pivotshare; and operates a series of direct-to consumer advertising supported channels. It also acquires and distributes video content; and produces long and short-form original content. The company was founded in 2014 and is headquartered in Cos Cob, Connecticut. Chicken Soup for the Soul Entertainment, Inc. is a subsidiary of Chicken Soup for the Soul Productions, LLC.</t>
         </is>
       </c>
-      <c r="GX5" t="inlineStr">
+      <c r="HA5" t="inlineStr">
         <is>
           <t>Mr. William J. Rouhana Jr.</t>
         </is>
       </c>
-      <c r="GY5" t="inlineStr">
+      <c r="HB5" t="inlineStr">
         <is>
           <t>Communication Services</t>
         </is>
       </c>
-      <c r="GZ5" t="n">
+      <c r="HC5" t="n">
         <v>99</v>
       </c>
-      <c r="HA5" t="inlineStr">
+      <c r="HD5" t="inlineStr">
         <is>
           <t>855 398 0443</t>
         </is>
       </c>
-      <c r="HB5" t="inlineStr">
+      <c r="HE5" t="inlineStr">
         <is>
           <t>132 East Putman Avenue</t>
         </is>
       </c>
-      <c r="HC5" t="inlineStr">
+      <c r="HF5" t="inlineStr">
         <is>
           <t>Cos Cob</t>
         </is>
       </c>
-      <c r="HD5" t="inlineStr">
+      <c r="HG5" t="inlineStr">
         <is>
           <t>CT</t>
         </is>
       </c>
-      <c r="HE5" t="inlineStr">
+      <c r="HH5" t="inlineStr">
         <is>
           <t>6807</t>
         </is>
       </c>
-      <c r="HF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH5" t="inlineStr">
+      <c r="HI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK5" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/CSSEP.png</t>
         </is>
       </c>
-      <c r="HI5" t="inlineStr">
+      <c r="HL5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="HJ5" t="inlineStr">
+      <c r="HM5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HK5" t="inlineStr">
+      <c r="HN5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HL5" t="inlineStr">
+      <c r="HO5" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HM5" t="inlineStr">
+      <c r="HP5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP5" t="n">
+      <c r="HQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS5" t="n">
         <v>66356956</v>
       </c>
-      <c r="HQ5" t="n">
+      <c r="HT5" t="n">
         <v>55363906</v>
       </c>
-      <c r="HR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS5" t="n">
+      <c r="HU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV5" t="n">
         <v>-6195174</v>
       </c>
-      <c r="HT5" t="n">
+      <c r="HW5" t="n">
         <v>29096855</v>
       </c>
-      <c r="HU5" t="n">
+      <c r="HX5" t="n">
         <v>15939760</v>
       </c>
-      <c r="HV5" t="n">
+      <c r="HY5" t="n">
         <v>28302267</v>
       </c>
-      <c r="HW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY5" t="n">
+      <c r="HZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB5" t="n">
         <v>-3737920</v>
       </c>
-      <c r="HZ5" t="n">
+      <c r="IC5" t="n">
         <v>35</v>
       </c>
-      <c r="IA5" t="n">
+      <c r="ID5" t="n">
         <v>-31639009</v>
       </c>
-      <c r="IB5" t="n">
+      <c r="IE5" t="n">
         <v>-9</v>
       </c>
-      <c r="IC5" t="n">
+      <c r="IF5" t="n">
         <v>54439902</v>
       </c>
-      <c r="ID5" t="n">
+      <c r="IG5" t="n">
         <v>16</v>
       </c>
-      <c r="IE5" t="n">
+      <c r="IH5" t="n">
         <v>0.59</v>
+      </c>
+      <c r="II5" t="n">
+        <v>36852755</v>
       </c>
     </row>
     <row r="6">
@@ -4848,309 +4916,309 @@
         <v>1.92</v>
       </c>
       <c r="U6" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="V6" t="n">
         <v>-5</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>1.27</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>1092662</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>25006536</v>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>11278</v>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>2021-03-11</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>2021-03-11 17:22:22</t>
         </is>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>2020</v>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>FY</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>30451273</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>23874487</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>6576786</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
       <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
         <v>9508494</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>21038</v>
       </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
       <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
         <v>19018777</v>
       </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
       <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>28527271</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="n">
         <v>52401758</v>
       </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
       <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
         <v>2841830</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>2697126</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>-20439166</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AW6" t="n">
         <v>-1</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AX6" t="n">
         <v>-21950485</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AY6" t="n">
         <v>-1</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AZ6" t="n">
         <v>4027637</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="BA6" t="n">
         <v>-25978122</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>-1</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BC6" t="n">
         <v>-456794</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>-25521328</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BE6" t="n">
         <v>-1</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>-2</v>
       </c>
       <c r="BF6" t="n">
         <v>-2</v>
       </c>
       <c r="BG6" t="n">
-        <v>20104547</v>
+        <v>-2</v>
       </c>
       <c r="BH6" t="n">
         <v>20104547</v>
       </c>
-      <c r="BI6" t="inlineStr">
+      <c r="BI6" t="n">
+        <v>20104547</v>
+      </c>
+      <c r="BJ6" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/1092662/000114036121008210/0001140361-21-008210-index.htm</t>
         </is>
       </c>
-      <c r="BJ6" t="inlineStr">
+      <c r="BK6" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/1092662/000114036121008210/brhc10021388_10k.htm</t>
         </is>
       </c>
-      <c r="BK6" t="n">
+      <c r="BL6" t="n">
         <v>23066301</v>
       </c>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
       <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
         <v>23066301</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BO6" t="n">
         <v>3377387</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BP6" t="n">
         <v>12516402</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6" t="n">
         <v>778683</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6" t="n">
         <v>39738773</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BS6" t="n">
         <v>15034169</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BT6" t="n">
         <v>5963744</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BU6" t="n">
         <v>3645986</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BV6" t="n">
         <v>9609730</v>
       </c>
-      <c r="BV6" t="n">
-        <v>0</v>
-      </c>
       <c r="BW6" t="n">
         <v>0</v>
       </c>
       <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
         <v>509342</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BZ6" t="n">
         <v>25153241</v>
       </c>
-      <c r="BZ6" t="n">
-        <v>0</v>
-      </c>
       <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
         <v>64892014</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CC6" t="n">
         <v>5727781</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CD6" t="n">
         <v>701337</v>
       </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>1606997</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CG6" t="n">
         <v>4315009</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CH6" t="n">
         <v>12351124</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CI6" t="n">
         <v>18182158</v>
       </c>
-      <c r="CI6" t="n">
-        <v>0</v>
-      </c>
       <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
         <v>69941</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CL6" t="n">
         <v>6512382</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CM6" t="n">
         <v>24764481</v>
       </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
       <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
         <v>7213719</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CP6" t="n">
         <v>37115605</v>
       </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
       <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
         <v>202235</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CS6" t="n">
         <v>-97106331</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="CT6" t="n">
         <v>-90916</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="CU6" t="n">
         <v>124771421</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="CV6" t="n">
         <v>27776409</v>
       </c>
-      <c r="CV6" t="n">
-        <v>0</v>
-      </c>
       <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
         <v>27776409</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>64892014</v>
       </c>
       <c r="CY6" t="n">
         <v>64892014</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0</v>
+        <v>64892014</v>
       </c>
       <c r="DA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB6" t="n">
         <v>18883495</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DC6" t="n">
         <v>-4182806</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DD6" t="n">
         <v>-396385</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DE6" t="n">
         <v>1223171</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DF6" t="n">
         <v>1605609</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="DG6" t="n">
         <v>283939</v>
       </c>
-      <c r="DG6" t="n">
-        <v>0</v>
-      </c>
       <c r="DH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" t="n">
         <v>27387649</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DJ6" t="n">
         <v>1504569</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DK6" t="n">
         <v>-18887238</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DL6" t="n">
         <v>-3961369</v>
       </c>
-      <c r="DL6" t="n">
-        <v>0</v>
-      </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
@@ -5158,72 +5226,72 @@
         <v>0</v>
       </c>
       <c r="DO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" t="n">
         <v>-205493</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DQ6" t="n">
         <v>-4166862</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DR6" t="n">
         <v>-3209730</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DS6" t="n">
         <v>28436740</v>
       </c>
-      <c r="DS6" t="n">
-        <v>0</v>
-      </c>
       <c r="DT6" t="n">
         <v>0</v>
       </c>
       <c r="DU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="n">
         <v>2536592</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>27763602</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>85447</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>4794949</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>23066301</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>18271352</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>-18887238</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>-4166862</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>-23054100</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>28041765</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>18006942</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>6940261</v>
       </c>
-      <c r="EG6" t="inlineStr">
+      <c r="EH6" t="inlineStr">
         <is>
           <t>Chembio Diagnostics, Inc.</t>
         </is>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>-2</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>-0</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>1</v>
       </c>
       <c r="EK6" t="n">
         <v>1</v>
@@ -5232,337 +5300,349 @@
         <v>1</v>
       </c>
       <c r="EM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN6" t="n">
         <v>3</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>308451</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>1372369</v>
       </c>
-      <c r="EP6" t="inlineStr">
+      <c r="EQ6" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
-      </c>
-      <c r="EQ6" t="n">
-        <v>1</v>
       </c>
       <c r="ER6" t="n">
         <v>1</v>
       </c>
       <c r="ES6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU6" t="n">
         <v>30045099</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>1643525039</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>34464032</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EX6" t="n">
         <v>24676840</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EY6" t="n">
         <v>32223720</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="EZ6" t="n">
         <v>125000</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="FA6" t="n">
         <v>6441680</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="FB6" t="n">
         <v>24035253</v>
       </c>
-      <c r="FB6" t="n">
+      <c r="FC6" t="n">
         <v>163234</v>
       </c>
-      <c r="FC6" t="n">
+      <c r="FD6" t="n">
         <v>-9055506</v>
       </c>
-      <c r="FD6" t="n">
+      <c r="FE6" t="n">
         <v>33409251</v>
       </c>
-      <c r="FE6" t="n">
+      <c r="FF6" t="n">
         <v>19627031</v>
       </c>
-      <c r="FF6" t="n">
+      <c r="FG6" t="n">
         <v>28451754</v>
       </c>
-      <c r="FG6" t="n">
+      <c r="FH6" t="n">
         <v>422905</v>
       </c>
-      <c r="FH6" t="n">
+      <c r="FI6" t="n">
         <v>6519280</v>
       </c>
-      <c r="FI6" t="n">
+      <c r="FJ6" t="n">
         <v>33327774</v>
       </c>
-      <c r="FJ6" t="n">
+      <c r="FK6" t="n">
         <v>9658444</v>
       </c>
-      <c r="FK6" t="n">
+      <c r="FL6" t="n">
         <v>6989371</v>
       </c>
-      <c r="FL6" t="n">
+      <c r="FM6" t="n">
         <v>60784145</v>
       </c>
-      <c r="FM6" t="n">
+      <c r="FN6" t="n">
         <v>20195</v>
       </c>
-      <c r="FN6" t="n">
+      <c r="FO6" t="n">
         <v>11426390</v>
       </c>
-      <c r="FO6" t="n">
+      <c r="FP6" t="n">
         <v>47918529</v>
       </c>
-      <c r="FP6" t="n">
+      <c r="FQ6" t="n">
+        <v>25921923</v>
+      </c>
+      <c r="FR6" t="n">
         <v>-10082077</v>
       </c>
-      <c r="FQ6" t="n">
+      <c r="FS6" t="n">
         <v>-8241824</v>
       </c>
-      <c r="FR6" t="n">
+      <c r="FT6" t="n">
         <v>4182110</v>
       </c>
-      <c r="FS6" t="n">
+      <c r="FU6" t="n">
         <v>6518334</v>
       </c>
-      <c r="FT6" t="n">
+      <c r="FV6" t="n">
         <v>25326231</v>
       </c>
-      <c r="FU6" t="n">
+      <c r="FW6" t="n">
         <v>404486</v>
       </c>
-      <c r="FV6" t="n">
+      <c r="FX6" t="n">
         <v>9428443</v>
       </c>
-      <c r="FW6" t="n">
+      <c r="FY6" t="n">
         <v>15103253</v>
       </c>
-      <c r="FX6" t="n">
+      <c r="FZ6" t="n">
+        <v>25977510</v>
+      </c>
+      <c r="GA6" t="n">
         <v>20413161</v>
       </c>
-      <c r="FY6" t="n">
+      <c r="GB6" t="n">
         <v>-8647400</v>
       </c>
-      <c r="FZ6" t="n">
+      <c r="GC6" t="n">
         <v>5374359</v>
       </c>
-      <c r="GA6" t="n">
+      <c r="GD6" t="n">
         <v>5598405</v>
       </c>
-      <c r="GB6" t="n">
+      <c r="GE6" t="n">
         <v>32267770</v>
       </c>
-      <c r="GC6" t="n">
+      <c r="GF6" t="n">
         <v>404486</v>
       </c>
-      <c r="GD6" t="n">
+      <c r="GG6" t="n">
         <v>9434022</v>
       </c>
-      <c r="GE6" t="n">
+      <c r="GH6" t="n">
         <v>23285146</v>
       </c>
-      <c r="GF6" t="n">
+      <c r="GI6" t="n">
         <v>10975918</v>
       </c>
-      <c r="GG6" t="n">
+      <c r="GJ6" t="n">
         <v>-7261260</v>
       </c>
-      <c r="GH6" t="n">
+      <c r="GK6" t="n">
         <v>27422952</v>
       </c>
-      <c r="GI6" t="n">
+      <c r="GL6" t="n">
         <v>-28890835</v>
       </c>
-      <c r="GJ6" t="n">
+      <c r="GM6" t="n">
         <v>-2404931</v>
       </c>
-      <c r="GK6" t="n">
+      <c r="GN6" t="n">
         <v>1</v>
       </c>
-      <c r="GL6" t="n">
+      <c r="GO6" t="n">
         <v>2</v>
       </c>
-      <c r="GM6" t="n">
+      <c r="GP6" t="n">
         <v>1389222</v>
       </c>
-      <c r="GN6" t="n">
+      <c r="GQ6" t="n">
         <v>27434180</v>
       </c>
-      <c r="GO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP6" t="inlineStr">
+      <c r="GR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" t="inlineStr">
         <is>
           <t>0.84-8.36</t>
         </is>
       </c>
-      <c r="GQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR6" t="inlineStr">
+      <c r="GT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU6" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GS6" t="inlineStr">
+      <c r="GV6" t="inlineStr">
         <is>
           <t>US1635722093</t>
         </is>
       </c>
-      <c r="GT6" t="inlineStr">
+      <c r="GW6" t="inlineStr">
         <is>
           <t>163572209</t>
         </is>
       </c>
-      <c r="GU6" t="inlineStr">
+      <c r="GX6" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="GV6" t="inlineStr">
+      <c r="GY6" t="inlineStr">
         <is>
           <t>https://chembio.com</t>
         </is>
       </c>
-      <c r="GW6" t="inlineStr">
+      <c r="GZ6" t="inlineStr">
         <is>
           <t>Chembio Diagnostics, Inc., together with its subsidiaries, develops, manufactures, and commercializes point-of-care (POC) diagnostic tests that are used to detect or diagnose diseases. The company offers tests for COVID-19, HIV and Syphilis, and Zika virus. It also develops tests for malaria, dengue, Hepatitis C, chikungunya, Chagas, ebola, leishmaniasis, lassa, marburg, leptospirosis, Rickettsia, and Burkholderia diseases. The company sells its products under the STAT-PAK, SURE CHECK, STAT VIEW, and DPP trademarks, as well as under the private labels of its marketing partners to medical laboratories and hospitals, governmental and public health entities, non-governmental organizations, medical professionals, and retail establishments in the United States and internationally. It has collaboration agreements with Bill &amp; Melinda Gates Foundation, The Paul G. Allen Family Foundation, The Oswaldo Cruz Foundation, and the Foundation for Innovative New Diagnostics, as well as U.S. government agencies, such as Centers for Disease Control and Prevention, the Biomedical Advanced Research and Development Authority of the U.S. Department of Health and Human Services, and the U.S. Department of Agriculture. Chembio Diagnostics, Inc. was founded in 1985 and is headquartered in Hauppauge, New York.</t>
         </is>
       </c>
-      <c r="GX6" t="inlineStr">
+      <c r="HA6" t="inlineStr">
         <is>
           <t>Ms. Gail Page</t>
         </is>
       </c>
-      <c r="GY6" t="inlineStr">
+      <c r="HB6" t="inlineStr">
         <is>
           <t>Healthcare</t>
         </is>
       </c>
-      <c r="GZ6" t="n">
+      <c r="HC6" t="n">
         <v>355</v>
       </c>
-      <c r="HA6" t="inlineStr">
+      <c r="HD6" t="inlineStr">
         <is>
           <t>16319241135</t>
         </is>
       </c>
-      <c r="HB6" t="inlineStr">
+      <c r="HE6" t="inlineStr">
         <is>
           <t>555 Wireless Blvd</t>
         </is>
       </c>
-      <c r="HC6" t="inlineStr">
+      <c r="HF6" t="inlineStr">
         <is>
           <t>Hauppauge</t>
         </is>
       </c>
-      <c r="HD6" t="inlineStr">
+      <c r="HG6" t="inlineStr">
         <is>
           <t>NEW YORK</t>
         </is>
       </c>
-      <c r="HE6" t="inlineStr">
+      <c r="HH6" t="inlineStr">
         <is>
           <t>11788</t>
         </is>
       </c>
-      <c r="HF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG6" t="n">
+      <c r="HI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ6" t="n">
         <v>2</v>
       </c>
-      <c r="HH6" t="inlineStr">
+      <c r="HK6" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/CEMI.png</t>
         </is>
       </c>
-      <c r="HI6" t="inlineStr">
+      <c r="HL6" t="inlineStr">
         <is>
           <t>2000-10-18</t>
         </is>
       </c>
-      <c r="HJ6" t="inlineStr">
+      <c r="HM6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HK6" t="inlineStr">
+      <c r="HN6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HL6" t="inlineStr">
+      <c r="HO6" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HM6" t="inlineStr">
+      <c r="HP6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN6" t="n">
+      <c r="HQ6" t="n">
         <v>1481997</v>
       </c>
-      <c r="HO6" t="n">
+      <c r="HR6" t="n">
         <v>-297905</v>
       </c>
-      <c r="HP6" t="n">
+      <c r="HS6" t="n">
         <v>31933270</v>
       </c>
-      <c r="HQ6" t="n">
+      <c r="HT6" t="n">
         <v>34166127</v>
       </c>
-      <c r="HR6" t="n">
+      <c r="HU6" t="n">
         <v>-384291</v>
       </c>
-      <c r="HS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT6" t="n">
+      <c r="HV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW6" t="n">
         <v>9274153</v>
       </c>
-      <c r="HU6" t="n">
+      <c r="HX6" t="n">
         <v>4182110</v>
       </c>
-      <c r="HV6" t="n">
+      <c r="HY6" t="n">
         <v>-3028321</v>
       </c>
-      <c r="HW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX6" t="n">
+      <c r="HZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA6" t="n">
         <v>-749501</v>
       </c>
-      <c r="HY6" t="n">
+      <c r="IB6" t="n">
         <v>-1655430</v>
       </c>
-      <c r="HZ6" t="n">
+      <c r="IC6" t="n">
         <v>2</v>
       </c>
-      <c r="IA6" t="n">
+      <c r="ID6" t="n">
         <v>-30546265</v>
       </c>
-      <c r="IB6" t="n">
+      <c r="IE6" t="n">
         <v>-1</v>
       </c>
-      <c r="IC6" t="n">
+      <c r="IF6" t="n">
         <v>49357755</v>
       </c>
-      <c r="ID6" t="n">
+      <c r="IG6" t="n">
         <v>2</v>
       </c>
-      <c r="IE6" t="n">
+      <c r="IH6" t="n">
         <v>1.97</v>
+      </c>
+      <c r="II6" t="n">
+        <v>-915387</v>
       </c>
     </row>
     <row r="7">
@@ -5635,382 +5715,382 @@
         <v>2.32</v>
       </c>
       <c r="U7" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V7" t="n">
         <v>-1</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>4.75</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>1469443</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>17310332</v>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>3250</v>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>2021-03-31</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2021-03-31 17:00:35</t>
         </is>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>2020</v>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>FY</t>
         </is>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>8034000</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>5199000</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>2835000</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
       <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
         <v>7960000</v>
       </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
         <v>16467000</v>
       </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
       <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>24427000</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="n">
         <v>29626000</v>
       </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
       <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
         <v>47000</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AU7" t="n">
         <v>662000</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AV7" t="n">
         <v>-4070000</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AW7" t="n">
         <v>-1</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AX7" t="n">
         <v>-21592000</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="n">
         <v>-3</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AZ7" t="n">
         <v>-15442000</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BA7" t="n">
         <v>-6150000</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>-1</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>-124000</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>-4655000</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BE7" t="n">
         <v>-1</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>-0</v>
       </c>
       <c r="BF7" t="n">
         <v>-0</v>
       </c>
       <c r="BG7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BH7" t="n">
         <v>18970250</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BI7" t="n">
         <v>19042962</v>
       </c>
-      <c r="BI7" t="inlineStr">
+      <c r="BJ7" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/1469443/000156459021017118/0001564590-21-017118-index.htm</t>
         </is>
       </c>
-      <c r="BJ7" t="inlineStr">
+      <c r="BK7" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/1469443/000156459021017118/rkda-10k_20201231.htm</t>
         </is>
       </c>
-      <c r="BK7" t="n">
+      <c r="BL7" t="n">
         <v>14042000</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BM7" t="n">
         <v>11625000</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BN7" t="n">
         <v>25667000</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BO7" t="n">
         <v>1406000</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BP7" t="n">
         <v>3812000</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BQ7" t="n">
         <v>811000</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BR7" t="n">
         <v>31696000</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BS7" t="n">
         <v>9365000</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BT7" t="n">
         <v>408000</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BU7" t="n">
         <v>370000</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BV7" t="n">
         <v>778000</v>
       </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
       <c r="BW7" t="n">
         <v>0</v>
       </c>
       <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
         <v>5509000</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BZ7" t="n">
         <v>15652000</v>
       </c>
-      <c r="BZ7" t="n">
-        <v>0</v>
-      </c>
       <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
         <v>47348000</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CC7" t="n">
         <v>4105000</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CD7" t="n">
         <v>1141000</v>
       </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>8000</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CG7" t="n">
         <v>1060000</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CH7" t="n">
         <v>6314000</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CI7" t="n">
         <v>2105000</v>
       </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
       <c r="CJ7" t="n">
         <v>0</v>
       </c>
       <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
         <v>10377000</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CM7" t="n">
         <v>12482000</v>
       </c>
-      <c r="CM7" t="n">
-        <v>0</v>
-      </c>
       <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
         <v>6106000</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CP7" t="n">
         <v>18796000</v>
       </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
       <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
         <v>54000</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="CS7" t="n">
         <v>-211825000</v>
       </c>
-      <c r="CS7" t="n">
-        <v>0</v>
-      </c>
       <c r="CT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="n">
         <v>239496000</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="CV7" t="n">
         <v>27725000</v>
       </c>
-      <c r="CV7" t="n">
+      <c r="CW7" t="n">
         <v>827000</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="CX7" t="n">
         <v>28552000</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="CY7" t="n">
         <v>46521000</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="CZ7" t="n">
         <v>47348000</v>
       </c>
-      <c r="CZ7" t="n">
-        <v>0</v>
-      </c>
       <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
         <v>3246000</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DC7" t="n">
         <v>-10796000</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DD7" t="n">
         <v>-107000</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DE7" t="n">
         <v>2042000</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="DF7" t="n">
         <v>11963000</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="DG7" t="n">
         <v>-1119000</v>
       </c>
-      <c r="DG7" t="n">
+      <c r="DH7" t="n">
         <v>-580000</v>
       </c>
-      <c r="DH7" t="n">
+      <c r="DI7" t="n">
         <v>37345000</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="DJ7" t="n">
         <v>-38752000</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DK7" t="n">
         <v>-30218000</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DL7" t="n">
         <v>-2335000</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DM7" t="n">
         <v>2653000</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DN7" t="n">
         <v>-1292000</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DO7" t="n">
         <v>18250000</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DP7" t="n">
         <v>8000</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DQ7" t="n">
         <v>17284000</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DR7" t="n">
         <v>-34000</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DS7" t="n">
         <v>8000000</v>
       </c>
-      <c r="DS7" t="n">
-        <v>0</v>
-      </c>
       <c r="DT7" t="n">
         <v>0</v>
       </c>
       <c r="DU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="n">
         <v>12594000</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>20560000</v>
       </c>
-      <c r="DW7" t="n">
-        <v>0</v>
-      </c>
       <c r="DX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" t="n">
         <v>7626000</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>16043000</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>8417000</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>-30218000</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>-2335000</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>-32553000</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>3576200</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>1584600</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>2865800</v>
       </c>
-      <c r="EG7" t="inlineStr">
+      <c r="EH7" t="inlineStr">
         <is>
           <t>Arcadia Biosciences, Inc.</t>
         </is>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>-2</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>-0</v>
-      </c>
-      <c r="EJ7" t="n">
-        <v>1</v>
       </c>
       <c r="EK7" t="n">
         <v>1</v>
@@ -6019,337 +6099,349 @@
         <v>1</v>
       </c>
       <c r="EM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN7" t="n">
         <v>2</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>382859</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>1009880</v>
       </c>
-      <c r="EP7" t="inlineStr">
+      <c r="EQ7" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
-      </c>
-      <c r="EQ7" t="n">
-        <v>1</v>
       </c>
       <c r="ER7" t="n">
         <v>1</v>
       </c>
       <c r="ES7" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET7" t="n">
         <v>4</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>22184201</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>1643525155</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>1169000</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EX7" t="n">
         <v>20665000</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EY7" t="n">
         <v>28440000</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="EZ7" t="n">
         <v>42000</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="FA7" t="n">
         <v>5708000</v>
       </c>
-      <c r="FA7" t="n">
+      <c r="FB7" t="n">
         <v>7705000</v>
       </c>
-      <c r="FB7" t="n">
+      <c r="FC7" t="n">
         <v>-8286000</v>
       </c>
-      <c r="FC7" t="n">
+      <c r="FD7" t="n">
         <v>-17198000</v>
       </c>
-      <c r="FD7" t="n">
+      <c r="FE7" t="n">
         <v>1464000</v>
       </c>
-      <c r="FE7" t="n">
+      <c r="FF7" t="n">
         <v>17673000</v>
       </c>
-      <c r="FF7" t="n">
+      <c r="FG7" t="n">
         <v>22876000</v>
       </c>
-      <c r="FG7" t="n">
+      <c r="FH7" t="n">
         <v>96000</v>
       </c>
-      <c r="FH7" t="n">
+      <c r="FI7" t="n">
         <v>3054000</v>
       </c>
-      <c r="FI7" t="n">
+      <c r="FJ7" t="n">
         <v>12815000</v>
       </c>
-      <c r="FJ7" t="n">
+      <c r="FK7" t="n">
         <v>2376000</v>
       </c>
-      <c r="FK7" t="n">
+      <c r="FL7" t="n">
         <v>11089000</v>
       </c>
-      <c r="FL7" t="n">
+      <c r="FM7" t="n">
         <v>43834000</v>
       </c>
-      <c r="FM7" t="n">
-        <v>0</v>
-      </c>
       <c r="FN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" t="n">
         <v>6489000</v>
       </c>
-      <c r="FO7" t="n">
+      <c r="FP7" t="n">
         <v>40223000</v>
       </c>
-      <c r="FP7" t="n">
+      <c r="FQ7" t="n">
+        <v>3774000</v>
+      </c>
+      <c r="FR7" t="n">
         <v>-31752000</v>
       </c>
-      <c r="FQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR7" t="n">
+      <c r="FS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" t="n">
         <v>1405000</v>
       </c>
-      <c r="FS7" t="n">
+      <c r="FU7" t="n">
         <v>7501000</v>
       </c>
-      <c r="FT7" t="n">
+      <c r="FV7" t="n">
         <v>50916000</v>
       </c>
-      <c r="FU7" t="n">
+      <c r="FW7" t="n">
         <v>63000</v>
       </c>
-      <c r="FV7" t="n">
+      <c r="FX7" t="n">
         <v>7651000</v>
       </c>
-      <c r="FW7" t="n">
+      <c r="FY7" t="n">
         <v>41640000</v>
       </c>
-      <c r="FX7" t="n">
+      <c r="FZ7" t="n">
+        <v>7916000</v>
+      </c>
+      <c r="GA7" t="n">
         <v>-36061000</v>
       </c>
-      <c r="FY7" t="n">
+      <c r="GB7" t="n">
         <v>-6233000</v>
       </c>
-      <c r="FZ7" t="n">
+      <c r="GC7" t="n">
         <v>828000</v>
       </c>
-      <c r="GA7" t="n">
+      <c r="GD7" t="n">
         <v>5228000</v>
       </c>
-      <c r="GB7" t="n">
+      <c r="GE7" t="n">
         <v>56613000</v>
       </c>
-      <c r="GC7" t="n">
+      <c r="GF7" t="n">
         <v>63000</v>
       </c>
-      <c r="GD7" t="n">
+      <c r="GG7" t="n">
         <v>5617000</v>
       </c>
-      <c r="GE7" t="n">
+      <c r="GH7" t="n">
         <v>44503000</v>
       </c>
-      <c r="GF7" t="n">
+      <c r="GI7" t="n">
         <v>-25678000</v>
       </c>
-      <c r="GG7" t="n">
+      <c r="GJ7" t="n">
         <v>-4707000</v>
       </c>
-      <c r="GH7" t="n">
+      <c r="GK7" t="n">
         <v>11739000</v>
       </c>
-      <c r="GI7" t="n">
+      <c r="GL7" t="n">
         <v>-17691000</v>
       </c>
-      <c r="GJ7" t="n">
+      <c r="GM7" t="n">
         <v>-1010000</v>
       </c>
-      <c r="GK7" t="n">
+      <c r="GN7" t="n">
         <v>1</v>
       </c>
-      <c r="GL7" t="n">
+      <c r="GO7" t="n">
         <v>-1</v>
       </c>
-      <c r="GM7" t="n">
+      <c r="GP7" t="n">
         <v>1028514</v>
       </c>
-      <c r="GN7" t="n">
+      <c r="GQ7" t="n">
         <v>19522096</v>
       </c>
-      <c r="GO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP7" t="inlineStr">
+      <c r="GR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS7" t="inlineStr">
         <is>
           <t>0.78-6.4</t>
         </is>
       </c>
-      <c r="GQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR7" t="inlineStr">
+      <c r="GT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GS7" t="inlineStr">
+      <c r="GV7" t="inlineStr">
         <is>
           <t>US0390142042</t>
         </is>
       </c>
-      <c r="GT7" t="inlineStr">
+      <c r="GW7" t="inlineStr">
         <is>
           <t>39014204</t>
         </is>
       </c>
-      <c r="GU7" t="inlineStr">
+      <c r="GX7" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="GV7" t="inlineStr">
+      <c r="GY7" t="inlineStr">
         <is>
           <t>https://www.arcadiabio.com</t>
         </is>
       </c>
-      <c r="GW7" t="inlineStr">
+      <c r="GZ7" t="inlineStr">
         <is>
           <t>Arcadia Biosciences, Inc. engages in developing various crop productivity traits primarily in hemp, wheat, and soybean. The company's crop productivity traits are designed to enhance farm economics by improving the performance of crops in the field, as well as their value as food ingredients, health and wellness products, and their viability for industrial applications. Its products include GoodHemp, a commercial pipeline of non-GMO hemp seed varieties developed with modern crop innovation tools focused on genetic improvement of hemp; GoodWheat that redesigns wheat as a functional food adding value to the wheat supply chain by enabling a range of choices to meet consumer demands; and nutritional oils, such as gamma linolenic acid oils. The company has collaborations with Ardent Mills, LLC, Corteva AgriScience, and Arista Cereal Seeds Pty Ltd, and Bay State Milling Company. It operates in the United States, Argentina, Canada, Africa, Austria, and India. The company was incorporated in 2002 and is headquartered in Davis, California.</t>
         </is>
       </c>
-      <c r="GX7" t="inlineStr">
+      <c r="HA7" t="inlineStr">
         <is>
           <t>Mr. Matthew Plavan</t>
         </is>
       </c>
-      <c r="GY7" t="inlineStr">
+      <c r="HB7" t="inlineStr">
         <is>
           <t>Basic Materials</t>
         </is>
       </c>
-      <c r="GZ7" t="n">
+      <c r="HC7" t="n">
         <v>58</v>
       </c>
-      <c r="HA7" t="inlineStr">
+      <c r="HD7" t="inlineStr">
         <is>
           <t>15307567077</t>
         </is>
       </c>
-      <c r="HB7" t="inlineStr">
+      <c r="HE7" t="inlineStr">
         <is>
           <t>202 Cousteau Pl Ste 200</t>
         </is>
       </c>
-      <c r="HC7" t="inlineStr">
+      <c r="HF7" t="inlineStr">
         <is>
           <t>Davis</t>
         </is>
       </c>
-      <c r="HD7" t="inlineStr">
+      <c r="HG7" t="inlineStr">
         <is>
           <t>CALIFORNIA</t>
         </is>
       </c>
-      <c r="HE7" t="inlineStr">
+      <c r="HH7" t="inlineStr">
         <is>
           <t>95618</t>
         </is>
       </c>
-      <c r="HF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG7" t="n">
+      <c r="HI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ7" t="n">
         <v>2</v>
       </c>
-      <c r="HH7" t="inlineStr">
+      <c r="HK7" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/RKDA.png</t>
         </is>
       </c>
-      <c r="HI7" t="inlineStr">
+      <c r="HL7" t="inlineStr">
         <is>
           <t>2015-05-15</t>
         </is>
       </c>
-      <c r="HJ7" t="inlineStr">
+      <c r="HM7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HK7" t="inlineStr">
+      <c r="HN7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HL7" t="inlineStr">
+      <c r="HO7" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HM7" t="inlineStr">
+      <c r="HP7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN7" t="n">
+      <c r="HQ7" t="n">
         <v>-34000</v>
       </c>
-      <c r="HO7" t="n">
+      <c r="HR7" t="n">
         <v>-54000</v>
       </c>
-      <c r="HP7" t="n">
+      <c r="HS7" t="n">
         <v>8000000</v>
       </c>
-      <c r="HQ7" t="n">
+      <c r="HT7" t="n">
         <v>1115000</v>
       </c>
-      <c r="HR7" t="n">
+      <c r="HU7" t="n">
         <v>-63000</v>
       </c>
-      <c r="HS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT7" t="n">
+      <c r="HV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW7" t="n">
         <v>2313000</v>
       </c>
-      <c r="HU7" t="n">
+      <c r="HX7" t="n">
         <v>1405000</v>
       </c>
-      <c r="HV7" t="n">
+      <c r="HY7" t="n">
         <v>3705000</v>
       </c>
-      <c r="HW7" t="n">
+      <c r="HZ7" t="n">
         <v>1</v>
       </c>
-      <c r="HX7" t="n">
+      <c r="IA7" t="n">
         <v>2969014</v>
       </c>
-      <c r="HY7" t="n">
+      <c r="IB7" t="n">
         <v>-3979014</v>
       </c>
-      <c r="HZ7" t="n">
+      <c r="IC7" t="n">
         <v>2</v>
       </c>
-      <c r="IA7" t="n">
+      <c r="ID7" t="n">
         <v>-21670014</v>
       </c>
-      <c r="IB7" t="n">
+      <c r="IE7" t="n">
         <v>-1</v>
       </c>
-      <c r="IC7" t="n">
+      <c r="IF7" t="n">
         <v>37345000</v>
       </c>
-      <c r="ID7" t="n">
+      <c r="IG7" t="n">
         <v>2</v>
       </c>
-      <c r="IE7" t="n">
+      <c r="IH7" t="n">
         <v>2.16</v>
+      </c>
+      <c r="II7" t="n">
+        <v>13536332</v>
       </c>
     </row>
     <row r="8">
@@ -6422,124 +6514,124 @@
         <v>1.37</v>
       </c>
       <c r="U8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="V8" t="n">
         <v>-1</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>4.02</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>846913</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>33895456</v>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>8798</v>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>2021-03-15</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>2021-03-15 16:37:50</t>
         </is>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>2020</v>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>FY</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>22550000</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>11912000</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>10638000</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
       <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
         <v>1177000</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>13600000</v>
       </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
       <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
         <v>13600000</v>
       </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
       <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>14777000</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AR8" t="n">
         <v>26689000</v>
       </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
       <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
         <v>4000</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AU8" t="n">
         <v>848000</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AV8" t="n">
         <v>-3369000</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AW8" t="n">
         <v>-0</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AX8" t="n">
         <v>-4139000</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AY8" t="n">
         <v>-0</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AZ8" t="n">
         <v>82000</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BA8" t="n">
         <v>-4221000</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
         <v>-0</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>57000</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BD8" t="n">
         <v>-4278000</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>-0</v>
@@ -6548,180 +6640,180 @@
         <v>-0</v>
       </c>
       <c r="BG8" t="n">
-        <v>24691000</v>
+        <v>-0</v>
       </c>
       <c r="BH8" t="n">
         <v>24691000</v>
       </c>
-      <c r="BI8" t="inlineStr">
+      <c r="BI8" t="n">
+        <v>24691000</v>
+      </c>
+      <c r="BJ8" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/846913/000143774921006048/0001437749-21-006048-index.htm</t>
         </is>
       </c>
-      <c r="BJ8" t="inlineStr">
+      <c r="BK8" t="inlineStr">
         <is>
           <t>https://www.sec.gov/Archives/edgar/data/846913/000143774921006048/ftek20201231_10k.htm</t>
         </is>
       </c>
-      <c r="BK8" t="n">
+      <c r="BL8" t="n">
         <v>10640000</v>
       </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
       <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
         <v>10640000</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BO8" t="n">
         <v>6548000</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BP8" t="n">
         <v>97000</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BQ8" t="n">
         <v>3788000</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BR8" t="n">
         <v>21073000</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BS8" t="n">
         <v>5614000</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BT8" t="n">
         <v>2116000</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BU8" t="n">
         <v>553000</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BV8" t="n">
         <v>2669000</v>
       </c>
-      <c r="BV8" t="n">
-        <v>0</v>
-      </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
         <v>732000</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BZ8" t="n">
         <v>9015000</v>
       </c>
-      <c r="BZ8" t="n">
-        <v>0</v>
-      </c>
       <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
         <v>30088000</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CC8" t="n">
         <v>2353000</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CD8" t="n">
         <v>149000</v>
       </c>
-      <c r="CD8" t="n">
-        <v>0</v>
-      </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>134</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CG8" t="n">
         <v>3028866</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CH8" t="n">
         <v>5531000</v>
       </c>
-      <c r="CH8" t="n">
+      <c r="CI8" t="n">
         <v>1556000</v>
       </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
       <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
         <v>134000</v>
       </c>
-      <c r="CK8" t="n">
+      <c r="CL8" t="n">
         <v>546000</v>
       </c>
-      <c r="CL8" t="n">
+      <c r="CM8" t="n">
         <v>2236000</v>
       </c>
-      <c r="CM8" t="n">
-        <v>0</v>
-      </c>
       <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
         <v>386000</v>
       </c>
-      <c r="CO8" t="n">
+      <c r="CP8" t="n">
         <v>7767000</v>
       </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
       <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
         <v>262000</v>
       </c>
-      <c r="CR8" t="n">
+      <c r="CS8" t="n">
         <v>-114603000</v>
       </c>
-      <c r="CS8" t="n">
+      <c r="CT8" t="n">
         <v>-1370000</v>
       </c>
-      <c r="CT8" t="n">
+      <c r="CU8" t="n">
         <v>138032000</v>
       </c>
-      <c r="CU8" t="n">
+      <c r="CV8" t="n">
         <v>22321000</v>
       </c>
-      <c r="CV8" t="n">
-        <v>0</v>
-      </c>
       <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
         <v>22321000</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>30088000</v>
       </c>
       <c r="CY8" t="n">
         <v>30088000</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0</v>
+        <v>30088000</v>
       </c>
       <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="n">
         <v>1705000</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DC8" t="n">
         <v>-8935000</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DD8" t="n">
         <v>-38000</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DE8" t="n">
         <v>290000</v>
       </c>
-      <c r="DE8" t="n">
+      <c r="DF8" t="n">
         <v>22752000</v>
       </c>
-      <c r="DF8" t="n">
+      <c r="DG8" t="n">
         <v>1095000</v>
       </c>
-      <c r="DG8" t="n">
+      <c r="DH8" t="n">
         <v>198000</v>
       </c>
-      <c r="DH8" t="n">
+      <c r="DI8" t="n">
         <v>38294000</v>
       </c>
-      <c r="DI8" t="n">
+      <c r="DJ8" t="n">
         <v>-22281000</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DK8" t="n">
         <v>-2707000</v>
       </c>
-      <c r="DK8" t="n">
-        <v>0</v>
-      </c>
       <c r="DL8" t="n">
         <v>0</v>
       </c>
@@ -6732,17 +6824,17 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-247000</v>
+        <v>0</v>
       </c>
       <c r="DP8" t="n">
         <v>-247000</v>
       </c>
       <c r="DQ8" t="n">
+        <v>-247000</v>
+      </c>
+      <c r="DR8" t="n">
         <v>-570</v>
       </c>
-      <c r="DR8" t="n">
-        <v>0</v>
-      </c>
       <c r="DS8" t="n">
         <v>0</v>
       </c>
@@ -6750,54 +6842,54 @@
         <v>0</v>
       </c>
       <c r="DU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" t="n">
         <v>1282570</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>1282000</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>777000</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>-895000</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>12606000</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>13501000</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>-2707000</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>-247000</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>-2954000</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>41975800</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>26306200</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>7084800</v>
       </c>
-      <c r="EG8" t="inlineStr">
+      <c r="EH8" t="inlineStr">
         <is>
           <t>Fuel Tech, Inc.</t>
         </is>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>4</v>
       </c>
-      <c r="EI8" t="n">
-        <v>0</v>
-      </c>
       <c r="EJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK8" t="n">
         <v>1</v>
@@ -6806,337 +6898,349 @@
         <v>1</v>
       </c>
       <c r="EM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN8" t="n">
         <v>2</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>164467</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>522135</v>
       </c>
-      <c r="EP8" t="inlineStr">
+      <c r="EQ8" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
-      </c>
-      <c r="EQ8" t="n">
-        <v>1</v>
       </c>
       <c r="ER8" t="n">
         <v>1</v>
       </c>
       <c r="ES8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" t="n">
         <v>30263800</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EV8" t="n">
         <v>1643525061</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EW8" t="n">
         <v>30467000</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="EX8" t="n">
         <v>18318000</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="EY8" t="n">
         <v>21610000</v>
       </c>
-      <c r="EY8" t="n">
-        <v>0</v>
-      </c>
       <c r="EZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" t="n">
         <v>4912000</v>
       </c>
-      <c r="FA8" t="n">
+      <c r="FB8" t="n">
         <v>26175000</v>
       </c>
-      <c r="FB8" t="n">
+      <c r="FC8" t="n">
         <v>-9934000</v>
       </c>
-      <c r="FC8" t="n">
+      <c r="FD8" t="n">
         <v>-3387000</v>
       </c>
-      <c r="FD8" t="n">
+      <c r="FE8" t="n">
         <v>56535000</v>
       </c>
-      <c r="FE8" t="n">
+      <c r="FF8" t="n">
         <v>19637000</v>
       </c>
-      <c r="FF8" t="n">
+      <c r="FG8" t="n">
         <v>40717000</v>
       </c>
-      <c r="FG8" t="n">
-        <v>0</v>
-      </c>
       <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
         <v>17161000</v>
       </c>
-      <c r="FI8" t="n">
+      <c r="FJ8" t="n">
         <v>34052000</v>
       </c>
-      <c r="FJ8" t="n">
+      <c r="FK8" t="n">
         <v>7559000</v>
       </c>
-      <c r="FK8" t="n">
+      <c r="FL8" t="n">
         <v>3141000</v>
       </c>
-      <c r="FL8" t="n">
+      <c r="FM8" t="n">
         <v>42306000</v>
       </c>
-      <c r="FM8" t="n">
+      <c r="FN8" t="n">
         <v>1246000</v>
       </c>
-      <c r="FN8" t="n">
+      <c r="FO8" t="n">
         <v>4012000</v>
       </c>
-      <c r="FO8" t="n">
+      <c r="FP8" t="n">
         <v>46444000</v>
       </c>
-      <c r="FP8" t="n">
+      <c r="FQ8" t="n">
+        <v>275000</v>
+      </c>
+      <c r="FR8" t="n">
         <v>-34886000</v>
       </c>
-      <c r="FQ8" t="n">
+      <c r="FS8" t="n">
         <v>343000</v>
       </c>
-      <c r="FR8" t="n">
+      <c r="FT8" t="n">
         <v>5218000</v>
       </c>
-      <c r="FS8" t="n">
+      <c r="FU8" t="n">
         <v>3272000</v>
       </c>
-      <c r="FT8" t="n">
+      <c r="FV8" t="n">
         <v>41444000</v>
       </c>
-      <c r="FU8" t="n">
+      <c r="FW8" t="n">
         <v>694000</v>
       </c>
-      <c r="FV8" t="n">
+      <c r="FX8" t="n">
         <v>3552000</v>
       </c>
-      <c r="FW8" t="n">
+      <c r="FY8" t="n">
         <v>45898000</v>
       </c>
-      <c r="FX8" t="n">
+      <c r="FZ8" t="n">
+        <v>303000</v>
+      </c>
+      <c r="GA8" t="n">
         <v>-35891000</v>
       </c>
-      <c r="FY8" t="n">
+      <c r="GB8" t="n">
         <v>454000</v>
       </c>
-      <c r="FZ8" t="n">
+      <c r="GC8" t="n">
         <v>5033000</v>
       </c>
-      <c r="GA8" t="n">
+      <c r="GD8" t="n">
         <v>3515000</v>
       </c>
-      <c r="GB8" t="n">
+      <c r="GE8" t="n">
         <v>42389000</v>
       </c>
-      <c r="GC8" t="n">
+      <c r="GF8" t="n">
         <v>787000</v>
       </c>
-      <c r="GD8" t="n">
+      <c r="GG8" t="n">
         <v>3893000</v>
       </c>
-      <c r="GE8" t="n">
+      <c r="GH8" t="n">
         <v>46523000</v>
       </c>
-      <c r="GF8" t="n">
+      <c r="GI8" t="n">
         <v>-35369000</v>
       </c>
-      <c r="GG8" t="n">
+      <c r="GJ8" t="n">
         <v>-225000</v>
       </c>
-      <c r="GH8" t="n">
+      <c r="GK8" t="n">
         <v>24026000</v>
       </c>
-      <c r="GI8" t="n">
+      <c r="GL8" t="n">
         <v>1156000</v>
       </c>
-      <c r="GJ8" t="n">
+      <c r="GM8" t="n">
         <v>-625000</v>
       </c>
-      <c r="GK8" t="n">
+      <c r="GN8" t="n">
         <v>1</v>
       </c>
-      <c r="GL8" t="n">
+      <c r="GO8" t="n">
         <v>6</v>
       </c>
-      <c r="GM8" t="n">
+      <c r="GP8" t="n">
         <v>585075</v>
       </c>
-      <c r="GN8" t="n">
+      <c r="GQ8" t="n">
         <v>34198092</v>
       </c>
-      <c r="GO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP8" t="inlineStr">
+      <c r="GR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" t="inlineStr">
         <is>
           <t>1.04-6.1</t>
         </is>
       </c>
-      <c r="GQ8" t="n">
+      <c r="GT8" t="n">
         <v>-0</v>
       </c>
-      <c r="GR8" t="inlineStr">
+      <c r="GU8" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GS8" t="inlineStr">
+      <c r="GV8" t="inlineStr">
         <is>
           <t>US3595231073</t>
         </is>
       </c>
-      <c r="GT8" t="inlineStr">
+      <c r="GW8" t="inlineStr">
         <is>
           <t>359523107</t>
         </is>
       </c>
-      <c r="GU8" t="inlineStr">
+      <c r="GX8" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="GV8" t="inlineStr">
+      <c r="GY8" t="inlineStr">
         <is>
           <t>https://www.ftek.com</t>
         </is>
       </c>
-      <c r="GW8" t="inlineStr">
+      <c r="GZ8" t="inlineStr">
         <is>
           <t>Fuel Tech, Inc. provides boiler optimization, efficiency improvement, and air pollution reduction and control solutions to utility and industrial customers worldwide. It operates through two segments, Air Pollution Control Technology and FUEL CHEM Technology. The Air Pollution Control Technology segment offers technologies to reduce nitrogen oxide (NOx) emissions in flue gas from boilers, incinerators, furnaces, and other stationary combustion sources by low and ultra-low NOx burners; over-fire air systems; NOxOUT and HERT selective non-catalytic reduction systems; advanced selective catalytic reduction systems comprising ULNB, OFA, and SNCR components, as well as downsized SCR catalyst, ammonia injection grid, and graduated straightening grid systems; NOxOUT CASCADE and NOxOUT-SCR processes; ULTRA technology; and flue gas conditioning systems. The FUEL CHEM Technology segment provides programs to improve the efficiency, reliability, fuel flexibility, boiler heat rate, and environmental status of combustion units by controlling slagging, fouling, corrosion, opacity, and acid plume, as well as the formation of sulfur trioxide, ammonium bisulfate, particulate matter, sulfur dioxide, and carbon dioxide through the addition of chemicals into the furnace using TIFI targeted in-furnace injection technology. This segment offers its FUEL CHEM program for plants operating in the electric utility, industrial, pulp and paper, waste-to-energy, and university, and district heating markets; and the owners of boilers, furnaces, and other combustion units. The company was incorporated in 1987 and is headquartered in Warrenville, Illinois.</t>
         </is>
       </c>
-      <c r="GX8" t="inlineStr">
+      <c r="HA8" t="inlineStr">
         <is>
           <t>Mr. Vincent Arnone</t>
         </is>
       </c>
-      <c r="GY8" t="inlineStr">
+      <c r="HB8" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
       </c>
-      <c r="GZ8" t="n">
+      <c r="HC8" t="n">
         <v>73</v>
       </c>
-      <c r="HA8" t="inlineStr">
+      <c r="HD8" t="inlineStr">
         <is>
           <t>16308454433</t>
         </is>
       </c>
-      <c r="HB8" t="inlineStr">
+      <c r="HE8" t="inlineStr">
         <is>
           <t>27601 Bella Vista Pkwy</t>
         </is>
       </c>
-      <c r="HC8" t="inlineStr">
+      <c r="HF8" t="inlineStr">
         <is>
           <t>Warrenville</t>
         </is>
       </c>
-      <c r="HD8" t="inlineStr">
+      <c r="HG8" t="inlineStr">
         <is>
           <t>ILLINOIS</t>
         </is>
       </c>
-      <c r="HE8" t="inlineStr">
+      <c r="HH8" t="inlineStr">
         <is>
           <t>60555-1617</t>
         </is>
       </c>
-      <c r="HF8" t="n">
+      <c r="HI8" t="n">
         <v>-3</v>
       </c>
-      <c r="HG8" t="n">
+      <c r="HJ8" t="n">
         <v>2</v>
       </c>
-      <c r="HH8" t="inlineStr">
+      <c r="HK8" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/FTEK.png</t>
         </is>
       </c>
-      <c r="HI8" t="inlineStr">
+      <c r="HL8" t="inlineStr">
         <is>
           <t>1993-09-07</t>
         </is>
       </c>
-      <c r="HJ8" t="inlineStr">
+      <c r="HM8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HK8" t="inlineStr">
+      <c r="HN8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HL8" t="inlineStr">
+      <c r="HO8" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HM8" t="inlineStr">
+      <c r="HP8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN8" t="n">
+      <c r="HQ8" t="n">
         <v>134</v>
       </c>
-      <c r="HO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP8" t="n">
+      <c r="HR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS8" t="n">
         <v>22550134</v>
       </c>
-      <c r="HQ8" t="n">
+      <c r="HT8" t="n">
         <v>30467000</v>
       </c>
-      <c r="HR8" t="n">
+      <c r="HU8" t="n">
         <v>552000</v>
       </c>
-      <c r="HS8" t="n">
+      <c r="HV8" t="n">
         <v>-93000</v>
       </c>
-      <c r="HT8" t="n">
+      <c r="HW8" t="n">
         <v>8111000</v>
       </c>
-      <c r="HU8" t="n">
+      <c r="HX8" t="n">
         <v>5125000</v>
       </c>
-      <c r="HV8" t="n">
+      <c r="HY8" t="n">
         <v>1476000</v>
       </c>
-      <c r="HW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX8" t="n">
+      <c r="HZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA8" t="n">
         <v>249124</v>
       </c>
-      <c r="HY8" t="n">
+      <c r="IB8" t="n">
         <v>-874124</v>
       </c>
-      <c r="HZ8" t="n">
+      <c r="IC8" t="n">
         <v>2</v>
       </c>
-      <c r="IA8" t="n">
+      <c r="ID8" t="n">
         <v>281876</v>
       </c>
-      <c r="IB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC8" t="n">
+      <c r="IE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF8" t="n">
         <v>38294000</v>
       </c>
-      <c r="ID8" t="n">
+      <c r="IG8" t="n">
         <v>1</v>
       </c>
-      <c r="IE8" t="n">
+      <c r="IH8" t="n">
         <v>1.13</v>
+      </c>
+      <c r="II8" t="n">
+        <v>33620456</v>
       </c>
     </row>
   </sheetData>

--- a/6_notes.xlsx
+++ b/6_notes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:II8"/>
+  <dimension ref="A1:II9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7243,6 +7243,805 @@
         <v>33620456</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ATGE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Education &amp; Training Services</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adtalem Global Education Inc.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="J9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K9" t="n">
+        <v>87</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="O9" t="n">
+        <v>94.51000000000001</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-14.93</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="S9" t="n">
+        <v>78.47</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="X9" t="n">
+        <v>730464</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1417298688</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="n">
+        <v>12585</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>2021-08-19</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>2021-08-19</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>FY</t>
+        </is>
+      </c>
+      <c r="AH9" t="n">
+        <v>1112380000</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>489233000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>623147000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>420267000</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>420267000</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>909500000</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>4094000</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>41365000</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>99051000</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>242573000</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>202880000</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>76030000</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>126850000</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>25248000</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>76909000</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>51322000</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>51645000</v>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/730464/000155837021011957/0001558370-21-011957-index.htm</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/730464/000155837021011957/atge-20210630x10k.htm</t>
+        </is>
+      </c>
+      <c r="BL9" t="n">
+        <v>494613000</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>494613000</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>67996000</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>952344000</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>1514953000</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>466180000</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>686374000</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>276249000</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>962623000</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>22479000</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>87601000</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>1538883000</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>3053836000</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>56071000</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>58329000</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>100697000</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>193710000</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>408807000</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>1235566000</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>26991000</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>81402000</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>1343959000</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>223184000</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>1752766000</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>811000</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>2005105000</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>-7365000</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>-697481000</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>1301070000</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>1301070000</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>3053836000</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>3053836000</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>1293895000</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>799282000</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>1519000</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>13875000</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>-7478000</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>13259000</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>8530000</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>-6638000</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>8757000</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>192199000</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>-10745000</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>2721000</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>-48664000</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>-56688000</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>-3000000</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>-100000000</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>779466000</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>676466000</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>534000</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>812511000</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>1313616000</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>501105000</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>192199000</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>-48664000</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>143535000</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>1289015800</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>642125000</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>433876000</v>
+      </c>
+      <c r="EH9" t="inlineStr">
+        <is>
+          <t>Adtalem Global Education Inc.</t>
+        </is>
+      </c>
+      <c r="EI9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>28</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>30</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>35</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>274479</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>399448</v>
+      </c>
+      <c r="EQ9" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="ER9" t="n">
+        <v>29</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>29</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>49764701</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>1643525203</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>1052001000</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>395838000</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>692766000</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>91589000</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>345983000</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>1310421000</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>16275000</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>107692000</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>1239687000</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>400411000</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>504700000</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>99790000</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>311631000</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>1391530000</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>348327000</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>159479000</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>709257000</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>266654000</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>635695000</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>1265181000</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>1828317000</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>1468222000</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>40864000</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>280374000</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>107868000</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>1514953000</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>100697000</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>408807000</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>1301070000</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>1293895000</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>799282000</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>48036000</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>280654000</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>108500000</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>1497278000</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>116670000</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>382205000</v>
+      </c>
+      <c r="GH9" t="n">
+        <v>1306224000</v>
+      </c>
+      <c r="GI9" t="n">
+        <v>792115000</v>
+      </c>
+      <c r="GJ9" t="n">
+        <v>80770000</v>
+      </c>
+      <c r="GK9" t="n">
+        <v>1192466000</v>
+      </c>
+      <c r="GL9" t="n">
+        <v>153136000</v>
+      </c>
+      <c r="GM9" t="n">
+        <v>-41545000</v>
+      </c>
+      <c r="GN9" t="n">
+        <v>31</v>
+      </c>
+      <c r="GO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP9" t="n">
+        <v>399032</v>
+      </c>
+      <c r="GQ9" t="n">
+        <v>1526532096</v>
+      </c>
+      <c r="GR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS9" t="inlineStr">
+        <is>
+          <t>26.66-43.85</t>
+        </is>
+      </c>
+      <c r="GT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="GV9" t="inlineStr">
+        <is>
+          <t>US00737L1035</t>
+        </is>
+      </c>
+      <c r="GW9" t="inlineStr">
+        <is>
+          <t>00737L103</t>
+        </is>
+      </c>
+      <c r="GX9" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="GY9" t="inlineStr">
+        <is>
+          <t>https://www.adtalem.com</t>
+        </is>
+      </c>
+      <c r="GZ9" t="inlineStr">
+        <is>
+          <t>Adtalem Global Education Inc. provides workforce solutions worldwide. It operates through two segments, Medical and Healthcare; and Financial Services. The Medical and Healthcare segment offers degree and non-degree programs in the medical and healthcare postsecondary education industry. This segment operates Chamberlain University, American University of the Caribbean School of Medicine, Ross University School of Medicine, and Ross University School of Veterinary Medicine. The Financial Services segment provides test preparation, certifications, conferences, seminars, memberships, and subscriptions to business professionals in the areas of accounting, anti-money laundering, banking, and mortgage lending. It operates Association of Certified Anti-Money Laundering Specialists, Becker Professional Education, OnCourse Learning, and EduPristine. The company was formerly known as DeVry Education Group Inc. and changed its name to Adtalem Global Education Inc. in May 2017. Adtalem Global Education Inc. was incorporated in 1987 and is based in Chicago, Illinois.</t>
+        </is>
+      </c>
+      <c r="HA9" t="inlineStr">
+        <is>
+          <t>Ms. Lisa Wardell</t>
+        </is>
+      </c>
+      <c r="HB9" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="HC9" t="n">
+        <v>4426</v>
+      </c>
+      <c r="HD9" t="inlineStr">
+        <is>
+          <t>16305157700</t>
+        </is>
+      </c>
+      <c r="HE9" t="inlineStr">
+        <is>
+          <t>500 W Monroe St Fl 28</t>
+        </is>
+      </c>
+      <c r="HF9" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="HG9" t="inlineStr">
+        <is>
+          <t>ILLINOIS</t>
+        </is>
+      </c>
+      <c r="HH9" t="inlineStr">
+        <is>
+          <t>60661</t>
+        </is>
+      </c>
+      <c r="HI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>40</v>
+      </c>
+      <c r="HK9" t="inlineStr">
+        <is>
+          <t>https://fmpcloud.io/image-stock/ATGE.png</t>
+        </is>
+      </c>
+      <c r="HL9" t="inlineStr">
+        <is>
+          <t>1995-11-14</t>
+        </is>
+      </c>
+      <c r="HM9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="HN9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="HO9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="HP9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="HQ9" t="n">
+        <v>9108000</v>
+      </c>
+      <c r="HR9" t="n">
+        <v>-8201000</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>1121488000</v>
+      </c>
+      <c r="HT9" t="n">
+        <v>1043800000</v>
+      </c>
+      <c r="HU9" t="n">
+        <v>165957000</v>
+      </c>
+      <c r="HV9" t="n">
+        <v>-15973000</v>
+      </c>
+      <c r="HW9" t="n">
+        <v>514284000</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>264401000</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>80086000</v>
+      </c>
+      <c r="HZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA9" t="n">
+        <v>26956530</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>-68501530</v>
+      </c>
+      <c r="IC9" t="n">
+        <v>25</v>
+      </c>
+      <c r="ID9" t="n">
+        <v>84634470</v>
+      </c>
+      <c r="IE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF9" t="n">
+        <v>73562000</v>
+      </c>
+      <c r="IG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="II9" t="n">
+        <v>-411018312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/6_notes.xlsx
+++ b/6_notes.xlsx
@@ -1720,7 +1720,7 @@
         <v>0.71</v>
       </c>
       <c r="U2" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="V2" t="n">
         <v>4</v>
@@ -2446,7 +2446,7 @@
         <v>0.59</v>
       </c>
       <c r="II2" t="n">
-        <v>5650027</v>
+        <v>6386027</v>
       </c>
     </row>
     <row r="3">
@@ -2519,7 +2519,7 @@
         <v>0.68</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="V3" t="n">
         <v>-1</v>
@@ -3245,7 +3245,7 @@
         <v>0.64</v>
       </c>
       <c r="II3" t="n">
-        <v>21942492</v>
+        <v>25643306</v>
       </c>
     </row>
     <row r="4">
@@ -3318,7 +3318,7 @@
         <v>0.73</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
         <v>-52</v>
@@ -4044,7 +4044,7 @@
         <v>0.76</v>
       </c>
       <c r="II4" t="n">
-        <v>399631328</v>
+        <v>406583328</v>
       </c>
     </row>
     <row r="5">
@@ -4117,7 +4117,7 @@
         <v>1.35</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="V5" t="n">
         <v>-5</v>
@@ -4843,7 +4843,7 @@
         <v>0.59</v>
       </c>
       <c r="II5" t="n">
-        <v>36852755</v>
+        <v>51585481</v>
       </c>
     </row>
     <row r="6">
@@ -4916,7 +4916,7 @@
         <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.04</v>
+        <v>0.89</v>
       </c>
       <c r="V6" t="n">
         <v>-5</v>
@@ -5642,7 +5642,7 @@
         <v>1.97</v>
       </c>
       <c r="II6" t="n">
-        <v>-915387</v>
+        <v>22150914</v>
       </c>
     </row>
     <row r="7">
@@ -5715,7 +5715,7 @@
         <v>2.32</v>
       </c>
       <c r="U7" t="n">
-        <v>0.78</v>
+        <v>1.59</v>
       </c>
       <c r="V7" t="n">
         <v>-1</v>
@@ -6441,7 +6441,7 @@
         <v>2.16</v>
       </c>
       <c r="II7" t="n">
-        <v>13536332</v>
+        <v>27578332</v>
       </c>
     </row>
     <row r="8">
@@ -6514,7 +6514,7 @@
         <v>1.37</v>
       </c>
       <c r="U8" t="n">
-        <v>0.99</v>
+        <v>1.31</v>
       </c>
       <c r="V8" t="n">
         <v>-1</v>
@@ -7240,7 +7240,7 @@
         <v>1.13</v>
       </c>
       <c r="II8" t="n">
-        <v>33620456</v>
+        <v>44260456</v>
       </c>
     </row>
     <row r="9">
@@ -7313,7 +7313,7 @@
         <v>0.89</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.29</v>
+        <v>0.06</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -8039,7 +8039,7 @@
         <v>0.05</v>
       </c>
       <c r="II9" t="n">
-        <v>-411018312</v>
+        <v>83594688</v>
       </c>
     </row>
   </sheetData>

--- a/6_notes.xlsx
+++ b/6_notes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:II9"/>
+  <dimension ref="A1:IM9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,445 +1206,465 @@
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
+          <t>cashAndCashEquivalents_minus_one_y</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
           <t>totalCurrentAssets_minus_one_y</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>deferredRevenue_minus_one_y</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentLiabilities_minus_one_y</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>totalStockholdersEquity_minus_one_y</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>netDebt_minus_one_y</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>ncfo_minus_one_y</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>revenue_minus_two_y</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>operatingExpenses_minus_two_y</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>cashAndCashEquivalents_minus_two_y</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentAssets_minus_two_y</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>deferredRevenue_minus_two_y</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentLiabilities_minus_two_y</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>totalStockholdersEquity_minus_two_y</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>revenue_last_q</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>operatingExpenses_last_q</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>cashAndCashEquivalents_last_q</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentAssets_last_q</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>deferredRevenue_last_q</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentLiabilities_last_q</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>totalStockholdersEquity_last_q</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>totalDebt_last_q</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>netDebt_last_q</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>netCashProvidedByOperatingActivites_last_q</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>revenue_minus_one_q</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>operatingExpenses_minus_one_q</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>cashAndCashEquivalents_minus_one_q</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentAssets_minus_one_q</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>deferredRevenue_minus_one_q</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentLiabilities_minus_one_q</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>totalStockholdersEquity_minus_one_q</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>totalDebt_minus_one_q</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>netDebt_minus_one_q</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>ncfo_minus_one_q</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>revenue_minus_two_q</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>operatingExpenses_minus_two_q</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentAssets_minus_two_q</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>deferredRevenue_minus_two_q</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>totalCurrentLiabilities_minus_two_q</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>totalStockholdersEquity_minus_two_q</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>netDebt_minus_two_q</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>ncfo_minus_two_q</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>revenue_TTM</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>ncfo_TTM</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>capex_TTM</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>beta</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>volAvg</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>mktCap</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>lastDiv</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>range</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>changes</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>currency</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>isin</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>cusip</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>exchangeShortName</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>website</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>ceo</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>sector</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>fullTimeEmployees</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>phone</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>state</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>zip</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>dcfDiff</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>dcf</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>image</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>ipoDate</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>defaultImage</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>isEtf</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>isActivelyTrading</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>isAdr</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>booking_y</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>booking_minus_one_y</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>rev_plus_booking_y</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>rev_plus_booking_minus_one_y</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>booking_q</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>booking_minus_one_q</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>rev_plus_booking_q</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>rev_plus_booking_minus_one_q</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>Sales_absolute_increase</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>maint_capex_ratio</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>growth_capex</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>capex_more_correct</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>NAV/S</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>OwnEa</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>OwnEa/S</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>WC/S</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>WC/S/p</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>EV_last_q</t>
         </is>
@@ -1720,7 +1740,7 @@
         <v>0.71</v>
       </c>
       <c r="U2" t="n">
-        <v>0.85</v>
+        <v>1.16</v>
       </c>
       <c r="V2" t="n">
         <v>4</v>
@@ -2142,311 +2162,323 @@
         <v>5021000</v>
       </c>
       <c r="EY2" t="n">
+        <v>657000</v>
+      </c>
+      <c r="EZ2" t="n">
         <v>7059000</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>159000</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>3372000</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FC2" t="n">
         <v>4300000</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FD2" t="n">
         <v>-657000</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FE2" t="n">
         <v>-2359000</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FF2" t="n">
         <v>11148000</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FG2" t="n">
         <v>5011000</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FH2" t="n">
+        <v>878000</v>
+      </c>
+      <c r="FI2" t="n">
         <v>5534000</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FJ2" t="n">
         <v>2132000</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FK2" t="n">
         <v>3913000</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FL2" t="n">
         <v>1815000</v>
       </c>
-      <c r="FK2" t="n">
+      <c r="FM2" t="n">
         <v>3567000</v>
       </c>
-      <c r="FL2" t="n">
+      <c r="FN2" t="n">
         <v>1283000</v>
       </c>
-      <c r="FM2" t="n">
+      <c r="FO2" t="n">
+        <v>648000</v>
+      </c>
+      <c r="FP2" t="n">
         <v>7751000</v>
       </c>
-      <c r="FN2" t="n">
+      <c r="FQ2" t="n">
         <v>1000</v>
       </c>
-      <c r="FO2" t="n">
+      <c r="FR2" t="n">
         <v>3309000</v>
       </c>
-      <c r="FP2" t="n">
+      <c r="FS2" t="n">
         <v>5343000</v>
       </c>
-      <c r="FQ2" t="n">
+      <c r="FT2" t="n">
         <v>1871000</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FU2" t="n">
         <v>1223000</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="FV2" t="n">
         <v>-930000</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="FW2" t="n">
         <v>2050000</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="FX2" t="n">
         <v>1500000</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="FY2" t="n">
+        <v>1030000</v>
+      </c>
+      <c r="FZ2" t="n">
         <v>6832000</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="GA2" t="n">
         <v>103000</v>
       </c>
-      <c r="FX2" t="n">
+      <c r="GB2" t="n">
         <v>4113000</v>
       </c>
-      <c r="FY2" t="n">
+      <c r="GC2" t="n">
         <v>3527000</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GD2" t="n">
         <v>1321000</v>
       </c>
-      <c r="GA2" t="n">
+      <c r="GE2" t="n">
         <v>291000</v>
       </c>
-      <c r="GB2" t="n">
+      <c r="GF2" t="n">
         <v>-699000</v>
       </c>
-      <c r="GC2" t="n">
+      <c r="GG2" t="n">
         <v>2728000</v>
       </c>
-      <c r="GD2" t="n">
+      <c r="GH2" t="n">
         <v>1646000</v>
       </c>
-      <c r="GE2" t="n">
+      <c r="GI2" t="n">
         <v>6358000</v>
       </c>
-      <c r="GF2" t="n">
+      <c r="GJ2" t="n">
         <v>7000</v>
       </c>
-      <c r="GG2" t="n">
+      <c r="GK2" t="n">
         <v>2904000</v>
       </c>
-      <c r="GH2" t="n">
+      <c r="GL2" t="n">
         <v>4247000</v>
       </c>
-      <c r="GI2" t="n">
+      <c r="GM2" t="n">
         <v>1082000</v>
       </c>
-      <c r="GJ2" t="n">
+      <c r="GN2" t="n">
         <v>-974000</v>
       </c>
-      <c r="GK2" t="n">
+      <c r="GO2" t="n">
         <v>12429000</v>
       </c>
-      <c r="GL2" t="n">
+      <c r="GP2" t="n">
         <v>-1094000</v>
       </c>
-      <c r="GM2" t="n">
+      <c r="GQ2" t="n">
         <v>-63000</v>
       </c>
-      <c r="GN2" t="n">
+      <c r="GR2" t="n">
         <v>3</v>
       </c>
-      <c r="GO2" t="n">
+      <c r="GS2" t="n">
         <v>1</v>
       </c>
-      <c r="GP2" t="n">
+      <c r="GT2" t="n">
         <v>3038</v>
       </c>
-      <c r="GQ2" t="n">
+      <c r="GU2" t="n">
         <v>7521027</v>
       </c>
-      <c r="GR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" t="inlineStr">
+      <c r="GV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" t="inlineStr">
         <is>
           <t>2.75-5.5</t>
         </is>
       </c>
-      <c r="GT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" t="inlineStr">
+      <c r="GX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY2" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GV2" t="inlineStr">
+      <c r="GZ2" t="inlineStr">
         <is>
           <t>US3751751062</t>
         </is>
       </c>
-      <c r="GW2" t="inlineStr">
+      <c r="HA2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="GX2" t="inlineStr">
+      <c r="HB2" t="inlineStr">
         <is>
           <t>MUTUAL_FUND</t>
         </is>
       </c>
-      <c r="GY2" t="inlineStr">
+      <c r="HC2" t="inlineStr">
         <is>
           <t>https://gigatronics.com</t>
         </is>
       </c>
-      <c r="GZ2" t="inlineStr">
+      <c r="HD2" t="inlineStr">
         <is>
           <t>Giga-tronics Incorporated, together with its subsidiaries, develops and manufactures electronics equipment for military test and airborne operational applications in the United States and internationally. It operates through two segments, Microsource and the Giga-tronics Division. The company also develops microwave integrated components, as well as MIC components; Band Reject Filters for RADAR/EW (electronic warfare) for solving interference problems in RADAR/EW applications; self-protection systems for military aircrafts; and RADAR filters for military fighter jet aircraft. In addition, it designs, manufactures, and markets functional test products for testing RADAR/EW equipment of the defense electronics market. The company serves prime defense contractors, the armed services, and research institutes. Giga-tronics Incorporated was incorporated in 1980 and is headquartered in Dublin, California.</t>
         </is>
       </c>
-      <c r="HA2" t="inlineStr">
+      <c r="HE2" t="inlineStr">
         <is>
           <t>Mr. John R. Regazzi</t>
         </is>
       </c>
-      <c r="HB2" t="inlineStr">
+      <c r="HF2" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
       </c>
-      <c r="HC2" t="n">
+      <c r="HG2" t="n">
         <v>42</v>
       </c>
-      <c r="HD2" t="inlineStr">
+      <c r="HH2" t="inlineStr">
         <is>
           <t>925 328 4650</t>
         </is>
       </c>
-      <c r="HE2" t="inlineStr">
+      <c r="HI2" t="inlineStr">
         <is>
           <t>5990 Gleason Drive</t>
         </is>
       </c>
-      <c r="HF2" t="inlineStr">
+      <c r="HJ2" t="inlineStr">
         <is>
           <t>Dublin</t>
         </is>
       </c>
-      <c r="HG2" t="inlineStr">
+      <c r="HK2" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="HH2" t="inlineStr">
+      <c r="HL2" t="inlineStr">
         <is>
           <t>94568</t>
         </is>
       </c>
-      <c r="HI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ2" t="n">
+      <c r="HM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN2" t="n">
         <v>3</v>
       </c>
-      <c r="HK2" t="inlineStr">
+      <c r="HO2" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/GIGA.png</t>
         </is>
       </c>
-      <c r="HL2" t="inlineStr">
+      <c r="HP2" t="inlineStr">
         <is>
           <t>1983-06-20</t>
         </is>
       </c>
-      <c r="HM2" t="inlineStr">
+      <c r="HQ2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN2" t="inlineStr">
+      <c r="HR2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HO2" t="inlineStr">
+      <c r="HS2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HP2" t="inlineStr">
+      <c r="HT2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HQ2" t="n">
+      <c r="HU2" t="n">
         <v>-152000</v>
       </c>
-      <c r="HR2" t="n">
+      <c r="HV2" t="n">
         <v>-1973000</v>
       </c>
-      <c r="HS2" t="n">
+      <c r="HW2" t="n">
         <v>12900000</v>
       </c>
-      <c r="HT2" t="n">
+      <c r="HX2" t="n">
         <v>9795000</v>
       </c>
-      <c r="HU2" t="n">
+      <c r="HY2" t="n">
         <v>-102000</v>
       </c>
-      <c r="HV2" t="n">
+      <c r="HZ2" t="n">
         <v>96000</v>
       </c>
-      <c r="HW2" t="n">
+      <c r="IA2" t="n">
         <v>3465000</v>
       </c>
-      <c r="HX2" t="n">
+      <c r="IB2" t="n">
         <v>2146000</v>
       </c>
-      <c r="HY2" t="n">
+      <c r="IC2" t="n">
         <v>-623000</v>
       </c>
-      <c r="HZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA2" t="n">
+      <c r="ID2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE2" t="n">
         <v>-37741</v>
       </c>
-      <c r="IB2" t="n">
+      <c r="IF2" t="n">
         <v>-25259</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>2</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>-1119259</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-0</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>4442000</v>
       </c>
       <c r="IG2" t="n">
         <v>2</v>
       </c>
       <c r="IH2" t="n">
+        <v>-1119259</v>
+      </c>
+      <c r="II2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>4442000</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL2" t="n">
         <v>0.59</v>
       </c>
-      <c r="II2" t="n">
-        <v>6386027</v>
+      <c r="IM2" t="n">
+        <v>8744027</v>
       </c>
     </row>
     <row r="3">
@@ -2519,7 +2551,7 @@
         <v>0.68</v>
       </c>
       <c r="U3" t="n">
-        <v>1.17</v>
+        <v>0.4</v>
       </c>
       <c r="V3" t="n">
         <v>-1</v>
@@ -2941,311 +2973,323 @@
         <v>6159953</v>
       </c>
       <c r="EY3" t="n">
+        <v>86919</v>
+      </c>
+      <c r="EZ3" t="n">
         <v>940904</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>139447</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FB3" t="n">
         <v>1039219</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FC3" t="n">
         <v>652249</v>
       </c>
-      <c r="FC3" t="n">
+      <c r="FD3" t="n">
         <v>-36919</v>
       </c>
-      <c r="FD3" t="n">
+      <c r="FE3" t="n">
         <v>-5514805</v>
       </c>
-      <c r="FE3" t="n">
+      <c r="FF3" t="n">
         <v>388574</v>
       </c>
-      <c r="FF3" t="n">
+      <c r="FG3" t="n">
         <v>5687271</v>
       </c>
-      <c r="FG3" t="n">
+      <c r="FH3" t="n">
+        <v>1279782</v>
+      </c>
+      <c r="FI3" t="n">
         <v>1747836</v>
       </c>
-      <c r="FH3" t="n">
+      <c r="FJ3" t="n">
         <v>51498</v>
       </c>
-      <c r="FI3" t="n">
+      <c r="FK3" t="n">
         <v>695819</v>
       </c>
-      <c r="FJ3" t="n">
+      <c r="FL3" t="n">
         <v>1735439</v>
       </c>
-      <c r="FK3" t="n">
+      <c r="FM3" t="n">
         <v>700237</v>
       </c>
-      <c r="FL3" t="n">
+      <c r="FN3" t="n">
         <v>3026888</v>
       </c>
-      <c r="FM3" t="n">
+      <c r="FO3" t="n">
+        <v>13064394</v>
+      </c>
+      <c r="FP3" t="n">
         <v>14718356</v>
       </c>
-      <c r="FN3" t="n">
+      <c r="FQ3" t="n">
         <v>85480</v>
       </c>
-      <c r="FO3" t="n">
+      <c r="FR3" t="n">
         <v>741252</v>
       </c>
-      <c r="FP3" t="n">
+      <c r="FS3" t="n">
         <v>14915868</v>
       </c>
-      <c r="FQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" t="n">
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
         <v>-13064394</v>
       </c>
-      <c r="FS3" t="n">
+      <c r="FV3" t="n">
         <v>-1519970</v>
       </c>
-      <c r="FT3" t="n">
+      <c r="FW3" t="n">
         <v>144148</v>
       </c>
-      <c r="FU3" t="n">
+      <c r="FX3" t="n">
         <v>2168651</v>
       </c>
-      <c r="FV3" t="n">
+      <c r="FY3" t="n">
+        <v>14731115</v>
+      </c>
+      <c r="FZ3" t="n">
         <v>16135890</v>
       </c>
-      <c r="FW3" t="n">
+      <c r="GA3" t="n">
         <v>63569</v>
       </c>
-      <c r="FX3" t="n">
+      <c r="GB3" t="n">
         <v>563436</v>
       </c>
-      <c r="FY3" t="n">
+      <c r="GC3" t="n">
         <v>16392156</v>
       </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
+      <c r="GD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" t="n">
         <v>-14731115</v>
       </c>
-      <c r="GB3" t="n">
+      <c r="GF3" t="n">
         <v>-2026034</v>
       </c>
-      <c r="GC3" t="n">
+      <c r="GG3" t="n">
         <v>458140</v>
       </c>
-      <c r="GD3" t="n">
+      <c r="GH3" t="n">
         <v>1781404</v>
       </c>
-      <c r="GE3" t="n">
+      <c r="GI3" t="n">
         <v>18114484</v>
       </c>
-      <c r="GF3" t="n">
+      <c r="GJ3" t="n">
         <v>76417</v>
       </c>
-      <c r="GG3" t="n">
+      <c r="GK3" t="n">
         <v>5480185</v>
       </c>
-      <c r="GH3" t="n">
+      <c r="GL3" t="n">
         <v>13419732</v>
       </c>
-      <c r="GI3" t="n">
+      <c r="GM3" t="n">
         <v>-16843201</v>
       </c>
-      <c r="GJ3" t="n">
+      <c r="GN3" t="n">
         <v>-1240586</v>
       </c>
-      <c r="GK3" t="n">
+      <c r="GO3" t="n">
         <v>1472069</v>
       </c>
-      <c r="GL3" t="n">
+      <c r="GP3" t="n">
         <v>-5919863</v>
       </c>
-      <c r="GM3" t="n">
+      <c r="GQ3" t="n">
         <v>-303679</v>
       </c>
-      <c r="GN3" t="n">
+      <c r="GR3" t="n">
         <v>2</v>
       </c>
-      <c r="GO3" t="n">
+      <c r="GS3" t="n">
         <v>1</v>
       </c>
-      <c r="GP3" t="n">
+      <c r="GT3" t="n">
         <v>126416</v>
       </c>
-      <c r="GQ3" t="n">
+      <c r="GU3" t="n">
         <v>19422780</v>
       </c>
-      <c r="GR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" t="inlineStr">
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="inlineStr">
         <is>
           <t>1.57-9.75</t>
         </is>
       </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="inlineStr">
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GV3" t="inlineStr">
+      <c r="GZ3" t="inlineStr">
         <is>
           <t>US8265985007</t>
         </is>
       </c>
-      <c r="GW3" t="inlineStr">
+      <c r="HA3" t="inlineStr">
         <is>
           <t>826598500</t>
         </is>
       </c>
-      <c r="GX3" t="inlineStr">
+      <c r="HB3" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="GY3" t="inlineStr">
+      <c r="HC3" t="inlineStr">
         <is>
           <t>https://www.sigmalabsinc.com</t>
         </is>
       </c>
-      <c r="GZ3" t="inlineStr">
+      <c r="HD3" t="inlineStr">
         <is>
           <t>Sigma Labs, Inc., a software company, provides in-process quality assurance software to the additive manufacturing industry under the PrintRite3D brand. It also offers PrintRite3D Lite, which has a smaller footprint and is geared towards single-laser machines for research and development, or small production lots; PrintRite3D Pro, for single, dual and quad laser machines and for environments with less than 10 machines; PrintRite3D Enterprise for plant-wide networks; and PrintRite3D for Direct Energy Deposition is based on a laser process in which a laser beam generates a melt pool on a substrate. The company also provides PrintRite3D-enabled engineering consulting services. It serves aerospace, defense, oil and gas, bio-medical, and power generation industries. The company was formerly known as Framewaves Inc. and changed its name to Sigma Labs, Inc. in September 2010. Sigma Labs, Inc. was incorporated in 1985 and is headquartered in Santa Fe, New Mexico.</t>
         </is>
       </c>
-      <c r="HA3" t="inlineStr">
+      <c r="HE3" t="inlineStr">
         <is>
           <t>Mr. John Rice</t>
         </is>
       </c>
-      <c r="HB3" t="inlineStr">
+      <c r="HF3" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
       </c>
-      <c r="HC3" t="n">
+      <c r="HG3" t="n">
         <v>20</v>
       </c>
-      <c r="HD3" t="inlineStr">
+      <c r="HH3" t="inlineStr">
         <is>
           <t>15054382576</t>
         </is>
       </c>
-      <c r="HE3" t="inlineStr">
+      <c r="HI3" t="inlineStr">
         <is>
           <t>3900 Paseo Del Sol</t>
         </is>
       </c>
-      <c r="HF3" t="inlineStr">
+      <c r="HJ3" t="inlineStr">
         <is>
           <t>Santa Fe</t>
         </is>
       </c>
-      <c r="HG3" t="inlineStr">
+      <c r="HK3" t="inlineStr">
         <is>
           <t>NEW MEXICO</t>
         </is>
       </c>
-      <c r="HH3" t="inlineStr">
+      <c r="HL3" t="inlineStr">
         <is>
           <t>87507</t>
         </is>
       </c>
-      <c r="HI3" t="n">
+      <c r="HM3" t="n">
         <v>4</v>
       </c>
-      <c r="HJ3" t="n">
+      <c r="HN3" t="n">
         <v>3</v>
       </c>
-      <c r="HK3" t="inlineStr">
+      <c r="HO3" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/SGLB.png</t>
         </is>
       </c>
-      <c r="HL3" t="inlineStr">
+      <c r="HP3" t="inlineStr">
         <is>
           <t>2002-05-17</t>
         </is>
       </c>
-      <c r="HM3" t="inlineStr">
+      <c r="HQ3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN3" t="inlineStr">
+      <c r="HR3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HO3" t="inlineStr">
+      <c r="HS3" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HP3" t="inlineStr">
+      <c r="HT3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HQ3" t="n">
+      <c r="HU3" t="n">
         <v>-61490</v>
       </c>
-      <c r="HR3" t="n">
+      <c r="HV3" t="n">
         <v>87949</v>
       </c>
-      <c r="HS3" t="n">
+      <c r="HW3" t="n">
         <v>745998</v>
       </c>
-      <c r="HT3" t="n">
+      <c r="HX3" t="n">
         <v>490395</v>
       </c>
-      <c r="HU3" t="n">
+      <c r="HY3" t="n">
         <v>21911</v>
       </c>
-      <c r="HV3" t="n">
+      <c r="HZ3" t="n">
         <v>-12848</v>
       </c>
-      <c r="HW3" t="n">
+      <c r="IA3" t="n">
         <v>722148</v>
       </c>
-      <c r="HX3" t="n">
+      <c r="IB3" t="n">
         <v>131300</v>
       </c>
-      <c r="HY3" t="n">
+      <c r="IC3" t="n">
         <v>664581</v>
       </c>
-      <c r="HZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA3" t="n">
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
         <v>315475</v>
       </c>
-      <c r="IB3" t="n">
+      <c r="IF3" t="n">
         <v>-619154</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>-6539017</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>13977104</v>
       </c>
       <c r="IG3" t="n">
         <v>1</v>
       </c>
       <c r="IH3" t="n">
+        <v>-6539017</v>
+      </c>
+      <c r="II3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>13977104</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL3" t="n">
         <v>0.64</v>
       </c>
-      <c r="II3" t="n">
-        <v>25643306</v>
+      <c r="IM3" t="n">
+        <v>8878098</v>
       </c>
     </row>
     <row r="4">
@@ -3318,7 +3362,7 @@
         <v>0.73</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="V4" t="n">
         <v>-52</v>
@@ -3740,311 +3784,323 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
+        <v>846068</v>
+      </c>
+      <c r="EZ4" t="n">
         <v>896068</v>
       </c>
-      <c r="EZ4" t="n">
-        <v>0</v>
-      </c>
       <c r="FA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB4" t="n">
         <v>390791</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FC4" t="n">
         <v>267823616</v>
       </c>
-      <c r="FC4" t="n">
+      <c r="FD4" t="n">
         <v>-846068</v>
       </c>
-      <c r="FD4" t="n">
+      <c r="FE4" t="n">
         <v>-794467</v>
       </c>
-      <c r="FE4" t="n">
-        <v>0</v>
-      </c>
       <c r="FF4" t="n">
         <v>0</v>
       </c>
       <c r="FG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>1305608</v>
+      </c>
+      <c r="FI4" t="n">
         <v>1430608</v>
       </c>
-      <c r="FH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI4" t="n">
+      <c r="FJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK4" t="n">
         <v>371306</v>
       </c>
-      <c r="FJ4" t="n">
+      <c r="FL4" t="n">
         <v>267695898</v>
       </c>
-      <c r="FK4" t="n">
+      <c r="FM4" t="n">
         <v>37575000</v>
       </c>
-      <c r="FL4" t="n">
+      <c r="FN4" t="n">
         <v>63571887</v>
       </c>
-      <c r="FM4" t="n">
+      <c r="FO4" t="n">
+        <v>6952000</v>
+      </c>
+      <c r="FP4" t="n">
         <v>314447000</v>
       </c>
-      <c r="FN4" t="n">
+      <c r="FQ4" t="n">
         <v>4654000</v>
       </c>
-      <c r="FO4" t="n">
+      <c r="FR4" t="n">
         <v>9531000</v>
       </c>
-      <c r="FP4" t="n">
+      <c r="FS4" t="n">
         <v>291229000</v>
       </c>
-      <c r="FQ4" t="n">
+      <c r="FT4" t="n">
         <v>1084000</v>
       </c>
-      <c r="FR4" t="n">
+      <c r="FU4" t="n">
         <v>-5868000</v>
       </c>
-      <c r="FS4" t="n">
+      <c r="FV4" t="n">
         <v>354697</v>
       </c>
-      <c r="FT4" t="n">
+      <c r="FW4" t="n">
         <v>12951000</v>
       </c>
-      <c r="FU4" t="n">
+      <c r="FX4" t="n">
         <v>10812000</v>
       </c>
-      <c r="FV4" t="n">
+      <c r="FY4" t="n">
+        <v>30003000</v>
+      </c>
+      <c r="FZ4" t="n">
         <v>342729000</v>
       </c>
-      <c r="FW4" t="n">
+      <c r="GA4" t="n">
         <v>5266000</v>
       </c>
-      <c r="FX4" t="n">
+      <c r="GB4" t="n">
         <v>10557000</v>
       </c>
-      <c r="FY4" t="n">
+      <c r="GC4" t="n">
         <v>296698000</v>
       </c>
-      <c r="FZ4" t="n">
+      <c r="GD4" t="n">
         <v>428000</v>
       </c>
-      <c r="GA4" t="n">
+      <c r="GE4" t="n">
         <v>-29575000</v>
       </c>
-      <c r="GB4" t="n">
+      <c r="GF4" t="n">
         <v>-9464</v>
       </c>
-      <c r="GC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD4" t="n">
+      <c r="GG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH4" t="n">
         <v>235113</v>
       </c>
-      <c r="GE4" t="n">
+      <c r="GI4" t="n">
         <v>608720</v>
       </c>
-      <c r="GF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG4" t="n">
+      <c r="GJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK4" t="n">
         <v>1538555</v>
       </c>
-      <c r="GH4" t="n">
+      <c r="GL4" t="n">
         <v>229975972</v>
       </c>
-      <c r="GI4" t="n">
+      <c r="GM4" t="n">
         <v>-485220</v>
       </c>
-      <c r="GJ4" t="n">
+      <c r="GN4" t="n">
         <v>-360848</v>
       </c>
-      <c r="GK4" t="n">
+      <c r="GO4" t="n">
         <v>50526000</v>
       </c>
-      <c r="GL4" t="n">
+      <c r="GP4" t="n">
         <v>-394022</v>
       </c>
-      <c r="GM4" t="n">
+      <c r="GQ4" t="n">
         <v>-297</v>
       </c>
-      <c r="GN4" t="n">
+      <c r="GR4" t="n">
         <v>6</v>
       </c>
-      <c r="GO4" t="n">
+      <c r="GS4" t="n">
         <v>-0</v>
       </c>
-      <c r="GP4" t="n">
+      <c r="GT4" t="n">
         <v>1126143</v>
       </c>
-      <c r="GQ4" t="n">
+      <c r="GU4" t="n">
         <v>448772896</v>
       </c>
-      <c r="GR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" t="inlineStr">
+      <c r="GV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW4" t="inlineStr">
         <is>
           <t>5.4-19.88</t>
         </is>
       </c>
-      <c r="GT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" t="inlineStr">
+      <c r="GX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY4" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GV4" t="inlineStr">
+      <c r="GZ4" t="inlineStr">
         <is>
           <t>US0926671043</t>
         </is>
       </c>
-      <c r="GW4" t="inlineStr">
+      <c r="HA4" t="inlineStr">
         <is>
           <t>92667104</t>
         </is>
       </c>
-      <c r="GX4" t="inlineStr">
+      <c r="HB4" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="GY4" t="inlineStr">
+      <c r="HC4" t="inlineStr">
         <is>
           <t>https://www.blade.com</t>
         </is>
       </c>
-      <c r="GZ4" t="inlineStr">
+      <c r="HD4" t="inlineStr">
         <is>
           <t>Blade Air Mobility, Inc. provides air transportation alternatives to the congested ground routes in the United States. It provides its services through charter and by-the-seat flights using helicopters, jets, turboprops, and amphibious seaplanes. The company was founded in 2014 and is headquartered in New York, New York.</t>
         </is>
       </c>
-      <c r="HA4" t="inlineStr">
+      <c r="HE4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="HB4" t="inlineStr">
+      <c r="HF4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
       </c>
-      <c r="HC4" t="n">
+      <c r="HG4" t="n">
         <v>73</v>
       </c>
-      <c r="HD4" t="inlineStr">
+      <c r="HH4" t="inlineStr">
         <is>
           <t>212 967 1009</t>
         </is>
       </c>
-      <c r="HE4" t="inlineStr">
+      <c r="HI4" t="inlineStr">
         <is>
           <t>499 East 34th Street</t>
         </is>
       </c>
-      <c r="HF4" t="inlineStr">
+      <c r="HJ4" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="HG4" t="inlineStr">
+      <c r="HK4" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="HH4" t="inlineStr">
+      <c r="HL4" t="inlineStr">
         <is>
           <t>10016</t>
         </is>
       </c>
-      <c r="HI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK4" t="inlineStr">
+      <c r="HM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO4" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/BLDE.png</t>
         </is>
       </c>
-      <c r="HL4" t="inlineStr">
+      <c r="HP4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="HM4" t="inlineStr">
+      <c r="HQ4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN4" t="inlineStr">
+      <c r="HR4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HO4" t="inlineStr">
+      <c r="HS4" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HP4" t="inlineStr">
+      <c r="HT4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HQ4" t="n">
+      <c r="HU4" t="n">
         <v>4654000</v>
       </c>
-      <c r="HR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS4" t="n">
+      <c r="HV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW4" t="n">
         <v>55180000</v>
       </c>
-      <c r="HT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU4" t="n">
+      <c r="HX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY4" t="n">
         <v>-612000</v>
       </c>
-      <c r="HV4" t="n">
+      <c r="HZ4" t="n">
         <v>5266000</v>
       </c>
-      <c r="HW4" t="n">
+      <c r="IA4" t="n">
         <v>36963000</v>
       </c>
-      <c r="HX4" t="n">
+      <c r="IB4" t="n">
         <v>18217000</v>
       </c>
-      <c r="HY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB4" t="n">
+      <c r="IC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF4" t="n">
         <v>-297</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>4</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>-394319</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>-0</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>304916000</v>
       </c>
       <c r="IG4" t="n">
         <v>4</v>
       </c>
       <c r="IH4" t="n">
+        <v>-394319</v>
+      </c>
+      <c r="II4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>304916000</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>4</v>
+      </c>
+      <c r="IL4" t="n">
         <v>0.76</v>
       </c>
-      <c r="II4" t="n">
-        <v>406583328</v>
+      <c r="IM4" t="n">
+        <v>394847328</v>
       </c>
     </row>
     <row r="5">
@@ -4117,7 +4173,7 @@
         <v>1.35</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="V5" t="n">
         <v>-5</v>
@@ -4539,311 +4595,323 @@
         <v>39643248</v>
       </c>
       <c r="EY5" t="n">
+        <v>6447402</v>
+      </c>
+      <c r="EZ5" t="n">
         <v>49924176</v>
       </c>
-      <c r="EZ5" t="n">
-        <v>0</v>
-      </c>
       <c r="FA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" t="n">
         <v>47342740</v>
       </c>
-      <c r="FB5" t="n">
+      <c r="FC5" t="n">
         <v>54283039</v>
       </c>
-      <c r="FC5" t="n">
+      <c r="FD5" t="n">
         <v>13563073</v>
       </c>
-      <c r="FD5" t="n">
+      <c r="FE5" t="n">
         <v>-18698763</v>
       </c>
-      <c r="FE5" t="n">
+      <c r="FF5" t="n">
         <v>26859519</v>
       </c>
-      <c r="FF5" t="n">
+      <c r="FG5" t="n">
         <v>13409586</v>
       </c>
-      <c r="FG5" t="n">
+      <c r="FH5" t="n">
+        <v>6451758</v>
+      </c>
+      <c r="FI5" t="n">
         <v>21737097</v>
       </c>
-      <c r="FH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" t="n">
+      <c r="FJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" t="n">
         <v>7617944</v>
       </c>
-      <c r="FJ5" t="n">
+      <c r="FL5" t="n">
         <v>61010336</v>
       </c>
-      <c r="FK5" t="n">
+      <c r="FM5" t="n">
         <v>29096855</v>
       </c>
-      <c r="FL5" t="n">
+      <c r="FN5" t="n">
         <v>19445152</v>
       </c>
-      <c r="FM5" t="n">
+      <c r="FO5" t="n">
+        <v>66947955</v>
+      </c>
+      <c r="FP5" t="n">
         <v>117326727</v>
       </c>
-      <c r="FN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" t="n">
+      <c r="FQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" t="n">
         <v>62886825</v>
       </c>
-      <c r="FP5" t="n">
+      <c r="FS5" t="n">
         <v>124020642</v>
       </c>
-      <c r="FQ5" t="n">
+      <c r="FT5" t="n">
         <v>55221365</v>
       </c>
-      <c r="FR5" t="n">
+      <c r="FU5" t="n">
         <v>-11726590</v>
       </c>
-      <c r="FS5" t="n">
+      <c r="FV5" t="n">
         <v>-6768079</v>
       </c>
-      <c r="FT5" t="n">
+      <c r="FW5" t="n">
         <v>22134934</v>
       </c>
-      <c r="FU5" t="n">
+      <c r="FX5" t="n">
         <v>14258567</v>
       </c>
-      <c r="FV5" t="n">
+      <c r="FY5" t="n">
+        <v>18404254</v>
+      </c>
+      <c r="FZ5" t="n">
         <v>65984463</v>
       </c>
-      <c r="FW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX5" t="n">
+      <c r="GA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB5" t="n">
         <v>70240984</v>
       </c>
-      <c r="FY5" t="n">
+      <c r="GC5" t="n">
         <v>72494683</v>
       </c>
-      <c r="FZ5" t="n">
+      <c r="GD5" t="n">
         <v>55011188</v>
       </c>
-      <c r="GA5" t="n">
+      <c r="GE5" t="n">
         <v>36606934</v>
       </c>
-      <c r="GB5" t="n">
+      <c r="GF5" t="n">
         <v>-8633626</v>
       </c>
-      <c r="GC5" t="n">
+      <c r="GG5" t="n">
         <v>23196842</v>
       </c>
-      <c r="GD5" t="n">
+      <c r="GH5" t="n">
         <v>12473365</v>
       </c>
-      <c r="GE5" t="n">
+      <c r="GI5" t="n">
         <v>57426146</v>
       </c>
-      <c r="GF5" t="n">
+      <c r="GJ5" t="n">
         <v>6195174</v>
       </c>
-      <c r="GG5" t="n">
+      <c r="GK5" t="n">
         <v>28413978</v>
       </c>
-      <c r="GH5" t="n">
+      <c r="GL5" t="n">
         <v>79998801</v>
       </c>
-      <c r="GI5" t="n">
+      <c r="GM5" t="n">
         <v>12821655</v>
       </c>
-      <c r="GJ5" t="n">
+      <c r="GN5" t="n">
         <v>-8264934</v>
       </c>
-      <c r="GK5" t="n">
+      <c r="GO5" t="n">
         <v>94659223</v>
       </c>
-      <c r="GL5" t="n">
+      <c r="GP5" t="n">
         <v>-27901089</v>
       </c>
-      <c r="GM5" t="n">
+      <c r="GQ5" t="n">
         <v>-3737920</v>
       </c>
-      <c r="GN5" t="n">
+      <c r="GR5" t="n">
         <v>27</v>
       </c>
-      <c r="GO5" t="n">
+      <c r="GS5" t="n">
         <v>1</v>
       </c>
-      <c r="GP5" t="n">
+      <c r="GT5" t="n">
         <v>3588</v>
       </c>
-      <c r="GQ5" t="n">
+      <c r="GU5" t="n">
         <v>95970512</v>
       </c>
-      <c r="GR5" t="n">
+      <c r="GV5" t="n">
         <v>2</v>
       </c>
-      <c r="GS5" t="inlineStr">
+      <c r="GW5" t="inlineStr">
         <is>
           <t>24.95-29.2</t>
         </is>
       </c>
-      <c r="GT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU5" t="inlineStr">
+      <c r="GX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY5" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GV5" t="inlineStr">
+      <c r="GZ5" t="inlineStr">
         <is>
           <t>US16842Q2093</t>
         </is>
       </c>
-      <c r="GW5" t="inlineStr">
+      <c r="HA5" t="inlineStr">
         <is>
           <t>16842Q209</t>
         </is>
       </c>
-      <c r="GX5" t="inlineStr">
+      <c r="HB5" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="GY5" t="inlineStr">
+      <c r="HC5" t="inlineStr">
         <is>
           <t>https://www.cssentertainment.com</t>
         </is>
       </c>
-      <c r="GZ5" t="inlineStr">
+      <c r="HD5" t="inlineStr">
         <is>
           <t>Chicken Soup for the Soul Entertainment, Inc. operates as a streaming video-on-demand company in the United States and internationally. It owns and operates various ad-supported and subscription-based video-on-demand (VOD) networks, including Crackle, Popcornflix, Popcornflix Kids, Truli, Pivotshare, Españolflix, and FrightPix. The company distributes and exhibits VOD content directly to consumers through various digital platforms, such as connected TVs, smartphones, tablets, gaming consoles, and the web through its owned and operated advertising-supported online VOD Crackle Plus networks; distributes its own and third-party owned content to consumers across various digital platforms through its subscription-based VOD network, Pivotshare; and operates a series of direct-to consumer advertising supported channels. It also acquires and distributes video content; and produces long and short-form original content. The company was founded in 2014 and is headquartered in Cos Cob, Connecticut. Chicken Soup for the Soul Entertainment, Inc. is a subsidiary of Chicken Soup for the Soul Productions, LLC.</t>
         </is>
       </c>
-      <c r="HA5" t="inlineStr">
+      <c r="HE5" t="inlineStr">
         <is>
           <t>Mr. William J. Rouhana Jr.</t>
         </is>
       </c>
-      <c r="HB5" t="inlineStr">
+      <c r="HF5" t="inlineStr">
         <is>
           <t>Communication Services</t>
         </is>
       </c>
-      <c r="HC5" t="n">
+      <c r="HG5" t="n">
         <v>99</v>
       </c>
-      <c r="HD5" t="inlineStr">
+      <c r="HH5" t="inlineStr">
         <is>
           <t>855 398 0443</t>
         </is>
       </c>
-      <c r="HE5" t="inlineStr">
+      <c r="HI5" t="inlineStr">
         <is>
           <t>132 East Putman Avenue</t>
         </is>
       </c>
-      <c r="HF5" t="inlineStr">
+      <c r="HJ5" t="inlineStr">
         <is>
           <t>Cos Cob</t>
         </is>
       </c>
-      <c r="HG5" t="inlineStr">
+      <c r="HK5" t="inlineStr">
         <is>
           <t>CT</t>
         </is>
       </c>
-      <c r="HH5" t="inlineStr">
+      <c r="HL5" t="inlineStr">
         <is>
           <t>6807</t>
         </is>
       </c>
-      <c r="HI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK5" t="inlineStr">
+      <c r="HM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO5" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/CSSEP.png</t>
         </is>
       </c>
-      <c r="HL5" t="inlineStr">
+      <c r="HP5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="HM5" t="inlineStr">
+      <c r="HQ5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN5" t="inlineStr">
+      <c r="HR5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HO5" t="inlineStr">
+      <c r="HS5" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HP5" t="inlineStr">
+      <c r="HT5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS5" t="n">
+      <c r="HU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW5" t="n">
         <v>66356956</v>
       </c>
-      <c r="HT5" t="n">
+      <c r="HX5" t="n">
         <v>55363906</v>
       </c>
-      <c r="HU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV5" t="n">
+      <c r="HY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ5" t="n">
         <v>-6195174</v>
       </c>
-      <c r="HW5" t="n">
+      <c r="IA5" t="n">
         <v>29096855</v>
       </c>
-      <c r="HX5" t="n">
+      <c r="IB5" t="n">
         <v>15939760</v>
       </c>
-      <c r="HY5" t="n">
+      <c r="IC5" t="n">
         <v>28302267</v>
       </c>
-      <c r="HZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB5" t="n">
+      <c r="ID5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF5" t="n">
         <v>-3737920</v>
       </c>
-      <c r="IC5" t="n">
+      <c r="IG5" t="n">
         <v>35</v>
       </c>
-      <c r="ID5" t="n">
+      <c r="IH5" t="n">
         <v>-31639009</v>
       </c>
-      <c r="IE5" t="n">
+      <c r="II5" t="n">
         <v>-9</v>
       </c>
-      <c r="IF5" t="n">
+      <c r="IJ5" t="n">
         <v>54439902</v>
       </c>
-      <c r="IG5" t="n">
+      <c r="IK5" t="n">
         <v>16</v>
       </c>
-      <c r="IH5" t="n">
+      <c r="IL5" t="n">
         <v>0.59</v>
       </c>
-      <c r="II5" t="n">
-        <v>51585481</v>
+      <c r="IM5" t="n">
+        <v>80347530</v>
       </c>
     </row>
     <row r="6">
@@ -4916,7 +4984,7 @@
         <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="V6" t="n">
         <v>-5</v>
@@ -5338,311 +5406,323 @@
         <v>24676840</v>
       </c>
       <c r="EY6" t="n">
+        <v>18271352</v>
+      </c>
+      <c r="EZ6" t="n">
         <v>32223720</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="FA6" t="n">
         <v>125000</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="FB6" t="n">
         <v>6441680</v>
       </c>
-      <c r="FB6" t="n">
+      <c r="FC6" t="n">
         <v>24035253</v>
       </c>
-      <c r="FC6" t="n">
+      <c r="FD6" t="n">
         <v>163234</v>
       </c>
-      <c r="FD6" t="n">
+      <c r="FE6" t="n">
         <v>-9055506</v>
       </c>
-      <c r="FE6" t="n">
+      <c r="FF6" t="n">
         <v>33409251</v>
       </c>
-      <c r="FF6" t="n">
+      <c r="FG6" t="n">
         <v>19627031</v>
       </c>
-      <c r="FG6" t="n">
+      <c r="FH6" t="n">
+        <v>12524551</v>
+      </c>
+      <c r="FI6" t="n">
         <v>28451754</v>
       </c>
-      <c r="FH6" t="n">
+      <c r="FJ6" t="n">
         <v>422905</v>
       </c>
-      <c r="FI6" t="n">
+      <c r="FK6" t="n">
         <v>6519280</v>
       </c>
-      <c r="FJ6" t="n">
+      <c r="FL6" t="n">
         <v>33327774</v>
       </c>
-      <c r="FK6" t="n">
+      <c r="FM6" t="n">
         <v>9658444</v>
       </c>
-      <c r="FL6" t="n">
+      <c r="FN6" t="n">
         <v>6989371</v>
       </c>
-      <c r="FM6" t="n">
+      <c r="FO6" t="n">
+        <v>36004000</v>
+      </c>
+      <c r="FP6" t="n">
         <v>60784145</v>
       </c>
-      <c r="FN6" t="n">
+      <c r="FQ6" t="n">
         <v>20195</v>
       </c>
-      <c r="FO6" t="n">
+      <c r="FR6" t="n">
         <v>11426390</v>
       </c>
-      <c r="FP6" t="n">
+      <c r="FS6" t="n">
         <v>47918529</v>
       </c>
-      <c r="FQ6" t="n">
+      <c r="FT6" t="n">
         <v>25921923</v>
       </c>
-      <c r="FR6" t="n">
+      <c r="FU6" t="n">
         <v>-10082077</v>
       </c>
-      <c r="FS6" t="n">
+      <c r="FV6" t="n">
         <v>-8241824</v>
       </c>
-      <c r="FT6" t="n">
+      <c r="FW6" t="n">
         <v>4182110</v>
       </c>
-      <c r="FU6" t="n">
+      <c r="FX6" t="n">
         <v>6518334</v>
       </c>
-      <c r="FV6" t="n">
+      <c r="FY6" t="n">
+        <v>5564349</v>
+      </c>
+      <c r="FZ6" t="n">
         <v>25326231</v>
       </c>
-      <c r="FW6" t="n">
+      <c r="GA6" t="n">
         <v>404486</v>
       </c>
-      <c r="FX6" t="n">
+      <c r="GB6" t="n">
         <v>9428443</v>
       </c>
-      <c r="FY6" t="n">
+      <c r="GC6" t="n">
         <v>15103253</v>
       </c>
-      <c r="FZ6" t="n">
+      <c r="GD6" t="n">
         <v>25977510</v>
       </c>
-      <c r="GA6" t="n">
+      <c r="GE6" t="n">
         <v>20413161</v>
       </c>
-      <c r="GB6" t="n">
+      <c r="GF6" t="n">
         <v>-8647400</v>
       </c>
-      <c r="GC6" t="n">
+      <c r="GG6" t="n">
         <v>5374359</v>
       </c>
-      <c r="GD6" t="n">
+      <c r="GH6" t="n">
         <v>5598405</v>
       </c>
-      <c r="GE6" t="n">
+      <c r="GI6" t="n">
         <v>32267770</v>
       </c>
-      <c r="GF6" t="n">
+      <c r="GJ6" t="n">
         <v>404486</v>
       </c>
-      <c r="GG6" t="n">
+      <c r="GK6" t="n">
         <v>9434022</v>
       </c>
-      <c r="GH6" t="n">
+      <c r="GL6" t="n">
         <v>23285146</v>
       </c>
-      <c r="GI6" t="n">
+      <c r="GM6" t="n">
         <v>10975918</v>
       </c>
-      <c r="GJ6" t="n">
+      <c r="GN6" t="n">
         <v>-7261260</v>
       </c>
-      <c r="GK6" t="n">
+      <c r="GO6" t="n">
         <v>27422952</v>
       </c>
-      <c r="GL6" t="n">
+      <c r="GP6" t="n">
         <v>-28890835</v>
       </c>
-      <c r="GM6" t="n">
+      <c r="GQ6" t="n">
         <v>-2404931</v>
       </c>
-      <c r="GN6" t="n">
+      <c r="GR6" t="n">
         <v>1</v>
       </c>
-      <c r="GO6" t="n">
+      <c r="GS6" t="n">
         <v>2</v>
       </c>
-      <c r="GP6" t="n">
+      <c r="GT6" t="n">
         <v>1389222</v>
       </c>
-      <c r="GQ6" t="n">
+      <c r="GU6" t="n">
         <v>27434180</v>
       </c>
-      <c r="GR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS6" t="inlineStr">
+      <c r="GV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" t="inlineStr">
         <is>
           <t>0.84-8.36</t>
         </is>
       </c>
-      <c r="GT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU6" t="inlineStr">
+      <c r="GX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY6" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GV6" t="inlineStr">
+      <c r="GZ6" t="inlineStr">
         <is>
           <t>US1635722093</t>
         </is>
       </c>
-      <c r="GW6" t="inlineStr">
+      <c r="HA6" t="inlineStr">
         <is>
           <t>163572209</t>
         </is>
       </c>
-      <c r="GX6" t="inlineStr">
+      <c r="HB6" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="GY6" t="inlineStr">
+      <c r="HC6" t="inlineStr">
         <is>
           <t>https://chembio.com</t>
         </is>
       </c>
-      <c r="GZ6" t="inlineStr">
+      <c r="HD6" t="inlineStr">
         <is>
           <t>Chembio Diagnostics, Inc., together with its subsidiaries, develops, manufactures, and commercializes point-of-care (POC) diagnostic tests that are used to detect or diagnose diseases. The company offers tests for COVID-19, HIV and Syphilis, and Zika virus. It also develops tests for malaria, dengue, Hepatitis C, chikungunya, Chagas, ebola, leishmaniasis, lassa, marburg, leptospirosis, Rickettsia, and Burkholderia diseases. The company sells its products under the STAT-PAK, SURE CHECK, STAT VIEW, and DPP trademarks, as well as under the private labels of its marketing partners to medical laboratories and hospitals, governmental and public health entities, non-governmental organizations, medical professionals, and retail establishments in the United States and internationally. It has collaboration agreements with Bill &amp; Melinda Gates Foundation, The Paul G. Allen Family Foundation, The Oswaldo Cruz Foundation, and the Foundation for Innovative New Diagnostics, as well as U.S. government agencies, such as Centers for Disease Control and Prevention, the Biomedical Advanced Research and Development Authority of the U.S. Department of Health and Human Services, and the U.S. Department of Agriculture. Chembio Diagnostics, Inc. was founded in 1985 and is headquartered in Hauppauge, New York.</t>
         </is>
       </c>
-      <c r="HA6" t="inlineStr">
+      <c r="HE6" t="inlineStr">
         <is>
           <t>Ms. Gail Page</t>
         </is>
       </c>
-      <c r="HB6" t="inlineStr">
+      <c r="HF6" t="inlineStr">
         <is>
           <t>Healthcare</t>
         </is>
       </c>
-      <c r="HC6" t="n">
+      <c r="HG6" t="n">
         <v>355</v>
       </c>
-      <c r="HD6" t="inlineStr">
+      <c r="HH6" t="inlineStr">
         <is>
           <t>16319241135</t>
         </is>
       </c>
-      <c r="HE6" t="inlineStr">
+      <c r="HI6" t="inlineStr">
         <is>
           <t>555 Wireless Blvd</t>
         </is>
       </c>
-      <c r="HF6" t="inlineStr">
+      <c r="HJ6" t="inlineStr">
         <is>
           <t>Hauppauge</t>
         </is>
       </c>
-      <c r="HG6" t="inlineStr">
+      <c r="HK6" t="inlineStr">
         <is>
           <t>NEW YORK</t>
         </is>
       </c>
-      <c r="HH6" t="inlineStr">
+      <c r="HL6" t="inlineStr">
         <is>
           <t>11788</t>
         </is>
       </c>
-      <c r="HI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ6" t="n">
+      <c r="HM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN6" t="n">
         <v>2</v>
       </c>
-      <c r="HK6" t="inlineStr">
+      <c r="HO6" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/CEMI.png</t>
         </is>
       </c>
-      <c r="HL6" t="inlineStr">
+      <c r="HP6" t="inlineStr">
         <is>
           <t>2000-10-18</t>
         </is>
       </c>
-      <c r="HM6" t="inlineStr">
+      <c r="HQ6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN6" t="inlineStr">
+      <c r="HR6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HO6" t="inlineStr">
+      <c r="HS6" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HP6" t="inlineStr">
+      <c r="HT6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HQ6" t="n">
+      <c r="HU6" t="n">
         <v>1481997</v>
       </c>
-      <c r="HR6" t="n">
+      <c r="HV6" t="n">
         <v>-297905</v>
       </c>
-      <c r="HS6" t="n">
+      <c r="HW6" t="n">
         <v>31933270</v>
       </c>
-      <c r="HT6" t="n">
+      <c r="HX6" t="n">
         <v>34166127</v>
       </c>
-      <c r="HU6" t="n">
+      <c r="HY6" t="n">
         <v>-384291</v>
       </c>
-      <c r="HV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW6" t="n">
+      <c r="HZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA6" t="n">
         <v>9274153</v>
       </c>
-      <c r="HX6" t="n">
+      <c r="IB6" t="n">
         <v>4182110</v>
       </c>
-      <c r="HY6" t="n">
+      <c r="IC6" t="n">
         <v>-3028321</v>
       </c>
-      <c r="HZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA6" t="n">
+      <c r="ID6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE6" t="n">
         <v>-749501</v>
       </c>
-      <c r="IB6" t="n">
+      <c r="IF6" t="n">
         <v>-1655430</v>
-      </c>
-      <c r="IC6" t="n">
-        <v>2</v>
-      </c>
-      <c r="ID6" t="n">
-        <v>-30546265</v>
-      </c>
-      <c r="IE6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF6" t="n">
-        <v>49357755</v>
       </c>
       <c r="IG6" t="n">
         <v>2</v>
       </c>
       <c r="IH6" t="n">
+        <v>-30546265</v>
+      </c>
+      <c r="II6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>49357755</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL6" t="n">
         <v>1.97</v>
       </c>
-      <c r="II6" t="n">
-        <v>22150914</v>
+      <c r="IM6" t="n">
+        <v>14924459</v>
       </c>
     </row>
     <row r="7">
@@ -5715,7 +5795,7 @@
         <v>2.32</v>
       </c>
       <c r="U7" t="n">
-        <v>1.59</v>
+        <v>-0.83</v>
       </c>
       <c r="V7" t="n">
         <v>-1</v>
@@ -6137,311 +6217,323 @@
         <v>20665000</v>
       </c>
       <c r="EY7" t="n">
+        <v>8417000</v>
+      </c>
+      <c r="EZ7" t="n">
         <v>28440000</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="FA7" t="n">
         <v>42000</v>
       </c>
-      <c r="FA7" t="n">
+      <c r="FB7" t="n">
         <v>5708000</v>
       </c>
-      <c r="FB7" t="n">
+      <c r="FC7" t="n">
         <v>7705000</v>
       </c>
-      <c r="FC7" t="n">
+      <c r="FD7" t="n">
         <v>-8286000</v>
       </c>
-      <c r="FD7" t="n">
+      <c r="FE7" t="n">
         <v>-17198000</v>
       </c>
-      <c r="FE7" t="n">
+      <c r="FF7" t="n">
         <v>1464000</v>
       </c>
-      <c r="FF7" t="n">
+      <c r="FG7" t="n">
         <v>17673000</v>
       </c>
-      <c r="FG7" t="n">
+      <c r="FH7" t="n">
+        <v>11998000</v>
+      </c>
+      <c r="FI7" t="n">
         <v>22876000</v>
       </c>
-      <c r="FH7" t="n">
+      <c r="FJ7" t="n">
         <v>96000</v>
       </c>
-      <c r="FI7" t="n">
+      <c r="FK7" t="n">
         <v>3054000</v>
       </c>
-      <c r="FJ7" t="n">
+      <c r="FL7" t="n">
         <v>12815000</v>
       </c>
-      <c r="FK7" t="n">
+      <c r="FM7" t="n">
         <v>2376000</v>
       </c>
-      <c r="FL7" t="n">
+      <c r="FN7" t="n">
         <v>11089000</v>
       </c>
-      <c r="FM7" t="n">
+      <c r="FO7" t="n">
+        <v>35526000</v>
+      </c>
+      <c r="FP7" t="n">
         <v>43834000</v>
       </c>
-      <c r="FN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" t="n">
+      <c r="FQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" t="n">
         <v>6489000</v>
       </c>
-      <c r="FP7" t="n">
+      <c r="FS7" t="n">
         <v>40223000</v>
       </c>
-      <c r="FQ7" t="n">
+      <c r="FT7" t="n">
         <v>3774000</v>
       </c>
-      <c r="FR7" t="n">
+      <c r="FU7" t="n">
         <v>-31752000</v>
       </c>
-      <c r="FS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT7" t="n">
+      <c r="FV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" t="n">
         <v>1405000</v>
       </c>
-      <c r="FU7" t="n">
+      <c r="FX7" t="n">
         <v>7501000</v>
       </c>
-      <c r="FV7" t="n">
+      <c r="FY7" t="n">
+        <v>43977000</v>
+      </c>
+      <c r="FZ7" t="n">
         <v>50916000</v>
       </c>
-      <c r="FW7" t="n">
+      <c r="GA7" t="n">
         <v>63000</v>
       </c>
-      <c r="FX7" t="n">
+      <c r="GB7" t="n">
         <v>7651000</v>
       </c>
-      <c r="FY7" t="n">
+      <c r="GC7" t="n">
         <v>41640000</v>
       </c>
-      <c r="FZ7" t="n">
+      <c r="GD7" t="n">
         <v>7916000</v>
       </c>
-      <c r="GA7" t="n">
+      <c r="GE7" t="n">
         <v>-36061000</v>
       </c>
-      <c r="GB7" t="n">
+      <c r="GF7" t="n">
         <v>-6233000</v>
       </c>
-      <c r="GC7" t="n">
+      <c r="GG7" t="n">
         <v>828000</v>
       </c>
-      <c r="GD7" t="n">
+      <c r="GH7" t="n">
         <v>5228000</v>
       </c>
-      <c r="GE7" t="n">
+      <c r="GI7" t="n">
         <v>56613000</v>
       </c>
-      <c r="GF7" t="n">
+      <c r="GJ7" t="n">
         <v>63000</v>
       </c>
-      <c r="GG7" t="n">
+      <c r="GK7" t="n">
         <v>5617000</v>
       </c>
-      <c r="GH7" t="n">
+      <c r="GL7" t="n">
         <v>44503000</v>
       </c>
-      <c r="GI7" t="n">
+      <c r="GM7" t="n">
         <v>-25678000</v>
       </c>
-      <c r="GJ7" t="n">
+      <c r="GN7" t="n">
         <v>-4707000</v>
       </c>
-      <c r="GK7" t="n">
+      <c r="GO7" t="n">
         <v>11739000</v>
       </c>
-      <c r="GL7" t="n">
+      <c r="GP7" t="n">
         <v>-17691000</v>
       </c>
-      <c r="GM7" t="n">
+      <c r="GQ7" t="n">
         <v>-1010000</v>
       </c>
-      <c r="GN7" t="n">
+      <c r="GR7" t="n">
         <v>1</v>
       </c>
-      <c r="GO7" t="n">
+      <c r="GS7" t="n">
         <v>-1</v>
       </c>
-      <c r="GP7" t="n">
+      <c r="GT7" t="n">
         <v>1028514</v>
       </c>
-      <c r="GQ7" t="n">
+      <c r="GU7" t="n">
         <v>19522096</v>
       </c>
-      <c r="GR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS7" t="inlineStr">
+      <c r="GV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" t="inlineStr">
         <is>
           <t>0.78-6.4</t>
         </is>
       </c>
-      <c r="GT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU7" t="inlineStr">
+      <c r="GX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY7" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GV7" t="inlineStr">
+      <c r="GZ7" t="inlineStr">
         <is>
           <t>US0390142042</t>
         </is>
       </c>
-      <c r="GW7" t="inlineStr">
+      <c r="HA7" t="inlineStr">
         <is>
           <t>39014204</t>
         </is>
       </c>
-      <c r="GX7" t="inlineStr">
+      <c r="HB7" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="GY7" t="inlineStr">
+      <c r="HC7" t="inlineStr">
         <is>
           <t>https://www.arcadiabio.com</t>
         </is>
       </c>
-      <c r="GZ7" t="inlineStr">
+      <c r="HD7" t="inlineStr">
         <is>
           <t>Arcadia Biosciences, Inc. engages in developing various crop productivity traits primarily in hemp, wheat, and soybean. The company's crop productivity traits are designed to enhance farm economics by improving the performance of crops in the field, as well as their value as food ingredients, health and wellness products, and their viability for industrial applications. Its products include GoodHemp, a commercial pipeline of non-GMO hemp seed varieties developed with modern crop innovation tools focused on genetic improvement of hemp; GoodWheat that redesigns wheat as a functional food adding value to the wheat supply chain by enabling a range of choices to meet consumer demands; and nutritional oils, such as gamma linolenic acid oils. The company has collaborations with Ardent Mills, LLC, Corteva AgriScience, and Arista Cereal Seeds Pty Ltd, and Bay State Milling Company. It operates in the United States, Argentina, Canada, Africa, Austria, and India. The company was incorporated in 2002 and is headquartered in Davis, California.</t>
         </is>
       </c>
-      <c r="HA7" t="inlineStr">
+      <c r="HE7" t="inlineStr">
         <is>
           <t>Mr. Matthew Plavan</t>
         </is>
       </c>
-      <c r="HB7" t="inlineStr">
+      <c r="HF7" t="inlineStr">
         <is>
           <t>Basic Materials</t>
         </is>
       </c>
-      <c r="HC7" t="n">
+      <c r="HG7" t="n">
         <v>58</v>
       </c>
-      <c r="HD7" t="inlineStr">
+      <c r="HH7" t="inlineStr">
         <is>
           <t>15307567077</t>
         </is>
       </c>
-      <c r="HE7" t="inlineStr">
+      <c r="HI7" t="inlineStr">
         <is>
           <t>202 Cousteau Pl Ste 200</t>
         </is>
       </c>
-      <c r="HF7" t="inlineStr">
+      <c r="HJ7" t="inlineStr">
         <is>
           <t>Davis</t>
         </is>
       </c>
-      <c r="HG7" t="inlineStr">
+      <c r="HK7" t="inlineStr">
         <is>
           <t>CALIFORNIA</t>
         </is>
       </c>
-      <c r="HH7" t="inlineStr">
+      <c r="HL7" t="inlineStr">
         <is>
           <t>95618</t>
         </is>
       </c>
-      <c r="HI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ7" t="n">
+      <c r="HM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN7" t="n">
         <v>2</v>
       </c>
-      <c r="HK7" t="inlineStr">
+      <c r="HO7" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/RKDA.png</t>
         </is>
       </c>
-      <c r="HL7" t="inlineStr">
+      <c r="HP7" t="inlineStr">
         <is>
           <t>2015-05-15</t>
         </is>
       </c>
-      <c r="HM7" t="inlineStr">
+      <c r="HQ7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN7" t="inlineStr">
+      <c r="HR7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HO7" t="inlineStr">
+      <c r="HS7" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HP7" t="inlineStr">
+      <c r="HT7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HQ7" t="n">
+      <c r="HU7" t="n">
         <v>-34000</v>
       </c>
-      <c r="HR7" t="n">
+      <c r="HV7" t="n">
         <v>-54000</v>
       </c>
-      <c r="HS7" t="n">
+      <c r="HW7" t="n">
         <v>8000000</v>
       </c>
-      <c r="HT7" t="n">
+      <c r="HX7" t="n">
         <v>1115000</v>
       </c>
-      <c r="HU7" t="n">
+      <c r="HY7" t="n">
         <v>-63000</v>
       </c>
-      <c r="HV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW7" t="n">
+      <c r="HZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA7" t="n">
         <v>2313000</v>
       </c>
-      <c r="HX7" t="n">
+      <c r="IB7" t="n">
         <v>1405000</v>
       </c>
-      <c r="HY7" t="n">
+      <c r="IC7" t="n">
         <v>3705000</v>
       </c>
-      <c r="HZ7" t="n">
+      <c r="ID7" t="n">
         <v>1</v>
       </c>
-      <c r="IA7" t="n">
+      <c r="IE7" t="n">
         <v>2969014</v>
       </c>
-      <c r="IB7" t="n">
+      <c r="IF7" t="n">
         <v>-3979014</v>
-      </c>
-      <c r="IC7" t="n">
-        <v>2</v>
-      </c>
-      <c r="ID7" t="n">
-        <v>-21670014</v>
-      </c>
-      <c r="IE7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF7" t="n">
-        <v>37345000</v>
       </c>
       <c r="IG7" t="n">
         <v>2</v>
       </c>
       <c r="IH7" t="n">
+        <v>-21670014</v>
+      </c>
+      <c r="II7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IJ7" t="n">
+        <v>37345000</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL7" t="n">
         <v>2.16</v>
       </c>
-      <c r="II7" t="n">
-        <v>27578332</v>
+      <c r="IM7" t="n">
+        <v>-14441668</v>
       </c>
     </row>
     <row r="8">
@@ -6514,7 +6606,7 @@
         <v>1.37</v>
       </c>
       <c r="U8" t="n">
-        <v>1.31</v>
+        <v>-0.03</v>
       </c>
       <c r="V8" t="n">
         <v>-1</v>
@@ -6936,311 +7028,323 @@
         <v>18318000</v>
       </c>
       <c r="EY8" t="n">
+        <v>10914000</v>
+      </c>
+      <c r="EZ8" t="n">
         <v>21610000</v>
       </c>
-      <c r="EZ8" t="n">
-        <v>0</v>
-      </c>
       <c r="FA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" t="n">
         <v>4912000</v>
       </c>
-      <c r="FB8" t="n">
+      <c r="FC8" t="n">
         <v>26175000</v>
       </c>
-      <c r="FC8" t="n">
+      <c r="FD8" t="n">
         <v>-9934000</v>
       </c>
-      <c r="FD8" t="n">
+      <c r="FE8" t="n">
         <v>-3387000</v>
       </c>
-      <c r="FE8" t="n">
+      <c r="FF8" t="n">
         <v>56535000</v>
       </c>
-      <c r="FF8" t="n">
+      <c r="FG8" t="n">
         <v>19637000</v>
       </c>
-      <c r="FG8" t="n">
+      <c r="FH8" t="n">
+        <v>12039000</v>
+      </c>
+      <c r="FI8" t="n">
         <v>40717000</v>
       </c>
-      <c r="FH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI8" t="n">
+      <c r="FJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" t="n">
         <v>17161000</v>
       </c>
-      <c r="FJ8" t="n">
+      <c r="FL8" t="n">
         <v>34052000</v>
       </c>
-      <c r="FK8" t="n">
+      <c r="FM8" t="n">
         <v>7559000</v>
       </c>
-      <c r="FL8" t="n">
+      <c r="FN8" t="n">
         <v>3141000</v>
       </c>
-      <c r="FM8" t="n">
+      <c r="FO8" t="n">
+        <v>35161000</v>
+      </c>
+      <c r="FP8" t="n">
         <v>42306000</v>
       </c>
-      <c r="FN8" t="n">
+      <c r="FQ8" t="n">
         <v>1246000</v>
       </c>
-      <c r="FO8" t="n">
+      <c r="FR8" t="n">
         <v>4012000</v>
       </c>
-      <c r="FP8" t="n">
+      <c r="FS8" t="n">
         <v>46444000</v>
       </c>
-      <c r="FQ8" t="n">
+      <c r="FT8" t="n">
         <v>275000</v>
       </c>
-      <c r="FR8" t="n">
+      <c r="FU8" t="n">
         <v>-34886000</v>
       </c>
-      <c r="FS8" t="n">
+      <c r="FV8" t="n">
         <v>343000</v>
       </c>
-      <c r="FT8" t="n">
+      <c r="FW8" t="n">
         <v>5218000</v>
       </c>
-      <c r="FU8" t="n">
+      <c r="FX8" t="n">
         <v>3272000</v>
       </c>
-      <c r="FV8" t="n">
+      <c r="FY8" t="n">
+        <v>36194000</v>
+      </c>
+      <c r="FZ8" t="n">
         <v>41444000</v>
       </c>
-      <c r="FW8" t="n">
+      <c r="GA8" t="n">
         <v>694000</v>
       </c>
-      <c r="FX8" t="n">
+      <c r="GB8" t="n">
         <v>3552000</v>
       </c>
-      <c r="FY8" t="n">
+      <c r="GC8" t="n">
         <v>45898000</v>
       </c>
-      <c r="FZ8" t="n">
+      <c r="GD8" t="n">
         <v>303000</v>
       </c>
-      <c r="GA8" t="n">
+      <c r="GE8" t="n">
         <v>-35891000</v>
       </c>
-      <c r="GB8" t="n">
+      <c r="GF8" t="n">
         <v>454000</v>
       </c>
-      <c r="GC8" t="n">
+      <c r="GG8" t="n">
         <v>5033000</v>
       </c>
-      <c r="GD8" t="n">
+      <c r="GH8" t="n">
         <v>3515000</v>
       </c>
-      <c r="GE8" t="n">
+      <c r="GI8" t="n">
         <v>42389000</v>
       </c>
-      <c r="GF8" t="n">
+      <c r="GJ8" t="n">
         <v>787000</v>
       </c>
-      <c r="GG8" t="n">
+      <c r="GK8" t="n">
         <v>3893000</v>
       </c>
-      <c r="GH8" t="n">
+      <c r="GL8" t="n">
         <v>46523000</v>
       </c>
-      <c r="GI8" t="n">
+      <c r="GM8" t="n">
         <v>-35369000</v>
       </c>
-      <c r="GJ8" t="n">
+      <c r="GN8" t="n">
         <v>-225000</v>
       </c>
-      <c r="GK8" t="n">
+      <c r="GO8" t="n">
         <v>24026000</v>
       </c>
-      <c r="GL8" t="n">
+      <c r="GP8" t="n">
         <v>1156000</v>
       </c>
-      <c r="GM8" t="n">
+      <c r="GQ8" t="n">
         <v>-625000</v>
       </c>
-      <c r="GN8" t="n">
+      <c r="GR8" t="n">
         <v>1</v>
       </c>
-      <c r="GO8" t="n">
+      <c r="GS8" t="n">
         <v>6</v>
       </c>
-      <c r="GP8" t="n">
+      <c r="GT8" t="n">
         <v>585075</v>
       </c>
-      <c r="GQ8" t="n">
+      <c r="GU8" t="n">
         <v>34198092</v>
       </c>
-      <c r="GR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS8" t="inlineStr">
+      <c r="GV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" t="inlineStr">
         <is>
           <t>1.04-6.1</t>
         </is>
       </c>
-      <c r="GT8" t="n">
+      <c r="GX8" t="n">
         <v>-0</v>
       </c>
-      <c r="GU8" t="inlineStr">
+      <c r="GY8" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GV8" t="inlineStr">
+      <c r="GZ8" t="inlineStr">
         <is>
           <t>US3595231073</t>
         </is>
       </c>
-      <c r="GW8" t="inlineStr">
+      <c r="HA8" t="inlineStr">
         <is>
           <t>359523107</t>
         </is>
       </c>
-      <c r="GX8" t="inlineStr">
+      <c r="HB8" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="GY8" t="inlineStr">
+      <c r="HC8" t="inlineStr">
         <is>
           <t>https://www.ftek.com</t>
         </is>
       </c>
-      <c r="GZ8" t="inlineStr">
+      <c r="HD8" t="inlineStr">
         <is>
           <t>Fuel Tech, Inc. provides boiler optimization, efficiency improvement, and air pollution reduction and control solutions to utility and industrial customers worldwide. It operates through two segments, Air Pollution Control Technology and FUEL CHEM Technology. The Air Pollution Control Technology segment offers technologies to reduce nitrogen oxide (NOx) emissions in flue gas from boilers, incinerators, furnaces, and other stationary combustion sources by low and ultra-low NOx burners; over-fire air systems; NOxOUT and HERT selective non-catalytic reduction systems; advanced selective catalytic reduction systems comprising ULNB, OFA, and SNCR components, as well as downsized SCR catalyst, ammonia injection grid, and graduated straightening grid systems; NOxOUT CASCADE and NOxOUT-SCR processes; ULTRA technology; and flue gas conditioning systems. The FUEL CHEM Technology segment provides programs to improve the efficiency, reliability, fuel flexibility, boiler heat rate, and environmental status of combustion units by controlling slagging, fouling, corrosion, opacity, and acid plume, as well as the formation of sulfur trioxide, ammonium bisulfate, particulate matter, sulfur dioxide, and carbon dioxide through the addition of chemicals into the furnace using TIFI targeted in-furnace injection technology. This segment offers its FUEL CHEM program for plants operating in the electric utility, industrial, pulp and paper, waste-to-energy, and university, and district heating markets; and the owners of boilers, furnaces, and other combustion units. The company was incorporated in 1987 and is headquartered in Warrenville, Illinois.</t>
         </is>
       </c>
-      <c r="HA8" t="inlineStr">
+      <c r="HE8" t="inlineStr">
         <is>
           <t>Mr. Vincent Arnone</t>
         </is>
       </c>
-      <c r="HB8" t="inlineStr">
+      <c r="HF8" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
       </c>
-      <c r="HC8" t="n">
+      <c r="HG8" t="n">
         <v>73</v>
       </c>
-      <c r="HD8" t="inlineStr">
+      <c r="HH8" t="inlineStr">
         <is>
           <t>16308454433</t>
         </is>
       </c>
-      <c r="HE8" t="inlineStr">
+      <c r="HI8" t="inlineStr">
         <is>
           <t>27601 Bella Vista Pkwy</t>
         </is>
       </c>
-      <c r="HF8" t="inlineStr">
+      <c r="HJ8" t="inlineStr">
         <is>
           <t>Warrenville</t>
         </is>
       </c>
-      <c r="HG8" t="inlineStr">
+      <c r="HK8" t="inlineStr">
         <is>
           <t>ILLINOIS</t>
         </is>
       </c>
-      <c r="HH8" t="inlineStr">
+      <c r="HL8" t="inlineStr">
         <is>
           <t>60555-1617</t>
         </is>
       </c>
-      <c r="HI8" t="n">
+      <c r="HM8" t="n">
         <v>-3</v>
       </c>
-      <c r="HJ8" t="n">
+      <c r="HN8" t="n">
         <v>2</v>
       </c>
-      <c r="HK8" t="inlineStr">
+      <c r="HO8" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/FTEK.png</t>
         </is>
       </c>
-      <c r="HL8" t="inlineStr">
+      <c r="HP8" t="inlineStr">
         <is>
           <t>1993-09-07</t>
         </is>
       </c>
-      <c r="HM8" t="inlineStr">
+      <c r="HQ8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN8" t="inlineStr">
+      <c r="HR8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HO8" t="inlineStr">
+      <c r="HS8" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HP8" t="inlineStr">
+      <c r="HT8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HQ8" t="n">
+      <c r="HU8" t="n">
         <v>134</v>
       </c>
-      <c r="HR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS8" t="n">
+      <c r="HV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW8" t="n">
         <v>22550134</v>
       </c>
-      <c r="HT8" t="n">
+      <c r="HX8" t="n">
         <v>30467000</v>
       </c>
-      <c r="HU8" t="n">
+      <c r="HY8" t="n">
         <v>552000</v>
       </c>
-      <c r="HV8" t="n">
+      <c r="HZ8" t="n">
         <v>-93000</v>
       </c>
-      <c r="HW8" t="n">
+      <c r="IA8" t="n">
         <v>8111000</v>
       </c>
-      <c r="HX8" t="n">
+      <c r="IB8" t="n">
         <v>5125000</v>
       </c>
-      <c r="HY8" t="n">
+      <c r="IC8" t="n">
         <v>1476000</v>
       </c>
-      <c r="HZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA8" t="n">
+      <c r="ID8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE8" t="n">
         <v>249124</v>
       </c>
-      <c r="IB8" t="n">
+      <c r="IF8" t="n">
         <v>-874124</v>
       </c>
-      <c r="IC8" t="n">
+      <c r="IG8" t="n">
         <v>2</v>
       </c>
-      <c r="ID8" t="n">
+      <c r="IH8" t="n">
         <v>281876</v>
       </c>
-      <c r="IE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF8" t="n">
+      <c r="II8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ8" t="n">
         <v>38294000</v>
       </c>
-      <c r="IG8" t="n">
+      <c r="IK8" t="n">
         <v>1</v>
       </c>
-      <c r="IH8" t="n">
+      <c r="IL8" t="n">
         <v>1.13</v>
       </c>
-      <c r="II8" t="n">
-        <v>44260456</v>
+      <c r="IM8" t="n">
+        <v>-990544</v>
       </c>
     </row>
     <row r="9">
@@ -7313,7 +7417,7 @@
         <v>0.89</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -7735,311 +7839,323 @@
         <v>395838000</v>
       </c>
       <c r="EY9" t="n">
+        <v>500516000</v>
+      </c>
+      <c r="EZ9" t="n">
         <v>692766000</v>
       </c>
-      <c r="EZ9" t="n">
+      <c r="FA9" t="n">
         <v>91589000</v>
       </c>
-      <c r="FA9" t="n">
+      <c r="FB9" t="n">
         <v>345983000</v>
       </c>
-      <c r="FB9" t="n">
+      <c r="FC9" t="n">
         <v>1310421000</v>
       </c>
-      <c r="FC9" t="n">
+      <c r="FD9" t="n">
         <v>16275000</v>
       </c>
-      <c r="FD9" t="n">
+      <c r="FE9" t="n">
         <v>107692000</v>
       </c>
-      <c r="FE9" t="n">
+      <c r="FF9" t="n">
         <v>1239687000</v>
       </c>
-      <c r="FF9" t="n">
+      <c r="FG9" t="n">
         <v>400411000</v>
       </c>
-      <c r="FG9" t="n">
+      <c r="FH9" t="n">
+        <v>299445000</v>
+      </c>
+      <c r="FI9" t="n">
         <v>504700000</v>
       </c>
-      <c r="FH9" t="n">
+      <c r="FJ9" t="n">
         <v>99790000</v>
       </c>
-      <c r="FI9" t="n">
+      <c r="FK9" t="n">
         <v>311631000</v>
       </c>
-      <c r="FJ9" t="n">
+      <c r="FL9" t="n">
         <v>1391530000</v>
       </c>
-      <c r="FK9" t="n">
+      <c r="FM9" t="n">
         <v>348327000</v>
       </c>
-      <c r="FL9" t="n">
+      <c r="FN9" t="n">
         <v>159479000</v>
       </c>
-      <c r="FM9" t="n">
+      <c r="FO9" t="n">
+        <v>360095000</v>
+      </c>
+      <c r="FP9" t="n">
         <v>709257000</v>
       </c>
-      <c r="FN9" t="n">
+      <c r="FQ9" t="n">
         <v>266654000</v>
       </c>
-      <c r="FO9" t="n">
+      <c r="FR9" t="n">
         <v>635695000</v>
       </c>
-      <c r="FP9" t="n">
+      <c r="FS9" t="n">
         <v>1265181000</v>
       </c>
-      <c r="FQ9" t="n">
+      <c r="FT9" t="n">
         <v>1828317000</v>
       </c>
-      <c r="FR9" t="n">
+      <c r="FU9" t="n">
         <v>1468222000</v>
       </c>
-      <c r="FS9" t="n">
+      <c r="FV9" t="n">
         <v>40864000</v>
       </c>
-      <c r="FT9" t="n">
+      <c r="FW9" t="n">
         <v>280374000</v>
       </c>
-      <c r="FU9" t="n">
+      <c r="FX9" t="n">
         <v>107868000</v>
       </c>
-      <c r="FV9" t="n">
+      <c r="FY9" t="n">
+        <v>494613000</v>
+      </c>
+      <c r="FZ9" t="n">
         <v>1514953000</v>
       </c>
-      <c r="FW9" t="n">
+      <c r="GA9" t="n">
         <v>100697000</v>
       </c>
-      <c r="FX9" t="n">
+      <c r="GB9" t="n">
         <v>408807000</v>
       </c>
-      <c r="FY9" t="n">
+      <c r="GC9" t="n">
         <v>1301070000</v>
       </c>
-      <c r="FZ9" t="n">
+      <c r="GD9" t="n">
         <v>1293895000</v>
       </c>
-      <c r="GA9" t="n">
+      <c r="GE9" t="n">
         <v>799282000</v>
       </c>
-      <c r="GB9" t="n">
+      <c r="GF9" t="n">
         <v>48036000</v>
       </c>
-      <c r="GC9" t="n">
+      <c r="GG9" t="n">
         <v>280654000</v>
       </c>
-      <c r="GD9" t="n">
+      <c r="GH9" t="n">
         <v>108500000</v>
       </c>
-      <c r="GE9" t="n">
+      <c r="GI9" t="n">
         <v>1497278000</v>
       </c>
-      <c r="GF9" t="n">
+      <c r="GJ9" t="n">
         <v>116670000</v>
       </c>
-      <c r="GG9" t="n">
+      <c r="GK9" t="n">
         <v>382205000</v>
       </c>
-      <c r="GH9" t="n">
+      <c r="GL9" t="n">
         <v>1306224000</v>
       </c>
-      <c r="GI9" t="n">
+      <c r="GM9" t="n">
         <v>792115000</v>
       </c>
-      <c r="GJ9" t="n">
+      <c r="GN9" t="n">
         <v>80770000</v>
       </c>
-      <c r="GK9" t="n">
+      <c r="GO9" t="n">
         <v>1192466000</v>
       </c>
-      <c r="GL9" t="n">
+      <c r="GP9" t="n">
         <v>153136000</v>
       </c>
-      <c r="GM9" t="n">
+      <c r="GQ9" t="n">
         <v>-41545000</v>
       </c>
-      <c r="GN9" t="n">
+      <c r="GR9" t="n">
         <v>31</v>
       </c>
-      <c r="GO9" t="n">
+      <c r="GS9" t="n">
         <v>1</v>
       </c>
-      <c r="GP9" t="n">
+      <c r="GT9" t="n">
         <v>399032</v>
       </c>
-      <c r="GQ9" t="n">
+      <c r="GU9" t="n">
         <v>1526532096</v>
       </c>
-      <c r="GR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS9" t="inlineStr">
+      <c r="GV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW9" t="inlineStr">
         <is>
           <t>26.66-43.85</t>
         </is>
       </c>
-      <c r="GT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU9" t="inlineStr">
+      <c r="GX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY9" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="GV9" t="inlineStr">
+      <c r="GZ9" t="inlineStr">
         <is>
           <t>US00737L1035</t>
         </is>
       </c>
-      <c r="GW9" t="inlineStr">
+      <c r="HA9" t="inlineStr">
         <is>
           <t>00737L103</t>
         </is>
       </c>
-      <c r="GX9" t="inlineStr">
+      <c r="HB9" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
       </c>
-      <c r="GY9" t="inlineStr">
+      <c r="HC9" t="inlineStr">
         <is>
           <t>https://www.adtalem.com</t>
         </is>
       </c>
-      <c r="GZ9" t="inlineStr">
+      <c r="HD9" t="inlineStr">
         <is>
           <t>Adtalem Global Education Inc. provides workforce solutions worldwide. It operates through two segments, Medical and Healthcare; and Financial Services. The Medical and Healthcare segment offers degree and non-degree programs in the medical and healthcare postsecondary education industry. This segment operates Chamberlain University, American University of the Caribbean School of Medicine, Ross University School of Medicine, and Ross University School of Veterinary Medicine. The Financial Services segment provides test preparation, certifications, conferences, seminars, memberships, and subscriptions to business professionals in the areas of accounting, anti-money laundering, banking, and mortgage lending. It operates Association of Certified Anti-Money Laundering Specialists, Becker Professional Education, OnCourse Learning, and EduPristine. The company was formerly known as DeVry Education Group Inc. and changed its name to Adtalem Global Education Inc. in May 2017. Adtalem Global Education Inc. was incorporated in 1987 and is based in Chicago, Illinois.</t>
         </is>
       </c>
-      <c r="HA9" t="inlineStr">
+      <c r="HE9" t="inlineStr">
         <is>
           <t>Ms. Lisa Wardell</t>
         </is>
       </c>
-      <c r="HB9" t="inlineStr">
+      <c r="HF9" t="inlineStr">
         <is>
           <t>Consumer Defensive</t>
         </is>
       </c>
-      <c r="HC9" t="n">
+      <c r="HG9" t="n">
         <v>4426</v>
       </c>
-      <c r="HD9" t="inlineStr">
+      <c r="HH9" t="inlineStr">
         <is>
           <t>16305157700</t>
         </is>
       </c>
-      <c r="HE9" t="inlineStr">
+      <c r="HI9" t="inlineStr">
         <is>
           <t>500 W Monroe St Fl 28</t>
         </is>
       </c>
-      <c r="HF9" t="inlineStr">
+      <c r="HJ9" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
       </c>
-      <c r="HG9" t="inlineStr">
+      <c r="HK9" t="inlineStr">
         <is>
           <t>ILLINOIS</t>
         </is>
       </c>
-      <c r="HH9" t="inlineStr">
+      <c r="HL9" t="inlineStr">
         <is>
           <t>60661</t>
         </is>
       </c>
-      <c r="HI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ9" t="n">
+      <c r="HM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN9" t="n">
         <v>40</v>
       </c>
-      <c r="HK9" t="inlineStr">
+      <c r="HO9" t="inlineStr">
         <is>
           <t>https://fmpcloud.io/image-stock/ATGE.png</t>
         </is>
       </c>
-      <c r="HL9" t="inlineStr">
+      <c r="HP9" t="inlineStr">
         <is>
           <t>1995-11-14</t>
         </is>
       </c>
-      <c r="HM9" t="inlineStr">
+      <c r="HQ9" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HN9" t="inlineStr">
+      <c r="HR9" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HO9" t="inlineStr">
+      <c r="HS9" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="HP9" t="inlineStr">
+      <c r="HT9" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="HQ9" t="n">
+      <c r="HU9" t="n">
         <v>9108000</v>
       </c>
-      <c r="HR9" t="n">
+      <c r="HV9" t="n">
         <v>-8201000</v>
       </c>
-      <c r="HS9" t="n">
+      <c r="HW9" t="n">
         <v>1121488000</v>
       </c>
-      <c r="HT9" t="n">
+      <c r="HX9" t="n">
         <v>1043800000</v>
       </c>
-      <c r="HU9" t="n">
+      <c r="HY9" t="n">
         <v>165957000</v>
       </c>
-      <c r="HV9" t="n">
+      <c r="HZ9" t="n">
         <v>-15973000</v>
       </c>
-      <c r="HW9" t="n">
+      <c r="IA9" t="n">
         <v>514284000</v>
       </c>
-      <c r="HX9" t="n">
+      <c r="IB9" t="n">
         <v>264401000</v>
       </c>
-      <c r="HY9" t="n">
+      <c r="IC9" t="n">
         <v>80086000</v>
       </c>
-      <c r="HZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA9" t="n">
+      <c r="ID9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE9" t="n">
         <v>26956530</v>
       </c>
-      <c r="IB9" t="n">
+      <c r="IF9" t="n">
         <v>-68501530</v>
       </c>
-      <c r="IC9" t="n">
+      <c r="IG9" t="n">
         <v>25</v>
       </c>
-      <c r="ID9" t="n">
+      <c r="IH9" t="n">
         <v>84634470</v>
       </c>
-      <c r="IE9" t="n">
+      <c r="II9" t="n">
         <v>2</v>
       </c>
-      <c r="IF9" t="n">
+      <c r="IJ9" t="n">
         <v>73562000</v>
       </c>
-      <c r="IG9" t="n">
+      <c r="IK9" t="n">
         <v>1</v>
       </c>
-      <c r="IH9" t="n">
+      <c r="IL9" t="n">
         <v>0.05</v>
       </c>
-      <c r="II9" t="n">
-        <v>83594688</v>
+      <c r="IM9" t="n">
+        <v>2885520688</v>
       </c>
     </row>
   </sheetData>
